--- a/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
+++ b/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
@@ -418,9 +418,6 @@
     <t>Kontaktron Cresnet</t>
   </si>
   <si>
-    <t>1x IN + 2x OUT</t>
-  </si>
-  <si>
     <t>Procesor główny</t>
   </si>
   <si>
@@ -469,9 +466,6 @@
     <t>AV-IN (NVX)</t>
   </si>
   <si>
-    <t>Splitter dla TEOS</t>
-  </si>
-  <si>
     <t>Floorbox HDMI</t>
   </si>
   <si>
@@ -551,6 +545,12 @@
   </si>
   <si>
     <t>Tylko 8 ekranów</t>
+  </si>
+  <si>
+    <t>1x IN + 3x OUT</t>
+  </si>
+  <si>
+    <t>Splitter dla 4xTV</t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1116,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="F201" sqref="F201"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1141,10 +1141,10 @@
       <c r="D1" s="32"/>
       <c r="E1" s="14"/>
       <c r="F1" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1176,7 +1176,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1268,10 +1268,10 @@
         <v>20</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1308,7 +1308,7 @@
         <v>130</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>131</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1522,7 +1522,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1590,10 +1590,10 @@
         <v>20</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1610,7 +1610,7 @@
         <v>22</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1630,7 +1630,7 @@
         <v>130</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1737,7 +1737,7 @@
         <v>26</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,12 +1750,12 @@
         <v>54</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" s="20">
         <v>1</v>
@@ -1764,10 +1764,10 @@
         <v>121</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1795,16 +1795,16 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>168</v>
-      </c>
       <c r="F41" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1846,7 +1846,7 @@
         <v>58</v>
       </c>
       <c r="B44" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>16</v>
@@ -1855,7 +1855,7 @@
         <v>17</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
         <v>66</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1901,7 +1901,7 @@
       <c r="D47" s="32"/>
       <c r="E47" s="14"/>
       <c r="F47" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1947,7 +1947,7 @@
         <v>130</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1991,29 +1991,29 @@
         <v>130</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B54" s="20">
         <v>1</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B55" s="20">
         <v>1</v>
@@ -2022,7 +2022,7 @@
         <v>121</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>124</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B56" s="20">
         <v>2</v>
@@ -2039,10 +2039,10 @@
         <v>121</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2059,7 +2059,7 @@
         <v>70</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2151,12 +2151,12 @@
         <v>73</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64" s="20">
         <v>2</v>
@@ -2165,15 +2165,15 @@
         <v>121</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B65" s="20">
         <v>1</v>
@@ -2182,7 +2182,7 @@
         <v>121</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>127</v>
@@ -2222,7 +2222,7 @@
         <v>130</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2333,7 +2333,7 @@
         <v>45</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2411,7 +2411,7 @@
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B80" s="20">
         <v>4</v>
@@ -2420,10 +2420,10 @@
         <v>121</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
         <v>6</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2566,7 +2566,7 @@
         <v>130</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2603,7 +2603,7 @@
         <v>131</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>126</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2691,7 +2691,7 @@
         <v>73</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2771,7 +2771,7 @@
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B103" s="20">
         <v>1</v>
@@ -2780,18 +2780,18 @@
         <v>121</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B104" s="20">
         <v>1</v>
@@ -2800,7 +2800,7 @@
         <v>121</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>124</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B105" s="20">
         <v>1</v>
@@ -2817,7 +2817,7 @@
         <v>121</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>127</v>
@@ -2840,7 +2840,7 @@
         <v>130</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2881,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
         <v>6</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
         <v>6</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3072,7 +3072,7 @@
         <v>6</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3167,7 +3167,7 @@
         <v>131</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3235,7 +3235,7 @@
         <v>70</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3417,7 +3417,7 @@
     </row>
     <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B144" s="20">
         <v>1</v>
@@ -3426,18 +3426,18 @@
         <v>121</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F144" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B145" s="20">
         <v>1</v>
@@ -3446,7 +3446,7 @@
         <v>121</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>127</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B151" s="20">
         <v>1</v>
@@ -3538,18 +3538,18 @@
         <v>121</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>122</v>
       </c>
       <c r="F151" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B152" s="20">
         <v>1</v>
@@ -3558,18 +3558,18 @@
         <v>121</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>124</v>
       </c>
       <c r="F152" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B153" s="20">
         <v>1</v>
@@ -3578,7 +3578,7 @@
         <v>121</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>127</v>
@@ -3675,7 +3675,7 @@
         <v>70</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3692,7 +3692,7 @@
         <v>14</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3712,12 +3712,12 @@
         <v>130</v>
       </c>
       <c r="F161" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B162" s="20">
         <v>2</v>
@@ -3726,10 +3726,10 @@
         <v>121</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3806,7 +3806,7 @@
         <v>6</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3883,7 +3883,7 @@
         <v>6</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3960,7 +3960,7 @@
         <v>6</v>
       </c>
       <c r="E177" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4214,7 +4214,7 @@
         <v>125</v>
       </c>
       <c r="F192" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="E193" s="13"/>
       <c r="F193" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4291,19 +4291,19 @@
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B198" s="20">
         <v>1</v>
       </c>
       <c r="C198" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D198" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D198" s="25" t="s">
+      <c r="E198" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="E198" s="13" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4320,7 +4320,7 @@
         <v>59</v>
       </c>
       <c r="E199" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4334,13 +4334,13 @@
         <v>60</v>
       </c>
       <c r="D200" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F200" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4357,7 +4357,7 @@
         <v>62</v>
       </c>
       <c r="E201" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4394,17 +4394,13 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A112:D112"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A98:D98"/>
@@ -4413,13 +4409,17 @@
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A163:D163"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
+++ b/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="176">
   <si>
     <t>Recepcja</t>
   </si>
@@ -529,21 +529,12 @@
     <t>Sony FH36</t>
   </si>
   <si>
-    <t>Jaki model?</t>
-  </si>
-  <si>
     <t>Ekran elektryczny (stary)</t>
   </si>
   <si>
     <t>Stały - bez sterowania</t>
   </si>
   <si>
-    <t>Do ustalenia - inny model</t>
-  </si>
-  <si>
-    <t>SonosApp ???</t>
-  </si>
-  <si>
     <t>Tylko 8 ekranów</t>
   </si>
   <si>
@@ -551,6 +542,9 @@
   </si>
   <si>
     <t>Splitter dla 4xTV</t>
+  </si>
+  <si>
+    <t>Tutaj chyba miał być inny keypad</t>
   </si>
 </sst>
 </file>
@@ -646,7 +640,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,6 +657,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF2F5496"/>
         <bgColor rgb="FF2F5496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -706,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -804,6 +810,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1116,8 +1150,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1161,7 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="71.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" style="26" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" style="27" customWidth="1"/>
     <col min="8" max="10" width="8.7109375" customWidth="1"/>
   </cols>
@@ -1745,7 +1779,9 @@
       <c r="B38" s="20">
         <v>1</v>
       </c>
-      <c r="C38" s="11"/>
+      <c r="C38" s="35" t="s">
+        <v>121</v>
+      </c>
       <c r="D38" s="11" t="s">
         <v>54</v>
       </c>
@@ -1760,9 +1796,7 @@
       <c r="B39" s="20">
         <v>1</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>121</v>
-      </c>
+      <c r="C39" s="11"/>
       <c r="D39" s="11" t="s">
         <v>150</v>
       </c>
@@ -1855,7 +1889,7 @@
         <v>17</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1872,7 +1906,7 @@
         <v>66</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2018,9 +2052,7 @@
       <c r="B55" s="20">
         <v>1</v>
       </c>
-      <c r="C55" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="C55" s="22"/>
       <c r="D55" s="22" t="s">
         <v>168</v>
       </c>
@@ -2035,9 +2067,7 @@
       <c r="B56" s="20">
         <v>2</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="C56" s="22"/>
       <c r="D56" s="22" t="s">
         <v>154</v>
       </c>
@@ -2161,9 +2191,7 @@
       <c r="B64" s="20">
         <v>2</v>
       </c>
-      <c r="C64" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="C64" s="22"/>
       <c r="D64" s="22" t="s">
         <v>149</v>
       </c>
@@ -2178,9 +2206,7 @@
       <c r="B65" s="20">
         <v>1</v>
       </c>
-      <c r="C65" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="C65" s="22"/>
       <c r="D65" s="22" t="s">
         <v>153</v>
       </c>
@@ -2416,7 +2442,7 @@
       <c r="B80" s="20">
         <v>4</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="33" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="22" t="s">
@@ -2776,7 +2802,7 @@
       <c r="B103" s="20">
         <v>1</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="34" t="s">
         <v>121</v>
       </c>
       <c r="D103" s="22" t="s">
@@ -2784,9 +2810,6 @@
       </c>
       <c r="E103" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="F103" s="26" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2796,11 +2819,9 @@
       <c r="B104" s="20">
         <v>1</v>
       </c>
-      <c r="C104" s="25" t="s">
-        <v>121</v>
-      </c>
+      <c r="C104" s="25"/>
       <c r="D104" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>124</v>
@@ -2813,9 +2834,7 @@
       <c r="B105" s="20">
         <v>1</v>
       </c>
-      <c r="C105" s="25" t="s">
-        <v>121</v>
-      </c>
+      <c r="C105" s="25"/>
       <c r="D105" s="22" t="s">
         <v>156</v>
       </c>
@@ -3422,7 +3441,7 @@
       <c r="B144" s="20">
         <v>1</v>
       </c>
-      <c r="C144" s="22" t="s">
+      <c r="C144" s="33" t="s">
         <v>121</v>
       </c>
       <c r="D144" s="22" t="s">
@@ -3430,9 +3449,6 @@
       </c>
       <c r="E144" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="F144" s="26" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3442,9 +3458,7 @@
       <c r="B145" s="20">
         <v>1</v>
       </c>
-      <c r="C145" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="C145" s="22"/>
       <c r="D145" s="22" t="s">
         <v>156</v>
       </c>
@@ -3534,7 +3548,7 @@
       <c r="B151" s="20">
         <v>1</v>
       </c>
-      <c r="C151" s="22" t="s">
+      <c r="C151" s="33" t="s">
         <v>121</v>
       </c>
       <c r="D151" s="22" t="s">
@@ -3542,9 +3556,6 @@
       </c>
       <c r="E151" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="F151" s="26" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3554,9 +3565,7 @@
       <c r="B152" s="20">
         <v>1</v>
       </c>
-      <c r="C152" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="C152" s="22"/>
       <c r="D152" s="22" t="s">
         <v>143</v>
       </c>
@@ -3564,7 +3573,7 @@
         <v>124</v>
       </c>
       <c r="F152" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3574,9 +3583,7 @@
       <c r="B153" s="20">
         <v>1</v>
       </c>
-      <c r="C153" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="C153" s="22"/>
       <c r="D153" s="22" t="s">
         <v>156</v>
       </c>
@@ -3695,25 +3702,26 @@
         <v>155</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="19">
+    <row r="161" spans="1:7" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="36">
         <v>206</v>
       </c>
-      <c r="B161" s="20">
-        <v>1</v>
-      </c>
-      <c r="C161" s="11" t="s">
+      <c r="B161" s="37">
+        <v>1</v>
+      </c>
+      <c r="C161" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D161" s="11" t="s">
+      <c r="D161" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="E161" s="13" t="s">
+      <c r="E161" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="F161" s="26" t="s">
-        <v>173</v>
-      </c>
+      <c r="F161" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="G161" s="41"/>
     </row>
     <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="s">
@@ -3722,9 +3730,7 @@
       <c r="B162" s="20">
         <v>2</v>
       </c>
-      <c r="C162" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="C162" s="22"/>
       <c r="D162" s="22" t="s">
         <v>156</v>
       </c>
@@ -4213,9 +4219,6 @@
       <c r="E192" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F192" s="26" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="19">
@@ -4340,7 +4343,7 @@
         <v>160</v>
       </c>
       <c r="F200" s="26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4394,13 +4397,17 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A125:D125"/>
     <mergeCell ref="A112:D112"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A98:D98"/>
@@ -4409,17 +4416,13 @@
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
+++ b/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$3:$E$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$3:$E$198</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="182">
   <si>
     <t>Recepcja</t>
   </si>
@@ -181,9 +181,6 @@
     <t>00.14-00.15 - Kantyna</t>
   </si>
   <si>
-    <t>Projektor FHD</t>
-  </si>
-  <si>
     <t>Ekran elektryczny naścienny. Szerokość 374x210cm + top 50cm</t>
   </si>
   <si>
@@ -343,12 +340,6 @@
     <t>04.01 - Showroom</t>
   </si>
   <si>
-    <t>QM85F</t>
-  </si>
-  <si>
-    <t>Monitor Samsung 85"</t>
-  </si>
-  <si>
     <t>MCX500/KIT</t>
   </si>
   <si>
@@ -454,9 +445,6 @@
     <t>Monitor (stary)</t>
   </si>
   <si>
-    <t>Monitory (stare)</t>
-  </si>
-  <si>
     <t>V-OUT (NVX)</t>
   </si>
   <si>
@@ -545,6 +533,36 @@
   </si>
   <si>
     <t>Tutaj chyba miał być inny keypad</t>
+  </si>
+  <si>
+    <t>LH770</t>
+  </si>
+  <si>
+    <t>Projektor Benq FHD</t>
+  </si>
+  <si>
+    <t>Projektor Benq 4K</t>
+  </si>
+  <si>
+    <t>FWD47W800P</t>
+  </si>
+  <si>
+    <t>V-OUT (NVX -&gt; Splitter)</t>
+  </si>
+  <si>
+    <t>Monitory Sony (stare)</t>
+  </si>
+  <si>
+    <t>Projektor Sony (stary)</t>
+  </si>
+  <si>
+    <t>VPL-FH36</t>
+  </si>
+  <si>
+    <t>Monitor LG 86"</t>
+  </si>
+  <si>
+    <t>86UL3E</t>
   </si>
 </sst>
 </file>
@@ -801,22 +819,7 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -838,6 +841,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1148,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1167,18 +1185,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="14"/>
       <c r="F1" s="28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1210,16 +1228,16 @@
         <v>6</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1251,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1268,7 +1286,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1285,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1302,10 +1320,10 @@
         <v>20</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1322,7 +1340,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1339,10 +1357,10 @@
         <v>24</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1359,7 +1377,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1376,7 +1394,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1442,10 +1460,10 @@
         <v>37</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1462,7 +1480,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1479,16 +1497,16 @@
         <v>41</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,7 +1574,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1573,7 +1591,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1607,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1624,10 +1642,10 @@
         <v>20</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1644,7 +1662,7 @@
         <v>22</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1661,10 +1679,10 @@
         <v>24</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1681,7 +1699,7 @@
         <v>49</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1696,7 +1714,7 @@
         <v>50</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1713,7 +1731,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1730,16 +1748,16 @@
         <v>52</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1768,10 +1786,10 @@
         <v>25</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1779,507 +1797,505 @@
       <c r="B38" s="20">
         <v>1</v>
       </c>
-      <c r="C38" s="35" t="s">
-        <v>121</v>
+      <c r="C38" s="38" t="s">
+        <v>172</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="E38" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20">
+        <v>4</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="20">
+        <v>1</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="20">
-        <v>1</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
-        <v>51</v>
-      </c>
-      <c r="B40" s="20">
-        <v>1</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="E40" s="13" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
+        <v>51</v>
+      </c>
+      <c r="B41" s="20">
+        <v>1</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="20">
-        <v>1</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="E41" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" s="20">
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>131</v>
+        <v>162</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B45" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
+        <v>63</v>
+      </c>
+      <c r="B46" s="20">
+        <v>1</v>
+      </c>
+      <c r="C46" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="20">
+      <c r="D46" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="19">
+        <v>64</v>
+      </c>
+      <c r="B47" s="20">
         <v>2</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D47" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="26" t="s">
-        <v>167</v>
+      <c r="E47" s="13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="17" t="s">
+      <c r="A48" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20">
-        <v>1</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="13"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="20">
+        <v>1</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20">
         <v>2</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D51" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="14"/>
+      <c r="E51" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="17" t="s">
+      <c r="A52" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C53" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="15"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19">
         <v>72</v>
       </c>
-      <c r="B53" s="20">
-        <v>1</v>
-      </c>
-      <c r="C53" s="11" t="s">
+      <c r="B54" s="20">
+        <v>1</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D54" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" s="20">
-        <v>1</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>151</v>
-      </c>
       <c r="E54" s="13" t="s">
-        <v>155</v>
+        <v>127</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B55" s="20">
         <v>1</v>
       </c>
-      <c r="C55" s="22"/>
+      <c r="C55" s="22" t="s">
+        <v>165</v>
+      </c>
       <c r="D55" s="22" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B56" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="22" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19">
-        <v>73</v>
+      <c r="A57" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="B57" s="20">
-        <v>1</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>70</v>
+        <v>2</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
+        <v>73</v>
+      </c>
+      <c r="B58" s="20">
+        <v>1</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="19">
         <v>74</v>
       </c>
-      <c r="B58" s="20">
-        <v>1</v>
-      </c>
-      <c r="C58" s="11" t="s">
+      <c r="B59" s="20">
+        <v>1</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D59" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>75</v>
-      </c>
-      <c r="B59" s="3">
-        <v>0</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59"/>
-      <c r="G59"/>
+      <c r="E59" s="13" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
+    <row r="61" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>76</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="19">
+        <v>79</v>
+      </c>
+      <c r="B64" s="20">
+        <v>1</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="14"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="15"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19">
-        <v>79</v>
-      </c>
-      <c r="B63" s="20">
-        <v>1</v>
-      </c>
-      <c r="C63" s="11" t="s">
+      <c r="D64" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B64" s="20">
-        <v>2</v>
-      </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="E64" s="13" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B65" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="22"/>
       <c r="D65" s="22" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="19">
-        <v>80</v>
+      <c r="A66" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="B66" s="20">
         <v>1</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>22</v>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
+        <v>80</v>
+      </c>
+      <c r="B67" s="20">
+        <v>1</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="19">
         <v>83</v>
       </c>
-      <c r="B67" s="20">
-        <v>1</v>
-      </c>
-      <c r="C67" s="11" t="s">
+      <c r="B68" s="20">
+        <v>1</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D68" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F67" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>84</v>
-      </c>
-      <c r="B68" s="3">
-        <v>0</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" s="5"/>
-      <c r="F68"/>
-      <c r="G68"/>
+      <c r="E68" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69"/>
@@ -2287,1080 +2303,1080 @@
     </row>
     <row r="70" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="30" t="s">
+    <row r="71" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>86</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71"/>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="14"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="15"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>90</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="14"/>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="15"/>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>90</v>
-      </c>
-      <c r="B73" s="3">
-        <v>0</v>
-      </c>
-      <c r="C73" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="E74" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F73"/>
-      <c r="G73"/>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19">
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="19">
         <v>91</v>
       </c>
-      <c r="B74" s="20">
-        <v>1</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="B75" s="20">
+        <v>1</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D75" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E74" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>93</v>
-      </c>
-      <c r="B75" s="3">
-        <v>0</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E75" s="5"/>
-      <c r="F75"/>
-      <c r="G75"/>
+      <c r="E75" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="14"/>
+    <row r="77" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>94</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77"/>
+      <c r="G77"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="17" t="s">
+      <c r="A78" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="14"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C79" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="15"/>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="19">
+      <c r="E79" s="15"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="19">
         <v>98</v>
-      </c>
-      <c r="B79" s="20">
-        <v>4</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E79" s="13"/>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
-        <v>135</v>
       </c>
       <c r="B80" s="20">
         <v>4</v>
       </c>
-      <c r="C80" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>138</v>
-      </c>
+      <c r="C80" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="20">
+        <v>4</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="14"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="15"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="19">
+        <v>102</v>
+      </c>
+      <c r="B84" s="20">
+        <v>1</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="14"/>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="17" t="s">
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="14"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C86" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E82" s="15"/>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="19">
-        <v>102</v>
-      </c>
-      <c r="B83" s="20">
-        <v>1</v>
-      </c>
-      <c r="C83" s="11" t="s">
+      <c r="E86" s="15"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="19">
+        <v>108</v>
+      </c>
+      <c r="B87" s="20">
+        <v>1</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D87" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
+      <c r="E87" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>112</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88"/>
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="14"/>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="17" t="s">
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="14"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C90" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="15"/>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="19">
-        <v>108</v>
-      </c>
-      <c r="B86" s="20">
-        <v>1</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>112</v>
-      </c>
-      <c r="B87" s="3">
-        <v>0</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="8"/>
-      <c r="F87"/>
-      <c r="G87"/>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="14"/>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="15"/>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="19">
-        <v>113</v>
-      </c>
-      <c r="B90" s="20">
-        <v>1</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F90" s="26" t="s">
-        <v>162</v>
-      </c>
+      <c r="E90" s="15"/>
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91" s="20">
         <v>1</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B92" s="20">
         <v>1</v>
       </c>
-      <c r="C92" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" s="24" t="s">
-        <v>85</v>
+      <c r="C92" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B93" s="20">
         <v>1</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>22</v>
+      <c r="C93" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94" s="20">
         <v>1</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F94" s="26" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B95" s="20">
         <v>1</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B96" s="20">
         <v>1</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
+        <v>122</v>
+      </c>
+      <c r="B97" s="20">
+        <v>1</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B97" s="20">
-        <v>1</v>
-      </c>
-      <c r="C97" s="11" t="s">
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="19">
+        <v>125</v>
+      </c>
+      <c r="B98" s="20">
+        <v>1</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D97" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="14"/>
+      <c r="E98" s="13" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B99" s="17" t="s">
+      <c r="A99" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="14"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C100" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E99" s="15"/>
-    </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="19">
+      <c r="E100" s="15"/>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="19">
         <v>128</v>
       </c>
-      <c r="B100" s="20">
-        <v>1</v>
-      </c>
-      <c r="C100" s="11" t="s">
+      <c r="B101" s="20">
+        <v>1</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D101" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E100" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>129</v>
-      </c>
-      <c r="B101" s="3">
-        <v>0</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E101" s="9"/>
-      <c r="F101"/>
-      <c r="G101"/>
+      <c r="E101" s="13" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B102" s="3">
         <v>0</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B103" s="20">
-        <v>1</v>
-      </c>
-      <c r="C103" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>155</v>
-      </c>
+    <row r="103" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>130</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103"/>
+      <c r="G103"/>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B104" s="20">
         <v>1</v>
       </c>
-      <c r="C104" s="25"/>
+      <c r="C104" s="39" t="s">
+        <v>179</v>
+      </c>
       <c r="D104" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>124</v>
+        <v>178</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B105" s="20">
         <v>1</v>
       </c>
       <c r="C105" s="25"/>
       <c r="D105" s="22" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E105" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106" s="20">
+        <v>1</v>
+      </c>
+      <c r="C106" s="25"/>
+      <c r="D106" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="19">
+        <v>132</v>
+      </c>
+      <c r="B107" s="20">
+        <v>1</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="13" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="19">
-        <v>132</v>
-      </c>
-      <c r="B106" s="20">
-        <v>1</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F106" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="14"/>
+      <c r="F107" s="26" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B108" s="17" t="s">
+      <c r="A108" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="14"/>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C109" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E108" s="15"/>
-    </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="19">
+      <c r="E109" s="15"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="19">
         <v>135</v>
       </c>
-      <c r="B109" s="20">
-        <v>1</v>
-      </c>
-      <c r="C109" s="11" t="s">
+      <c r="B110" s="20">
+        <v>1</v>
+      </c>
+      <c r="C110" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D110" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E109" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>138</v>
-      </c>
-      <c r="B110" s="3">
-        <v>0</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E110" s="5"/>
-      <c r="F110"/>
-      <c r="G110"/>
+      <c r="E110" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="111" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B111" s="3">
         <v>0</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="30" t="s">
+    <row r="112" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>139</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112"/>
+      <c r="G112"/>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B113" s="41"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="14"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="15"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="19">
+        <v>143</v>
+      </c>
+      <c r="B115" s="20">
+        <v>1</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="14"/>
-    </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" s="17" t="s">
+      <c r="B116" s="41"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="42"/>
+      <c r="E116" s="14"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C117" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="15"/>
-    </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="19">
-        <v>143</v>
-      </c>
-      <c r="B114" s="20">
-        <v>1</v>
-      </c>
-      <c r="C114" s="11" t="s">
+      <c r="E117" s="15"/>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="19">
+        <v>151</v>
+      </c>
+      <c r="B118" s="20">
+        <v>1</v>
+      </c>
+      <c r="C118" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D118" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="14"/>
-    </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E116" s="15"/>
-    </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="19">
-        <v>151</v>
-      </c>
-      <c r="B117" s="20">
-        <v>1</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>156</v>
-      </c>
-      <c r="B118" s="3">
-        <v>0</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E118" s="7"/>
-      <c r="F118"/>
-      <c r="G118"/>
+      <c r="E118" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B119" s="3">
         <v>0</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119"/>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="14"/>
+    <row r="120" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>157</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="7"/>
+      <c r="F120"/>
+      <c r="G120"/>
     </row>
     <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B121" s="17" t="s">
+      <c r="A121" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B121" s="41"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="42"/>
+      <c r="E121" s="14"/>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C122" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E121" s="15"/>
-    </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="19">
+      <c r="E122" s="15"/>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="19">
         <v>159</v>
       </c>
-      <c r="B122" s="20">
-        <v>1</v>
-      </c>
-      <c r="C122" s="11" t="s">
+      <c r="B123" s="20">
+        <v>1</v>
+      </c>
+      <c r="C123" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D123" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E122" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>162</v>
-      </c>
-      <c r="B123" s="3">
-        <v>0</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E123" s="7"/>
-      <c r="F123"/>
-      <c r="G123"/>
+      <c r="E123" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B124" s="3">
         <v>0</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124"/>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="14"/>
+    <row r="125" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>163</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125"/>
+      <c r="G125"/>
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B126" s="17" t="s">
+      <c r="A126" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126" s="41"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="14"/>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C127" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E126" s="15"/>
-    </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="19">
-        <v>165</v>
-      </c>
-      <c r="B127" s="20">
-        <v>1</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="E127" s="15"/>
     </row>
     <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B128" s="20">
         <v>1</v>
       </c>
-      <c r="C128" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D128" s="24" t="s">
-        <v>95</v>
+      <c r="C128" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F128" s="26" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="19">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B129" s="20">
         <v>1</v>
       </c>
-      <c r="C129" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>86</v>
+      <c r="C129" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="F129" s="26" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="19">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B130" s="20">
         <v>1</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="19">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B131" s="20">
         <v>1</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="19">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B132" s="20">
         <v>1</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="19">
+        <v>174</v>
+      </c>
+      <c r="B133" s="20">
+        <v>1</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="19">
         <v>177</v>
       </c>
-      <c r="B133" s="20">
-        <v>1</v>
-      </c>
-      <c r="C133" s="11" t="s">
+      <c r="B134" s="20">
+        <v>1</v>
+      </c>
+      <c r="C134" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D134" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E133" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>178</v>
-      </c>
-      <c r="B134" s="3">
-        <v>0</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E134" s="5"/>
-      <c r="F134"/>
-      <c r="G134"/>
+      <c r="E134" s="13" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="135" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B135" s="3">
         <v>0</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135"/>
       <c r="G135"/>
     </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="32"/>
-      <c r="E136" s="14"/>
+    <row r="136" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>179</v>
+      </c>
+      <c r="B136" s="3">
+        <v>0</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="5"/>
+      <c r="F136"/>
+      <c r="G136"/>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" s="17" t="s">
+      <c r="A137" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B137" s="41"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="42"/>
+      <c r="E137" s="14"/>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="C138" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E137" s="15"/>
-    </row>
-    <row r="138" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>182</v>
-      </c>
-      <c r="B138" s="3">
-        <v>0</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E138" s="7"/>
-      <c r="F138"/>
-      <c r="G138"/>
+      <c r="E138" s="15"/>
     </row>
     <row r="139" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B139" s="3">
         <v>0</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>8</v>
+      <c r="C139" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139"/>
@@ -3368,16 +3384,16 @@
     </row>
     <row r="140" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B140" s="3">
         <v>0</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140"/>
@@ -3385,638 +3401,638 @@
     </row>
     <row r="141" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B141" s="3">
         <v>0</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141"/>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="19">
+    <row r="142" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>185</v>
+      </c>
+      <c r="B142" s="3">
+        <v>0</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E142" s="7"/>
+      <c r="F142"/>
+      <c r="G142"/>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="19">
         <v>186</v>
       </c>
-      <c r="B142" s="20">
-        <v>1</v>
-      </c>
-      <c r="C142" s="11" t="s">
+      <c r="B143" s="20">
+        <v>1</v>
+      </c>
+      <c r="C143" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D143" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E142" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
+      <c r="E143" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
         <v>187</v>
       </c>
-      <c r="B143" s="3">
-        <v>0</v>
-      </c>
-      <c r="C143" s="4" t="s">
+      <c r="B144" s="3">
+        <v>0</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D144" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E143" s="7"/>
-      <c r="F143"/>
-      <c r="G143"/>
-    </row>
-    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B144" s="20">
-        <v>1</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E144" s="12" t="s">
-        <v>155</v>
-      </c>
+      <c r="E144" s="7"/>
+      <c r="F144"/>
+      <c r="G144"/>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B145" s="20">
         <v>1</v>
       </c>
-      <c r="C145" s="22"/>
+      <c r="C145" s="30" t="s">
+        <v>118</v>
+      </c>
       <c r="D145" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="32"/>
-      <c r="E146" s="14"/>
+      <c r="A146" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B146" s="20">
+        <v>1</v>
+      </c>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B147" s="17" t="s">
+      <c r="A147" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B147" s="41"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="42"/>
+      <c r="E147" s="14"/>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C147" s="18" t="s">
+      <c r="C148" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E147" s="15"/>
-    </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="19">
+      <c r="E148" s="15"/>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="19">
         <v>192</v>
       </c>
-      <c r="B148" s="20">
-        <v>1</v>
-      </c>
-      <c r="C148" s="11" t="s">
+      <c r="B149" s="20">
+        <v>1</v>
+      </c>
+      <c r="C149" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D149" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E148" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <v>193</v>
-      </c>
-      <c r="B149" s="3">
-        <v>0</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E149" s="5"/>
-      <c r="F149"/>
-      <c r="G149"/>
+      <c r="E149" s="13" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="150" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B150" s="3">
         <v>0</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150"/>
       <c r="G150"/>
     </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B151" s="20">
-        <v>1</v>
-      </c>
-      <c r="C151" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E151" s="12" t="s">
-        <v>122</v>
-      </c>
+    <row r="151" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>194</v>
+      </c>
+      <c r="B151" s="3">
+        <v>0</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="5"/>
+      <c r="F151"/>
+      <c r="G151"/>
     </row>
     <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B152" s="20">
         <v>1</v>
       </c>
-      <c r="C152" s="22"/>
+      <c r="C152" s="30" t="s">
+        <v>118</v>
+      </c>
       <c r="D152" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F152" s="26" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B153" s="20">
         <v>1</v>
       </c>
       <c r="C153" s="22"/>
       <c r="D153" s="22" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="F153" s="26" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="32"/>
-      <c r="E154" s="14"/>
+      <c r="A154" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B154" s="20">
+        <v>1</v>
+      </c>
+      <c r="C154" s="22"/>
+      <c r="D154" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B155" s="17" t="s">
+      <c r="A155" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B155" s="41"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="42"/>
+      <c r="E155" s="14"/>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C156" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E155" s="15"/>
-    </row>
-    <row r="156" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>197</v>
-      </c>
-      <c r="B156" s="3">
-        <v>0</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F156"/>
-      <c r="G156"/>
+      <c r="E156" s="15"/>
     </row>
     <row r="157" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B157" s="3">
         <v>0</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E157" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="F157"/>
       <c r="G157"/>
     </row>
     <row r="158" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B158" s="3">
         <v>0</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158"/>
       <c r="G158"/>
     </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="19">
-        <v>200</v>
-      </c>
-      <c r="B159" s="20">
-        <v>1</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E159" s="13" t="s">
-        <v>136</v>
-      </c>
+    <row r="159" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>199</v>
+      </c>
+      <c r="B159" s="3">
+        <v>0</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="5"/>
+      <c r="F159"/>
+      <c r="G159"/>
     </row>
     <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="19">
+        <v>200</v>
+      </c>
+      <c r="B160" s="20">
+        <v>1</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="19">
         <v>202</v>
       </c>
-      <c r="B160" s="20">
-        <v>1</v>
-      </c>
-      <c r="C160" s="11" t="s">
+      <c r="B161" s="20">
+        <v>1</v>
+      </c>
+      <c r="C161" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D160" s="11" t="s">
+      <c r="D161" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E160" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="36">
+      <c r="E161" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="31">
         <v>206</v>
       </c>
-      <c r="B161" s="37">
-        <v>1</v>
-      </c>
-      <c r="C161" s="38" t="s">
+      <c r="B162" s="32">
+        <v>1</v>
+      </c>
+      <c r="C162" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D161" s="38" t="s">
+      <c r="D162" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E162" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F162" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G162" s="36"/>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B163" s="20">
+        <v>2</v>
+      </c>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E161" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="F161" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="G161" s="41"/>
-    </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B162" s="20">
+      <c r="B164" s="41"/>
+      <c r="C164" s="41"/>
+      <c r="D164" s="42"/>
+      <c r="E164" s="14"/>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C162" s="22"/>
-      <c r="D162" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E162" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="32"/>
-      <c r="E163" s="14"/>
-    </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C164" s="18" t="s">
+      <c r="C165" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E164" s="15"/>
-    </row>
-    <row r="165" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
-        <v>207</v>
-      </c>
-      <c r="B165" s="3">
-        <v>0</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E165" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F165"/>
-      <c r="G165"/>
+      <c r="E165" s="15"/>
     </row>
     <row r="166" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B166" s="3">
         <v>0</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E166" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="F166"/>
       <c r="G166"/>
     </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="19">
+    <row r="167" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>208</v>
+      </c>
+      <c r="B167" s="3">
+        <v>0</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="9"/>
+      <c r="F167"/>
+      <c r="G167"/>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="19">
         <v>210</v>
       </c>
-      <c r="B167" s="20">
-        <v>1</v>
-      </c>
-      <c r="C167" s="11" t="s">
+      <c r="B168" s="20">
+        <v>1</v>
+      </c>
+      <c r="C168" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D167" s="11" t="s">
+      <c r="D168" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E167" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B168" s="31"/>
-      <c r="C168" s="31"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="14"/>
+      <c r="E168" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B169" s="17" t="s">
+      <c r="A169" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B169" s="41"/>
+      <c r="C169" s="41"/>
+      <c r="D169" s="42"/>
+      <c r="E169" s="14"/>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C169" s="18" t="s">
+      <c r="C170" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E169" s="15"/>
-    </row>
-    <row r="170" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>215</v>
-      </c>
-      <c r="B170" s="3">
-        <v>0</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E170" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F170"/>
-      <c r="G170"/>
+      <c r="E170" s="15"/>
     </row>
     <row r="171" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B171" s="3">
         <v>0</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E171" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="F171"/>
       <c r="G171"/>
     </row>
-    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="19">
+    <row r="172" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>216</v>
+      </c>
+      <c r="B172" s="3">
+        <v>0</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="7"/>
+      <c r="F172"/>
+      <c r="G172"/>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="19">
         <v>218</v>
       </c>
-      <c r="B172" s="20">
-        <v>1</v>
-      </c>
-      <c r="C172" s="11" t="s">
+      <c r="B173" s="20">
+        <v>1</v>
+      </c>
+      <c r="C173" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D172" s="11" t="s">
+      <c r="D173" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E172" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B173" s="31"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="32"/>
-      <c r="E173" s="14"/>
+      <c r="E173" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B174" s="17" t="s">
+      <c r="A174" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B174" s="41"/>
+      <c r="C174" s="41"/>
+      <c r="D174" s="42"/>
+      <c r="E174" s="14"/>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C175" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E174" s="15"/>
-    </row>
-    <row r="175" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>222</v>
-      </c>
-      <c r="B175" s="3">
-        <v>0</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F175"/>
-      <c r="G175"/>
+      <c r="E175" s="15"/>
     </row>
     <row r="176" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B176" s="3">
         <v>0</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E176" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="F176"/>
       <c r="G176"/>
     </row>
-    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="19">
+    <row r="177" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>223</v>
+      </c>
+      <c r="B177" s="3">
+        <v>0</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="7"/>
+      <c r="F177"/>
+      <c r="G177"/>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="19">
         <v>225</v>
       </c>
-      <c r="B177" s="20">
-        <v>1</v>
-      </c>
-      <c r="C177" s="11" t="s">
+      <c r="B178" s="20">
+        <v>1</v>
+      </c>
+      <c r="C178" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D177" s="11" t="s">
+      <c r="D178" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E177" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
-        <v>230</v>
-      </c>
-      <c r="B178" s="3">
-        <v>0</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F178"/>
-      <c r="G178"/>
+      <c r="E178" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="179" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B179" s="3">
         <v>0</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E179" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F179"/>
       <c r="G179"/>
     </row>
     <row r="180" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B180" s="3">
         <v>0</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E180" s="7"/>
       <c r="F180"/>
@@ -4024,52 +4040,52 @@
     </row>
     <row r="181" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B181" s="3">
         <v>0</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>106</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E181" s="7"/>
       <c r="F181"/>
       <c r="G181"/>
     </row>
     <row r="182" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B182" s="3">
         <v>0</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E182" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="F182"/>
       <c r="G182"/>
     </row>
     <row r="183" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B183" s="3">
         <v>0</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183"/>
@@ -4077,309 +4093,326 @@
     </row>
     <row r="184" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B184" s="3">
         <v>0</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>106</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E184" s="7"/>
       <c r="F184"/>
       <c r="G184"/>
     </row>
     <row r="185" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B185" s="3">
         <v>0</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E185" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="F185"/>
       <c r="G185"/>
     </row>
     <row r="186" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B186" s="3">
         <v>0</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186"/>
       <c r="G186"/>
     </row>
-    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B187" s="31"/>
-      <c r="C187" s="31"/>
-      <c r="D187" s="32"/>
-      <c r="E187" s="14"/>
+    <row r="187" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>246</v>
+      </c>
+      <c r="B187" s="3">
+        <v>0</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="7"/>
+      <c r="F187"/>
+      <c r="G187"/>
     </row>
     <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B188" s="17" t="s">
+      <c r="A188" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B188" s="41"/>
+      <c r="C188" s="41"/>
+      <c r="D188" s="42"/>
+      <c r="E188" s="14"/>
+    </row>
+    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C188" s="18" t="s">
+      <c r="C189" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E188" s="15"/>
-    </row>
-    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="19">
+      <c r="E189" s="15"/>
+    </row>
+    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="19">
         <v>250</v>
       </c>
-      <c r="B189" s="20">
-        <v>1</v>
-      </c>
-      <c r="C189" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D189" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E189" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
-        <v>251</v>
-      </c>
-      <c r="B190" s="3">
-        <v>0</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E190" s="9"/>
-      <c r="F190"/>
-      <c r="G190"/>
+      <c r="B190" s="20">
+        <v>1</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="191" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B191" s="3">
         <v>0</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E191" s="9"/>
       <c r="F191"/>
       <c r="G191"/>
     </row>
-    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="19">
-        <v>253</v>
-      </c>
-      <c r="B192" s="20">
-        <v>1</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D192" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E192" s="13" t="s">
-        <v>125</v>
-      </c>
+    <row r="192" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>252</v>
+      </c>
+      <c r="B192" s="3">
+        <v>0</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E192" s="9"/>
+      <c r="F192"/>
+      <c r="G192"/>
     </row>
     <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="19">
+        <v>253</v>
+      </c>
+      <c r="B193" s="20">
+        <v>1</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E193" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="19">
         <v>254</v>
       </c>
-      <c r="B193" s="20">
-        <v>1</v>
-      </c>
-      <c r="C193" s="11" t="s">
+      <c r="B194" s="20">
+        <v>1</v>
+      </c>
+      <c r="C194" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D193" s="11" t="s">
+      <c r="D194" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E193" s="13"/>
-      <c r="F193" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B194" s="31"/>
-      <c r="C194" s="31"/>
-      <c r="D194" s="32"/>
-      <c r="E194" s="14"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="26" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B195" s="17" t="s">
+      <c r="A195" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B195" s="41"/>
+      <c r="C195" s="41"/>
+      <c r="D195" s="42"/>
+      <c r="E195" s="14"/>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C195" s="18" t="s">
+      <c r="C196" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E195" s="15"/>
-    </row>
-    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="19">
-        <v>255</v>
-      </c>
-      <c r="B196" s="20">
-        <v>1</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E196" s="13"/>
+      <c r="E196" s="15"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="19">
+        <v>255</v>
+      </c>
+      <c r="B197" s="20">
+        <v>1</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E197" s="13"/>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="19">
         <v>256</v>
       </c>
-      <c r="B197" s="20">
+      <c r="B198" s="20">
         <v>3</v>
       </c>
-      <c r="C197" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D197" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E197" s="13"/>
-    </row>
-    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B198" s="20">
-        <v>1</v>
-      </c>
-      <c r="C198" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D198" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E198" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="19">
-        <v>59</v>
+      <c r="C198" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E198" s="13"/>
+    </row>
+    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="B199" s="20">
         <v>1</v>
       </c>
-      <c r="C199" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D199" s="11" t="s">
-        <v>59</v>
+      <c r="C199" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D199" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="E199" s="13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="19">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B200" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D200" s="22" t="s">
-        <v>159</v>
+        <v>57</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F200" s="26" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="19">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B201" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D201" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="D201" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="E201" s="13" t="s">
-        <v>134</v>
+        <v>156</v>
+      </c>
+      <c r="F201" s="26" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="19">
+        <v>61</v>
+      </c>
+      <c r="B202" s="20">
+        <v>1</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E202" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="19">
         <v>62</v>
       </c>
-      <c r="B202" s="20">
-        <v>1</v>
-      </c>
-      <c r="C202" s="11" t="s">
+      <c r="B203" s="20">
+        <v>1</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D203" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D202" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E202" s="13"/>
+      <c r="E203" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E197">
+  <autoFilter ref="A3:E198">
     <filterColumn colId="1">
       <filters blank="1">
         <filter val="1"/>
@@ -4397,29 +4430,29 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A62:D62"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A20:D20"/>

--- a/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
+++ b/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13995"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="185">
   <si>
     <t>LP.</t>
   </si>
@@ -563,6 +563,15 @@
   </si>
   <si>
     <t>06 - 04_Big</t>
+  </si>
+  <si>
+    <t>1x(01 -&gt; 02), 1x(03 -&gt; 04)</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>07 - DisplayPanel</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1154,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F197" sqref="F197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4371,6 +4380,9 @@
       <c r="E201" s="10" t="s">
         <v>136</v>
       </c>
+      <c r="F201" s="14" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="26">
@@ -4405,6 +4417,9 @@
       <c r="E203" s="10" t="s">
         <v>152</v>
       </c>
+      <c r="F203" s="14" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="26">
@@ -4422,6 +4437,9 @@
       <c r="E204" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="F204" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="26">
@@ -4437,6 +4455,7 @@
         <v>62</v>
       </c>
       <c r="E205" s="10"/>
+      <c r="F205" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:E200">
@@ -4456,9 +4475,10 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="37">
+  <mergeCells count="38">
     <mergeCell ref="F166:F180"/>
     <mergeCell ref="F190:F196"/>
+    <mergeCell ref="F204:F205"/>
     <mergeCell ref="F101:F109"/>
     <mergeCell ref="F110:F125"/>
     <mergeCell ref="F128:F136"/>

--- a/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
+++ b/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="193">
   <si>
     <t>LP.</t>
   </si>
@@ -376,9 +376,6 @@
     <t>2x IN + 2x OUT</t>
   </si>
   <si>
-    <t>Ekran</t>
-  </si>
-  <si>
     <t>Wizka</t>
   </si>
   <si>
@@ -391,9 +388,6 @@
     <t>AV-SRC</t>
   </si>
   <si>
-    <t>MIC-IN</t>
-  </si>
-  <si>
     <t>Klawiatura 12P</t>
   </si>
   <si>
@@ -572,6 +566,36 @@
   </si>
   <si>
     <t>07 - DisplayPanel</t>
+  </si>
+  <si>
+    <t>Ekran (SCR-01)</t>
+  </si>
+  <si>
+    <t>Ekran (SCR-02)</t>
+  </si>
+  <si>
+    <t>Ekran (SCR-03)</t>
+  </si>
+  <si>
+    <t>Ekran (SCR-04)</t>
+  </si>
+  <si>
+    <t>Ekran (SCR-05)</t>
+  </si>
+  <si>
+    <t>Ekran (SCR-06)</t>
+  </si>
+  <si>
+    <t>Ekran (SCR-07)</t>
+  </si>
+  <si>
+    <t>Ekran stały</t>
+  </si>
+  <si>
+    <t>MIC-IN (MIC-01)</t>
+  </si>
+  <si>
+    <t>MIC-IN (MIC-02)</t>
   </si>
 </sst>
 </file>
@@ -592,16 +616,22 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b/>
@@ -609,12 +639,16 @@
       <sz val="9"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b/>
@@ -622,6 +656,8 @@
       <sz val="9"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -802,15 +838,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -833,7 +860,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -841,6 +874,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,8 +1190,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1209,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1184,223 +1220,223 @@
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="25" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
-        <v>1</v>
-      </c>
-      <c r="B5" s="26">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>9</v>
+      </c>
+      <c r="B9" s="23">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="35"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
-        <v>6</v>
-      </c>
-      <c r="B8" s="26">
-        <v>1</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
-        <v>9</v>
-      </c>
-      <c r="B9" s="26">
-        <v>4</v>
-      </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="23" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="33"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="23">
         <v>10</v>
       </c>
-      <c r="B10" s="26">
-        <v>1</v>
-      </c>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="23">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="23" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="33"/>
+        <v>183</v>
+      </c>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="23">
         <v>11</v>
       </c>
-      <c r="B11" s="26">
-        <v>1</v>
-      </c>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="23">
+        <v>1</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="33"/>
+        <v>138</v>
+      </c>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="23">
         <v>12</v>
       </c>
-      <c r="B12" s="26">
-        <v>1</v>
-      </c>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="23">
+        <v>1</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="33"/>
+        <v>139</v>
+      </c>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="23">
         <v>15</v>
       </c>
-      <c r="B13" s="26">
-        <v>1</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="23">
+        <v>1</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="33"/>
+        <v>123</v>
+      </c>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="23">
         <v>16</v>
       </c>
-      <c r="B14" s="26">
-        <v>1</v>
-      </c>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="23">
+        <v>1</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="33"/>
+        <v>137</v>
+      </c>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="A15" s="23">
         <v>19</v>
       </c>
-      <c r="B15" s="26">
-        <v>1</v>
-      </c>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="23">
+        <v>1</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1414,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="33"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1430,7 +1466,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="33"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1446,87 +1482,87 @@
         <v>34</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="33"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+      <c r="A19" s="23">
         <v>27</v>
       </c>
-      <c r="B19" s="26">
-        <v>1</v>
-      </c>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="23">
+        <v>1</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="33"/>
+        <v>124</v>
+      </c>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+      <c r="A20" s="23">
         <v>28</v>
       </c>
-      <c r="B20" s="26">
-        <v>1</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="23">
+        <v>1</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
+        <v>30</v>
+      </c>
+      <c r="B21" s="23">
+        <v>1</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="33"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
-        <v>30</v>
-      </c>
-      <c r="B21" s="26">
-        <v>1</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="33"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="33"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="25" t="s">
+      <c r="A23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="33"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1544,7 +1580,7 @@
       <c r="E24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="33"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1560,43 +1596,43 @@
         <v>9</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="33"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+      <c r="A26" s="23">
         <v>33</v>
       </c>
-      <c r="B26" s="26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="23">
+        <v>1</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="33"/>
+        <v>137</v>
+      </c>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
+      <c r="A27" s="23">
         <v>34</v>
       </c>
-      <c r="B27" s="26">
-        <v>1</v>
-      </c>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="23">
+        <v>1</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="23" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="33"/>
+        <v>137</v>
+      </c>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1612,555 +1648,555 @@
         <v>46</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="33"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26">
+      <c r="A29" s="23">
         <v>37</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="23">
         <v>4</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="23" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="33"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="23">
         <v>38</v>
       </c>
-      <c r="B30" s="26">
-        <v>1</v>
-      </c>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="23">
+        <v>1</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="33"/>
+        <v>138</v>
+      </c>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
+      <c r="A31" s="23">
         <v>39</v>
       </c>
-      <c r="B31" s="26">
-        <v>1</v>
-      </c>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="23">
+        <v>1</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="35"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>42</v>
+      </c>
+      <c r="B32" s="23">
+        <v>1</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="35"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <v>43</v>
+      </c>
+      <c r="B33" s="23">
+        <v>1</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="35"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
+        <v>44</v>
+      </c>
+      <c r="B34" s="23">
+        <v>1</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="35"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
+        <v>45</v>
+      </c>
+      <c r="B35" s="23">
+        <v>1</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="35"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
+        <v>46</v>
+      </c>
+      <c r="B36" s="23">
+        <v>1</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="35"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="35"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="35"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>50</v>
+      </c>
+      <c r="B39" s="23">
+        <v>1</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="35"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23">
+        <v>1</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="35"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23">
+        <v>4</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="35"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="23">
+        <v>1</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="F31" s="33"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
-        <v>42</v>
-      </c>
-      <c r="B32" s="26">
-        <v>1</v>
-      </c>
-      <c r="C32" s="27" t="s">
+      <c r="E42" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="35"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
+        <v>51</v>
+      </c>
+      <c r="B43" s="23">
+        <v>1</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" s="35"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <v>54</v>
+      </c>
+      <c r="B44" s="23">
+        <v>1</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="35"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
+        <v>56</v>
+      </c>
+      <c r="B45" s="23">
+        <v>1</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="35"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23">
+        <v>57</v>
+      </c>
+      <c r="B46" s="23">
+        <v>2</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" s="35"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
+        <v>58</v>
+      </c>
+      <c r="B47" s="23">
+        <v>4</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" s="35"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23">
+        <v>63</v>
+      </c>
+      <c r="B48" s="23">
+        <v>1</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F48" s="35"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23">
+        <v>64</v>
+      </c>
+      <c r="B49" s="23">
+        <v>2</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="35"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="35"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="35"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23">
+        <v>1</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="35"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23">
+        <v>2</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D53" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="33"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
-        <v>43</v>
-      </c>
-      <c r="B33" s="26">
-        <v>1</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="33"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
-        <v>44</v>
-      </c>
-      <c r="B34" s="26">
-        <v>1</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="33"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
-        <v>45</v>
-      </c>
-      <c r="B35" s="26">
-        <v>1</v>
-      </c>
-      <c r="C35" s="26" t="s">
+      <c r="E53" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="35"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="35"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23">
+        <v>72</v>
+      </c>
+      <c r="B56" s="23">
+        <v>1</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="35"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="23">
+        <v>1</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" s="35"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="23">
+        <v>1</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F58" s="35"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="23">
+        <v>2</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="35"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23">
+        <v>73</v>
+      </c>
+      <c r="B60" s="23">
+        <v>1</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="35"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
+        <v>74</v>
+      </c>
+      <c r="B61" s="23">
+        <v>1</v>
+      </c>
+      <c r="C61" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D61" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="33"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26">
-        <v>46</v>
-      </c>
-      <c r="B36" s="26">
-        <v>1</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="33"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="33"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="33"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26">
-        <v>50</v>
-      </c>
-      <c r="B39" s="26">
-        <v>1</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" s="33"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26">
-        <v>1</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="33"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26">
-        <v>4</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F41" s="33"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="26">
-        <v>1</v>
-      </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F42" s="33"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26">
-        <v>51</v>
-      </c>
-      <c r="B43" s="26">
-        <v>1</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="33"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26">
-        <v>54</v>
-      </c>
-      <c r="B44" s="26">
-        <v>1</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F44" s="33"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="26">
-        <v>56</v>
-      </c>
-      <c r="B45" s="26">
-        <v>1</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F45" s="33"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
-        <v>57</v>
-      </c>
-      <c r="B46" s="26">
-        <v>2</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" s="33"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26">
-        <v>58</v>
-      </c>
-      <c r="B47" s="26">
-        <v>4</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26">
-        <v>63</v>
-      </c>
-      <c r="B48" s="26">
-        <v>1</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48" s="33"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26">
-        <v>64</v>
-      </c>
-      <c r="B49" s="26">
-        <v>2</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" s="33"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="33"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="33"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26">
-        <v>1</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="33"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26">
-        <v>2</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F53" s="33"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="33" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="33"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
-        <v>72</v>
-      </c>
-      <c r="B56" s="26">
-        <v>1</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="33"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" s="26">
-        <v>1</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F57" s="33"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" s="26">
-        <v>1</v>
-      </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" s="33"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" s="26">
-        <v>2</v>
-      </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" s="33"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26">
-        <v>73</v>
-      </c>
-      <c r="B60" s="26">
-        <v>1</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F60" s="33"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>74</v>
-      </c>
-      <c r="B61" s="26">
-        <v>1</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>27</v>
-      </c>
       <c r="E61" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="F61" s="35"/>
     </row>
     <row r="62" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -2176,7 +2212,7 @@
         <v>29</v>
       </c>
       <c r="E62" s="6"/>
-      <c r="F62" s="33"/>
+      <c r="F62" s="35"/>
     </row>
     <row r="63" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -2192,119 +2228,119 @@
         <v>9</v>
       </c>
       <c r="E63" s="6"/>
-      <c r="F63" s="33"/>
+      <c r="F63" s="35"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="24"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="33"/>
+      <c r="F64" s="35"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="25" t="s">
+      <c r="A65" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="12"/>
-      <c r="F65" s="33"/>
+      <c r="F65" s="35"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26">
+      <c r="A66" s="23">
         <v>79</v>
       </c>
-      <c r="B66" s="26">
-        <v>1</v>
-      </c>
-      <c r="C66" s="26" t="s">
+      <c r="B66" s="23">
+        <v>1</v>
+      </c>
+      <c r="C66" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="23" t="s">
         <v>70</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F66" s="33"/>
+        <v>130</v>
+      </c>
+      <c r="F66" s="35"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" s="26">
+      <c r="A67" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="23">
         <v>2</v>
       </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27" t="s">
-        <v>142</v>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24" t="s">
+        <v>140</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F67" s="33"/>
+        <v>143</v>
+      </c>
+      <c r="F67" s="35"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B68" s="26">
-        <v>1</v>
-      </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27" t="s">
-        <v>146</v>
+      <c r="A68" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="23">
+        <v>1</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F68" s="33"/>
+        <v>121</v>
+      </c>
+      <c r="F68" s="35"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="26">
+      <c r="A69" s="23">
         <v>80</v>
       </c>
-      <c r="B69" s="26">
-        <v>1</v>
-      </c>
-      <c r="C69" s="26" t="s">
+      <c r="B69" s="23">
+        <v>1</v>
+      </c>
+      <c r="C69" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F69" s="33"/>
+        <v>121</v>
+      </c>
+      <c r="F69" s="35"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26">
+      <c r="A70" s="23">
         <v>83</v>
       </c>
-      <c r="B70" s="26">
-        <v>1</v>
-      </c>
-      <c r="C70" s="26" t="s">
+      <c r="B70" s="23">
+        <v>1</v>
+      </c>
+      <c r="C70" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F70" s="33"/>
+        <v>123</v>
+      </c>
+      <c r="F70" s="35"/>
     </row>
     <row r="71" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -2320,7 +2356,7 @@
         <v>27</v>
       </c>
       <c r="E71" s="4"/>
-      <c r="F71" s="33"/>
+      <c r="F71" s="35"/>
     </row>
     <row r="72" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -2336,7 +2372,7 @@
         <v>29</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="33"/>
+      <c r="F72" s="35"/>
     </row>
     <row r="73" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -2352,33 +2388,33 @@
         <v>9</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="33"/>
+      <c r="F73" s="35"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="24"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="33"/>
+      <c r="F74" s="35"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="25" t="s">
+      <c r="A75" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="12"/>
-      <c r="F75" s="33"/>
+      <c r="F75" s="35"/>
     </row>
     <row r="76" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -2396,25 +2432,25 @@
       <c r="E76" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F76" s="33"/>
+      <c r="F76" s="35"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="26">
+      <c r="A77" s="23">
         <v>91</v>
       </c>
-      <c r="B77" s="26">
-        <v>1</v>
-      </c>
-      <c r="C77" s="26" t="s">
+      <c r="B77" s="23">
+        <v>1</v>
+      </c>
+      <c r="C77" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F77" s="33"/>
+        <v>131</v>
+      </c>
+      <c r="F77" s="35"/>
     </row>
     <row r="78" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -2430,7 +2466,7 @@
         <v>29</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="33"/>
+      <c r="F78" s="35"/>
     </row>
     <row r="79" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -2446,157 +2482,157 @@
         <v>9</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="33"/>
+      <c r="F79" s="35"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="24"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="33"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="25" t="s">
+      <c r="A81" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D81" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E81" s="12"/>
-      <c r="F81" s="33"/>
+      <c r="F81" s="35"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="26">
+      <c r="A82" s="23">
         <v>98</v>
       </c>
-      <c r="B82" s="26">
+      <c r="B82" s="23">
         <v>4</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D82" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E82" s="10"/>
-      <c r="F82" s="33"/>
+      <c r="F82" s="35"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" s="26">
+      <c r="A83" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="23">
         <v>4</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D83" s="27" t="s">
-        <v>166</v>
-      </c>
       <c r="E83" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F83" s="33"/>
+        <v>131</v>
+      </c>
+      <c r="F83" s="35"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="24"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="33" t="s">
-        <v>178</v>
+      <c r="F84" s="35" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="25" t="s">
+      <c r="A85" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="D85" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="12"/>
-      <c r="F85" s="33"/>
+      <c r="F85" s="35"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26">
+      <c r="A86" s="23">
         <v>102</v>
       </c>
-      <c r="B86" s="26">
-        <v>1</v>
-      </c>
-      <c r="C86" s="26" t="s">
+      <c r="B86" s="23">
+        <v>1</v>
+      </c>
+      <c r="C86" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F86" s="33"/>
+        <v>131</v>
+      </c>
+      <c r="F86" s="35"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="24"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="33"/>
+      <c r="F87" s="35"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="25" t="s">
+      <c r="A88" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="D88" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="12"/>
-      <c r="F88" s="33"/>
+      <c r="F88" s="35"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="26">
+      <c r="A89" s="23">
         <v>108</v>
       </c>
-      <c r="B89" s="26">
-        <v>1</v>
-      </c>
-      <c r="C89" s="26" t="s">
+      <c r="B89" s="23">
+        <v>1</v>
+      </c>
+      <c r="C89" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D89" s="26" t="s">
+      <c r="D89" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F89" s="33"/>
+        <v>131</v>
+      </c>
+      <c r="F89" s="35"/>
     </row>
     <row r="90" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -2612,223 +2648,223 @@
         <v>29</v>
       </c>
       <c r="E90" s="7"/>
-      <c r="F90" s="33"/>
+      <c r="F90" s="35"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="24"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="32"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="33"/>
+      <c r="F91" s="35"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="25" t="s">
+      <c r="A92" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E92" s="12"/>
-      <c r="F92" s="33"/>
+      <c r="F92" s="35"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="26">
+      <c r="A93" s="23">
         <v>113</v>
       </c>
-      <c r="B93" s="26">
-        <v>1</v>
-      </c>
-      <c r="C93" s="26" t="s">
+      <c r="B93" s="23">
+        <v>1</v>
+      </c>
+      <c r="C93" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="26" t="s">
+      <c r="D93" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F93" s="33"/>
+        <v>123</v>
+      </c>
+      <c r="F93" s="35"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="26">
+      <c r="A94" s="23">
         <v>114</v>
       </c>
-      <c r="B94" s="26">
-        <v>1</v>
-      </c>
-      <c r="C94" s="26" t="s">
+      <c r="B94" s="23">
+        <v>1</v>
+      </c>
+      <c r="C94" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D94" s="26" t="s">
+      <c r="D94" s="23" t="s">
         <v>80</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F94" s="33"/>
+      <c r="F94" s="35"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="26">
+      <c r="A95" s="23">
         <v>116</v>
       </c>
-      <c r="B95" s="26">
-        <v>1</v>
-      </c>
-      <c r="C95" s="26" t="s">
+      <c r="B95" s="23">
+        <v>1</v>
+      </c>
+      <c r="C95" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D95" s="26" t="s">
+      <c r="D95" s="23" t="s">
         <v>82</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F95" s="33"/>
+        <v>124</v>
+      </c>
+      <c r="F95" s="35"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="26">
+      <c r="A96" s="23">
         <v>117</v>
       </c>
-      <c r="B96" s="26">
-        <v>1</v>
-      </c>
-      <c r="C96" s="26" t="s">
+      <c r="B96" s="23">
+        <v>1</v>
+      </c>
+      <c r="C96" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D96" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E96" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F96" s="35"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="23">
+        <v>118</v>
+      </c>
+      <c r="B97" s="23">
+        <v>1</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F97" s="35"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="23">
+        <v>121</v>
+      </c>
+      <c r="B98" s="23">
+        <v>1</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F98" s="35"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="23">
         <v>122</v>
       </c>
-      <c r="F96" s="33"/>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26">
-        <v>118</v>
-      </c>
-      <c r="B97" s="26">
-        <v>1</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F97" s="33"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="26">
-        <v>121</v>
-      </c>
-      <c r="B98" s="26">
-        <v>1</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F98" s="33"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="26">
+      <c r="B99" s="23">
+        <v>1</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B99" s="26">
-        <v>1</v>
-      </c>
-      <c r="C99" s="26" t="s">
+      <c r="F99" s="35"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="23">
+        <v>125</v>
+      </c>
+      <c r="B100" s="23">
+        <v>1</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F100" s="35"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="35"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="23">
+        <v>128</v>
+      </c>
+      <c r="B103" s="23">
+        <v>1</v>
+      </c>
+      <c r="C103" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D103" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E99" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F99" s="33"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="26">
-        <v>125</v>
-      </c>
-      <c r="B100" s="26">
-        <v>1</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F100" s="33"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="12"/>
-      <c r="F102" s="33"/>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="26">
-        <v>128</v>
-      </c>
-      <c r="B103" s="26">
-        <v>1</v>
-      </c>
-      <c r="C103" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>27</v>
-      </c>
       <c r="E103" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F103" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="F103" s="35"/>
     </row>
     <row r="104" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -2844,7 +2880,7 @@
         <v>29</v>
       </c>
       <c r="E104" s="8"/>
-      <c r="F104" s="33"/>
+      <c r="F104" s="35"/>
     </row>
     <row r="105" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -2860,121 +2896,121 @@
         <v>9</v>
       </c>
       <c r="E105" s="8"/>
-      <c r="F105" s="33"/>
+      <c r="F105" s="35"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B106" s="26">
-        <v>1</v>
-      </c>
-      <c r="C106" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>167</v>
+      <c r="A106" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="23">
+        <v>1</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F106" s="33"/>
+        <v>146</v>
+      </c>
+      <c r="F106" s="35"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B107" s="26">
-        <v>1</v>
-      </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27" t="s">
-        <v>158</v>
+      <c r="A107" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" s="23">
+        <v>1</v>
+      </c>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F107" s="33"/>
+        <v>188</v>
+      </c>
+      <c r="F107" s="35"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B108" s="26">
-        <v>1</v>
-      </c>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27" t="s">
-        <v>149</v>
+      <c r="A108" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" s="23">
+        <v>1</v>
+      </c>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F108" s="33"/>
+        <v>121</v>
+      </c>
+      <c r="F108" s="35"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="26">
+      <c r="A109" s="23">
         <v>132</v>
       </c>
-      <c r="B109" s="26">
-        <v>1</v>
-      </c>
-      <c r="C109" s="26" t="s">
+      <c r="B109" s="23">
+        <v>1</v>
+      </c>
+      <c r="C109" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D109" s="26" t="s">
+      <c r="D109" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F109" s="33"/>
+        <v>123</v>
+      </c>
+      <c r="F109" s="35"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="24"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="32"/>
       <c r="E110" s="11"/>
-      <c r="F110" s="33" t="s">
-        <v>180</v>
+      <c r="F110" s="35" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="25" t="s">
+      <c r="A111" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D111" s="25" t="s">
+      <c r="D111" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E111" s="12"/>
-      <c r="F111" s="33"/>
+      <c r="F111" s="35"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="26">
+      <c r="A112" s="23">
         <v>135</v>
       </c>
-      <c r="B112" s="26">
-        <v>1</v>
-      </c>
-      <c r="C112" s="26" t="s">
+      <c r="B112" s="23">
+        <v>1</v>
+      </c>
+      <c r="C112" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="26" t="s">
+      <c r="D112" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F112" s="33"/>
+        <v>131</v>
+      </c>
+      <c r="F112" s="35"/>
     </row>
     <row r="113" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -2990,7 +3026,7 @@
         <v>29</v>
       </c>
       <c r="E113" s="4"/>
-      <c r="F113" s="33"/>
+      <c r="F113" s="35"/>
     </row>
     <row r="114" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -3006,95 +3042,95 @@
         <v>9</v>
       </c>
       <c r="E114" s="4"/>
-      <c r="F114" s="33"/>
+      <c r="F114" s="35"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="22" t="s">
+      <c r="A115" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="24"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="32"/>
       <c r="E115" s="11"/>
-      <c r="F115" s="33"/>
+      <c r="F115" s="35"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="25" t="s">
+      <c r="A116" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="25" t="s">
+      <c r="D116" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E116" s="12"/>
-      <c r="F116" s="33"/>
+      <c r="F116" s="35"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="26">
+      <c r="A117" s="23">
         <v>143</v>
       </c>
-      <c r="B117" s="26">
-        <v>1</v>
-      </c>
-      <c r="C117" s="26" t="s">
+      <c r="B117" s="23">
+        <v>1</v>
+      </c>
+      <c r="C117" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D117" s="26" t="s">
+      <c r="D117" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F117" s="33"/>
+        <v>131</v>
+      </c>
+      <c r="F117" s="35"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="22" t="s">
+      <c r="A118" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B118" s="23"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="24"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="32"/>
       <c r="E118" s="11"/>
-      <c r="F118" s="33"/>
+      <c r="F118" s="35"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" s="25" t="s">
+      <c r="A119" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E119" s="12"/>
-      <c r="F119" s="33"/>
+      <c r="F119" s="35"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="26">
+      <c r="A120" s="23">
         <v>151</v>
       </c>
-      <c r="B120" s="26">
-        <v>1</v>
-      </c>
-      <c r="C120" s="26" t="s">
+      <c r="B120" s="23">
+        <v>1</v>
+      </c>
+      <c r="C120" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D120" s="26" t="s">
+      <c r="D120" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F120" s="33"/>
+        <v>131</v>
+      </c>
+      <c r="F120" s="35"/>
     </row>
     <row r="121" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -3110,7 +3146,7 @@
         <v>29</v>
       </c>
       <c r="E121" s="6"/>
-      <c r="F121" s="33"/>
+      <c r="F121" s="35"/>
     </row>
     <row r="122" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -3126,51 +3162,51 @@
         <v>9</v>
       </c>
       <c r="E122" s="6"/>
-      <c r="F122" s="33"/>
+      <c r="F122" s="35"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="22" t="s">
+      <c r="A123" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B123" s="23"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="24"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="32"/>
       <c r="E123" s="11"/>
-      <c r="F123" s="33"/>
+      <c r="F123" s="35"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" s="25" t="s">
+      <c r="A124" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="25" t="s">
+      <c r="D124" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E124" s="12"/>
-      <c r="F124" s="33"/>
+      <c r="F124" s="35"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="26">
+      <c r="A125" s="23">
         <v>159</v>
       </c>
-      <c r="B125" s="26">
-        <v>1</v>
-      </c>
-      <c r="C125" s="26" t="s">
+      <c r="B125" s="23">
+        <v>1</v>
+      </c>
+      <c r="C125" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="26" t="s">
+      <c r="D125" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F125" s="33"/>
+        <v>131</v>
+      </c>
+      <c r="F125" s="35"/>
     </row>
     <row r="126" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -3203,158 +3239,158 @@
       <c r="E127" s="6"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="22" t="s">
+      <c r="A128" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B128" s="23"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="24"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="32"/>
       <c r="E128" s="11"/>
-      <c r="F128" s="33" t="s">
-        <v>179</v>
+      <c r="F128" s="35" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C129" s="25" t="s">
+      <c r="A129" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D129" s="25" t="s">
+      <c r="D129" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E129" s="12"/>
-      <c r="F129" s="33"/>
+      <c r="F129" s="35"/>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="26">
+      <c r="A130" s="23">
         <v>165</v>
       </c>
-      <c r="B130" s="26">
-        <v>1</v>
-      </c>
-      <c r="C130" s="26" t="s">
+      <c r="B130" s="23">
+        <v>1</v>
+      </c>
+      <c r="C130" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D130" s="26" t="s">
+      <c r="D130" s="23" t="s">
         <v>91</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F130" s="33"/>
+      <c r="F130" s="35"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="26">
+      <c r="A131" s="23">
         <v>168</v>
       </c>
-      <c r="B131" s="26">
-        <v>1</v>
-      </c>
-      <c r="C131" s="26" t="s">
+      <c r="B131" s="23">
+        <v>1</v>
+      </c>
+      <c r="C131" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D131" s="26" t="s">
+      <c r="D131" s="23" t="s">
         <v>92</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F131" s="33"/>
+        <v>124</v>
+      </c>
+      <c r="F131" s="35"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="26">
+      <c r="A132" s="23">
         <v>169</v>
       </c>
-      <c r="B132" s="26">
-        <v>1</v>
-      </c>
-      <c r="C132" s="26" t="s">
+      <c r="B132" s="23">
+        <v>1</v>
+      </c>
+      <c r="C132" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D132" s="26" t="s">
+      <c r="D132" s="23" t="s">
         <v>83</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F132" s="33"/>
+        <v>189</v>
+      </c>
+      <c r="F132" s="35"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="26">
+      <c r="A133" s="23">
         <v>170</v>
       </c>
-      <c r="B133" s="26">
-        <v>1</v>
-      </c>
-      <c r="C133" s="26" t="s">
+      <c r="B133" s="23">
+        <v>1</v>
+      </c>
+      <c r="C133" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D133" s="26" t="s">
+      <c r="D133" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E133" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F133" s="35"/>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="23">
+        <v>171</v>
+      </c>
+      <c r="B134" s="23">
+        <v>1</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F134" s="35"/>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="23">
+        <v>174</v>
+      </c>
+      <c r="B135" s="23">
+        <v>1</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F135" s="35"/>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="23">
+        <v>177</v>
+      </c>
+      <c r="B136" s="23">
+        <v>1</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F133" s="33"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="26">
-        <v>171</v>
-      </c>
-      <c r="B134" s="26">
-        <v>1</v>
-      </c>
-      <c r="C134" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D134" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F134" s="33"/>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="26">
-        <v>174</v>
-      </c>
-      <c r="B135" s="26">
-        <v>1</v>
-      </c>
-      <c r="C135" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D135" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F135" s="33"/>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="26">
-        <v>177</v>
-      </c>
-      <c r="B136" s="26">
-        <v>1</v>
-      </c>
-      <c r="C136" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F136" s="33"/>
+      <c r="F136" s="35"/>
     </row>
     <row r="137" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -3387,32 +3423,32 @@
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
-      <c r="D139" s="24"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="32"/>
       <c r="E139" s="11"/>
-      <c r="F139" s="33" t="s">
-        <v>180</v>
+      <c r="F139" s="35" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140" s="25" t="s">
+      <c r="A140" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D140" s="25" t="s">
+      <c r="D140" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E140" s="12"/>
-      <c r="F140" s="33"/>
+      <c r="F140" s="35"/>
     </row>
     <row r="141" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -3428,7 +3464,7 @@
         <v>5</v>
       </c>
       <c r="E141" s="6"/>
-      <c r="F141" s="33"/>
+      <c r="F141" s="35"/>
     </row>
     <row r="142" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
@@ -3444,7 +3480,7 @@
         <v>7</v>
       </c>
       <c r="E142" s="6"/>
-      <c r="F142" s="33"/>
+      <c r="F142" s="35"/>
     </row>
     <row r="143" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -3460,7 +3496,7 @@
         <v>14</v>
       </c>
       <c r="E143" s="6"/>
-      <c r="F143" s="33"/>
+      <c r="F143" s="35"/>
     </row>
     <row r="144" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -3476,25 +3512,25 @@
         <v>29</v>
       </c>
       <c r="E144" s="6"/>
-      <c r="F144" s="33"/>
+      <c r="F144" s="35"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="26">
+      <c r="A145" s="23">
         <v>186</v>
       </c>
-      <c r="B145" s="26">
-        <v>1</v>
-      </c>
-      <c r="C145" s="26" t="s">
+      <c r="B145" s="23">
+        <v>1</v>
+      </c>
+      <c r="C145" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D145" s="26" t="s">
+      <c r="D145" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F145" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="F145" s="35"/>
     </row>
     <row r="146" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
@@ -3510,85 +3546,85 @@
         <v>9</v>
       </c>
       <c r="E146" s="6"/>
-      <c r="F146" s="33"/>
+      <c r="F146" s="35"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B147" s="26">
-        <v>1</v>
-      </c>
-      <c r="C147" s="30" t="s">
+      <c r="A147" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B147" s="23">
+        <v>1</v>
+      </c>
+      <c r="C147" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D147" s="27" t="s">
-        <v>138</v>
+      <c r="D147" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F147" s="33"/>
+        <v>146</v>
+      </c>
+      <c r="F147" s="35"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B148" s="26">
-        <v>1</v>
-      </c>
-      <c r="C148" s="27"/>
-      <c r="D148" s="27" t="s">
-        <v>149</v>
+      <c r="A148" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B148" s="23">
+        <v>1</v>
+      </c>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="E148" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F148" s="35"/>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B149" s="31"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="35"/>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" s="12"/>
+      <c r="F150" s="35"/>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="23">
+        <v>192</v>
+      </c>
+      <c r="B151" s="23">
+        <v>1</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E151" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F148" s="33"/>
-    </row>
-    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B149" s="23"/>
-      <c r="C149" s="23"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="11"/>
-      <c r="F149" s="33"/>
-    </row>
-    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C150" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E150" s="12"/>
-      <c r="F150" s="33"/>
-    </row>
-    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="26">
-        <v>192</v>
-      </c>
-      <c r="B151" s="26">
-        <v>1</v>
-      </c>
-      <c r="C151" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D151" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F151" s="33"/>
+      <c r="F151" s="35"/>
     </row>
     <row r="152" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -3604,7 +3640,7 @@
         <v>29</v>
       </c>
       <c r="E152" s="4"/>
-      <c r="F152" s="33"/>
+      <c r="F152" s="35"/>
     </row>
     <row r="153" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -3620,85 +3656,85 @@
         <v>9</v>
       </c>
       <c r="E153" s="4"/>
-      <c r="F153" s="33"/>
+      <c r="F153" s="35"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B154" s="26">
-        <v>1</v>
-      </c>
-      <c r="C154" s="30" t="s">
+      <c r="A154" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B154" s="23">
+        <v>1</v>
+      </c>
+      <c r="C154" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D154" s="27" t="s">
-        <v>137</v>
+      <c r="D154" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="E154" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F154" s="33"/>
+      <c r="F154" s="35"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B155" s="26">
-        <v>1</v>
-      </c>
-      <c r="C155" s="27"/>
-      <c r="D155" s="27" t="s">
-        <v>172</v>
+      <c r="A155" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B155" s="23">
+        <v>1</v>
+      </c>
+      <c r="C155" s="24"/>
+      <c r="D155" s="24" t="s">
+        <v>170</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F155" s="33"/>
+        <v>190</v>
+      </c>
+      <c r="F155" s="35"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B156" s="26">
-        <v>1</v>
-      </c>
-      <c r="C156" s="27"/>
-      <c r="D156" s="27" t="s">
-        <v>149</v>
+      <c r="A156" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B156" s="23">
+        <v>1</v>
+      </c>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F156" s="33"/>
+        <v>121</v>
+      </c>
+      <c r="F156" s="35"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="22" t="s">
+      <c r="A157" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B157" s="23"/>
-      <c r="C157" s="23"/>
-      <c r="D157" s="24"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="32"/>
       <c r="E157" s="11"/>
-      <c r="F157" s="33" t="s">
-        <v>179</v>
+      <c r="F157" s="35" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C158" s="25" t="s">
+      <c r="A158" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D158" s="25" t="s">
+      <c r="D158" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E158" s="12"/>
-      <c r="F158" s="33"/>
+      <c r="F158" s="35"/>
     </row>
     <row r="159" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -3716,7 +3752,7 @@
       <c r="E159" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F159" s="33"/>
+      <c r="F159" s="35"/>
     </row>
     <row r="160" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -3732,7 +3768,7 @@
         <v>29</v>
       </c>
       <c r="E160" s="4"/>
-      <c r="F160" s="33"/>
+      <c r="F160" s="35"/>
     </row>
     <row r="161" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
@@ -3748,106 +3784,106 @@
         <v>9</v>
       </c>
       <c r="E161" s="4"/>
-      <c r="F161" s="33"/>
+      <c r="F161" s="35"/>
     </row>
     <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="26">
+      <c r="A162" s="23">
         <v>200</v>
       </c>
-      <c r="B162" s="26">
-        <v>1</v>
-      </c>
-      <c r="C162" s="26" t="s">
+      <c r="B162" s="23">
+        <v>1</v>
+      </c>
+      <c r="C162" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D162" s="26" t="s">
+      <c r="D162" s="23" t="s">
         <v>67</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F162" s="33"/>
+        <v>129</v>
+      </c>
+      <c r="F162" s="35"/>
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="26">
+      <c r="A163" s="23">
         <v>202</v>
       </c>
-      <c r="B163" s="26">
-        <v>1</v>
-      </c>
-      <c r="C163" s="26" t="s">
+      <c r="B163" s="23">
+        <v>1</v>
+      </c>
+      <c r="C163" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D163" s="26" t="s">
+      <c r="D163" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E163" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F163" s="35"/>
+    </row>
+    <row r="164" spans="1:7" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="28">
+        <v>206</v>
+      </c>
+      <c r="B164" s="28">
+        <v>1</v>
+      </c>
+      <c r="C164" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D164" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E164" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F164" s="35"/>
+      <c r="G164" s="19"/>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B165" s="23">
+        <v>2</v>
+      </c>
+      <c r="C165" s="24"/>
+      <c r="D165" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E165" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F163" s="33"/>
-    </row>
-    <row r="164" spans="1:7" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="31">
-        <v>206</v>
-      </c>
-      <c r="B164" s="31">
-        <v>1</v>
-      </c>
-      <c r="C164" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D164" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E164" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F164" s="33"/>
-      <c r="G164" s="19"/>
-    </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B165" s="26">
+      <c r="F165" s="35"/>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B166" s="31"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C165" s="27"/>
-      <c r="D165" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="E165" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F165" s="33"/>
-    </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B166" s="23"/>
-      <c r="C166" s="23"/>
-      <c r="D166" s="24"/>
-      <c r="E166" s="11"/>
-      <c r="F166" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C167" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D167" s="25" t="s">
+      <c r="D167" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E167" s="12"/>
-      <c r="F167" s="33"/>
+      <c r="F167" s="35"/>
     </row>
     <row r="168" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
@@ -3865,7 +3901,7 @@
       <c r="E168" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F168" s="33"/>
+      <c r="F168" s="35"/>
     </row>
     <row r="169" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
@@ -3881,51 +3917,51 @@
         <v>9</v>
       </c>
       <c r="E169" s="8"/>
-      <c r="F169" s="33"/>
+      <c r="F169" s="35"/>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="26">
+      <c r="A170" s="23">
         <v>210</v>
       </c>
-      <c r="B170" s="26">
-        <v>1</v>
-      </c>
-      <c r="C170" s="26" t="s">
+      <c r="B170" s="23">
+        <v>1</v>
+      </c>
+      <c r="C170" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D170" s="26" t="s">
+      <c r="D170" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F170" s="33"/>
+        <v>131</v>
+      </c>
+      <c r="F170" s="35"/>
     </row>
     <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="22" t="s">
+      <c r="A171" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B171" s="23"/>
-      <c r="C171" s="23"/>
-      <c r="D171" s="24"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="32"/>
       <c r="E171" s="11"/>
-      <c r="F171" s="33"/>
+      <c r="F171" s="35"/>
     </row>
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B172" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C172" s="25" t="s">
+      <c r="A172" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D172" s="25" t="s">
+      <c r="D172" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E172" s="12"/>
-      <c r="F172" s="33"/>
+      <c r="F172" s="35"/>
     </row>
     <row r="173" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
@@ -3943,7 +3979,7 @@
       <c r="E173" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F173" s="33"/>
+      <c r="F173" s="35"/>
     </row>
     <row r="174" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
@@ -3959,51 +3995,51 @@
         <v>9</v>
       </c>
       <c r="E174" s="6"/>
-      <c r="F174" s="33"/>
+      <c r="F174" s="35"/>
     </row>
     <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="26">
+      <c r="A175" s="23">
         <v>218</v>
       </c>
-      <c r="B175" s="26">
-        <v>1</v>
-      </c>
-      <c r="C175" s="26" t="s">
+      <c r="B175" s="23">
+        <v>1</v>
+      </c>
+      <c r="C175" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="26" t="s">
+      <c r="D175" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F175" s="33"/>
+        <v>131</v>
+      </c>
+      <c r="F175" s="35"/>
     </row>
     <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="22" t="s">
+      <c r="A176" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B176" s="23"/>
-      <c r="C176" s="23"/>
-      <c r="D176" s="24"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="32"/>
       <c r="E176" s="11"/>
-      <c r="F176" s="33"/>
+      <c r="F176" s="35"/>
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C177" s="25" t="s">
+      <c r="A177" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D177" s="25" t="s">
+      <c r="D177" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E177" s="12"/>
-      <c r="F177" s="33"/>
+      <c r="F177" s="35"/>
     </row>
     <row r="178" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
@@ -4021,7 +4057,7 @@
       <c r="E178" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F178" s="33"/>
+      <c r="F178" s="35"/>
     </row>
     <row r="179" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
@@ -4037,25 +4073,25 @@
         <v>9</v>
       </c>
       <c r="E179" s="6"/>
-      <c r="F179" s="33"/>
+      <c r="F179" s="35"/>
     </row>
     <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="26">
+      <c r="A180" s="23">
         <v>225</v>
       </c>
-      <c r="B180" s="26">
-        <v>1</v>
-      </c>
-      <c r="C180" s="26" t="s">
+      <c r="B180" s="23">
+        <v>1</v>
+      </c>
+      <c r="C180" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="26" t="s">
+      <c r="D180" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F180" s="33"/>
+        <v>131</v>
+      </c>
+      <c r="F180" s="35"/>
     </row>
     <row r="181" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
@@ -4199,50 +4235,50 @@
       <c r="E189" s="6"/>
     </row>
     <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="22" t="s">
+      <c r="A190" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B190" s="23"/>
-      <c r="C190" s="23"/>
-      <c r="D190" s="24"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="32"/>
       <c r="E190" s="11"/>
-      <c r="F190" s="33" t="s">
-        <v>181</v>
+      <c r="F190" s="35" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C191" s="25" t="s">
+      <c r="A191" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D191" s="25" t="s">
+      <c r="D191" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E191" s="12"/>
-      <c r="F191" s="33"/>
+      <c r="F191" s="35"/>
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="26">
+      <c r="A192" s="23">
         <v>250</v>
       </c>
-      <c r="B192" s="26">
-        <v>1</v>
-      </c>
-      <c r="C192" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D192" s="26" t="s">
-        <v>169</v>
+      <c r="B192" s="23">
+        <v>1</v>
+      </c>
+      <c r="C192" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D192" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="E192" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F192" s="33"/>
+      <c r="F192" s="35"/>
     </row>
     <row r="193" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
@@ -4258,7 +4294,7 @@
         <v>106</v>
       </c>
       <c r="E193" s="8"/>
-      <c r="F193" s="33"/>
+      <c r="F193" s="35"/>
     </row>
     <row r="194" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
@@ -4274,188 +4310,188 @@
         <v>108</v>
       </c>
       <c r="E194" s="8"/>
-      <c r="F194" s="33"/>
+      <c r="F194" s="35"/>
     </row>
     <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="26">
+      <c r="A195" s="23">
         <v>253</v>
       </c>
-      <c r="B195" s="26">
-        <v>1</v>
-      </c>
-      <c r="C195" s="26" t="s">
+      <c r="B195" s="23">
+        <v>1</v>
+      </c>
+      <c r="C195" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D195" s="26" t="s">
+      <c r="D195" s="23" t="s">
         <v>110</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F195" s="33"/>
+        <v>119</v>
+      </c>
+      <c r="F195" s="35"/>
     </row>
     <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="26">
+      <c r="A196" s="23">
         <v>254</v>
       </c>
-      <c r="B196" s="26">
-        <v>1</v>
-      </c>
-      <c r="C196" s="26" t="s">
+      <c r="B196" s="23">
+        <v>1</v>
+      </c>
+      <c r="C196" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D196" s="26" t="s">
+      <c r="D196" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E196" s="10"/>
-      <c r="F196" s="33"/>
+      <c r="F196" s="35"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="22" t="s">
+      <c r="A197" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B197" s="23"/>
-      <c r="C197" s="23"/>
-      <c r="D197" s="24"/>
+      <c r="B197" s="31"/>
+      <c r="C197" s="31"/>
+      <c r="D197" s="32"/>
       <c r="E197" s="11"/>
     </row>
     <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B198" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C198" s="25" t="s">
+      <c r="A198" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D198" s="25" t="s">
+      <c r="D198" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E198" s="12"/>
     </row>
     <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="26">
+      <c r="A199" s="23">
         <v>255</v>
       </c>
-      <c r="B199" s="26">
-        <v>1</v>
-      </c>
-      <c r="C199" s="26" t="s">
+      <c r="B199" s="23">
+        <v>1</v>
+      </c>
+      <c r="C199" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D199" s="26" t="s">
+      <c r="D199" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E199" s="10"/>
     </row>
     <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="26">
+      <c r="A200" s="23">
         <v>256</v>
       </c>
-      <c r="B200" s="26">
+      <c r="B200" s="23">
         <v>3</v>
       </c>
-      <c r="C200" s="26" t="s">
+      <c r="C200" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D200" s="26" t="s">
+      <c r="D200" s="23" t="s">
         <v>115</v>
       </c>
       <c r="E200" s="10"/>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B201" s="26">
-        <v>1</v>
-      </c>
-      <c r="C201" s="27" t="s">
+      <c r="A201" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B201" s="23">
+        <v>1</v>
+      </c>
+      <c r="C201" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D201" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E201" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D201" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E201" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="F201" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="26">
+      <c r="A202" s="23">
         <v>59</v>
       </c>
-      <c r="B202" s="26">
-        <v>1</v>
-      </c>
-      <c r="C202" s="26" t="s">
+      <c r="B202" s="23">
+        <v>1</v>
+      </c>
+      <c r="C202" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D202" s="26" t="s">
+      <c r="D202" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="26">
+      <c r="A203" s="23">
         <v>60</v>
       </c>
-      <c r="B203" s="26">
+      <c r="B203" s="23">
         <v>3</v>
       </c>
-      <c r="C203" s="26" t="s">
+      <c r="C203" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D203" s="27" t="s">
-        <v>151</v>
+      <c r="D203" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F203" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="26">
+      <c r="A204" s="23">
         <v>61</v>
       </c>
-      <c r="B204" s="26">
-        <v>1</v>
-      </c>
-      <c r="C204" s="26" t="s">
+      <c r="B204" s="23">
+        <v>1</v>
+      </c>
+      <c r="C204" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D204" s="26" t="s">
+      <c r="D204" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F204" s="33" t="s">
-        <v>183</v>
+        <v>127</v>
+      </c>
+      <c r="F204" s="35" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="26">
+      <c r="A205" s="23">
         <v>62</v>
       </c>
-      <c r="B205" s="26">
-        <v>1</v>
-      </c>
-      <c r="C205" s="26" t="s">
+      <c r="B205" s="23">
+        <v>1</v>
+      </c>
+      <c r="C205" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D205" s="26" t="s">
+      <c r="D205" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E205" s="10"/>
-      <c r="F205" s="33"/>
+      <c r="F205" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:E200">

--- a/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
+++ b/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="204">
   <si>
     <t>LP.</t>
   </si>
@@ -394,9 +394,6 @@
     <t>A-OUT</t>
   </si>
   <si>
-    <t>Kontaktron Cresnet</t>
-  </si>
-  <si>
     <t>Procesor główny</t>
   </si>
   <si>
@@ -433,9 +430,6 @@
     <t>V-OUT (NVX)</t>
   </si>
   <si>
-    <t>Wizka + AV-IN (NVX)</t>
-  </si>
-  <si>
     <t>AV-IN (NVX)</t>
   </si>
   <si>
@@ -596,6 +590,45 @@
   </si>
   <si>
     <t>MIC-IN (MIC-02)</t>
+  </si>
+  <si>
+    <t>Klawiatura 12P (KP-01)</t>
+  </si>
+  <si>
+    <t>V-OUT (M-02)(RX-01)</t>
+  </si>
+  <si>
+    <t>(M-01)</t>
+  </si>
+  <si>
+    <t>Wizka + AV-IN (TX-01-A)</t>
+  </si>
+  <si>
+    <t>AV-IN (TX-01-B)</t>
+  </si>
+  <si>
+    <t>V-OUT (RX-03)</t>
+  </si>
+  <si>
+    <t>V-OUT (P-01)(RX-02)</t>
+  </si>
+  <si>
+    <t>Wizka + AV-IN (TX-02)</t>
+  </si>
+  <si>
+    <t>AV-IN (TX-03)</t>
+  </si>
+  <si>
+    <t>Klawiatura 12P (KP-02)</t>
+  </si>
+  <si>
+    <t>Kontaktron Cresnet (PS-01)</t>
+  </si>
+  <si>
+    <t>V-OUT (RX-04)</t>
+  </si>
+  <si>
+    <t>V-OUT (RX-05)</t>
   </si>
 </sst>
 </file>
@@ -860,13 +893,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -875,7 +902,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1190,8 +1223,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1242,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,15 +1253,15 @@
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="33" t="s">
-        <v>174</v>
+      <c r="F3" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="G3" s="17"/>
     </row>
@@ -1246,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="34"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
@@ -1262,20 +1295,20 @@
         <v>5</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="34"/>
+        <v>193</v>
+      </c>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="35" t="s">
-        <v>175</v>
+      <c r="F6" s="30" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1292,7 +1325,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="35"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
@@ -1308,9 +1341,9 @@
         <v>13</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="35"/>
+        <v>192</v>
+      </c>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
@@ -1328,7 +1361,7 @@
       <c r="E9" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
@@ -1344,9 +1377,9 @@
         <v>17</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F10" s="35"/>
+        <v>181</v>
+      </c>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
@@ -1362,9 +1395,9 @@
         <v>19</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="35"/>
+        <v>194</v>
+      </c>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
@@ -1380,9 +1413,9 @@
         <v>21</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="35"/>
+        <v>195</v>
+      </c>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
@@ -1398,9 +1431,9 @@
         <v>23</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="35"/>
+        <v>191</v>
+      </c>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
@@ -1416,9 +1449,9 @@
         <v>25</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="35"/>
+        <v>197</v>
+      </c>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
@@ -1436,7 +1469,7 @@
       <c r="E15" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="35"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1450,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="35"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1466,7 +1499,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="35"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1482,7 +1515,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="35"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
@@ -1498,9 +1531,9 @@
         <v>36</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="35"/>
+        <v>196</v>
+      </c>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
@@ -1516,9 +1549,9 @@
         <v>38</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" s="35"/>
+        <v>189</v>
+      </c>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
@@ -1536,17 +1569,17 @@
       <c r="E21" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="35"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="35"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
@@ -1562,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="35"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1580,7 +1613,7 @@
       <c r="E24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="35"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1596,7 +1629,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="35"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
@@ -1612,9 +1645,9 @@
         <v>44</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="35"/>
+        <v>203</v>
+      </c>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
@@ -1630,9 +1663,9 @@
         <v>25</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="35"/>
+        <v>202</v>
+      </c>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1648,7 +1681,7 @@
         <v>46</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="35"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
@@ -1666,7 +1699,7 @@
       <c r="E29" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="35"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
@@ -1682,9 +1715,9 @@
         <v>19</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="35"/>
+        <v>198</v>
+      </c>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
@@ -1700,9 +1733,9 @@
         <v>21</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="35"/>
+        <v>199</v>
+      </c>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
@@ -1718,9 +1751,9 @@
         <v>23</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="35"/>
+        <v>200</v>
+      </c>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
@@ -1736,9 +1769,9 @@
         <v>48</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="35"/>
+        <v>201</v>
+      </c>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
@@ -1752,9 +1785,9 @@
         <v>49</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F34" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
@@ -1772,7 +1805,7 @@
       <c r="E35" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F35" s="35"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
@@ -1790,17 +1823,17 @@
       <c r="E36" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="35"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="35"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
@@ -1816,7 +1849,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="35"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
@@ -1829,12 +1862,12 @@
         <v>24</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="35"/>
+        <v>136</v>
+      </c>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
@@ -1842,15 +1875,15 @@
         <v>1</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F40" s="35"/>
+        <v>136</v>
+      </c>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
@@ -1858,31 +1891,31 @@
         <v>4</v>
       </c>
       <c r="C41" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="23" t="s">
-        <v>164</v>
-      </c>
       <c r="E41" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F41" s="35"/>
+        <v>161</v>
+      </c>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B42" s="23">
         <v>1</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="35"/>
+        <v>137</v>
+      </c>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
@@ -1898,9 +1931,9 @@
         <v>53</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F43" s="35"/>
+        <v>183</v>
+      </c>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
@@ -1910,15 +1943,15 @@
         <v>1</v>
       </c>
       <c r="C44" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F44" s="35"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
@@ -1936,7 +1969,7 @@
       <c r="E45" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F45" s="35"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
@@ -1952,9 +1985,9 @@
         <v>38</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F46" s="35"/>
+        <v>190</v>
+      </c>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
@@ -1970,9 +2003,9 @@
         <v>16</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F47" s="35"/>
+        <v>155</v>
+      </c>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
@@ -1988,9 +2021,9 @@
         <v>64</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F48" s="35"/>
+        <v>156</v>
+      </c>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
@@ -2008,17 +2041,17 @@
       <c r="E49" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="35"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
+      <c r="A50" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="35"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
@@ -2034,7 +2067,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="12"/>
-      <c r="F51" s="35"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
@@ -2048,7 +2081,7 @@
         <v>51</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="35"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
@@ -2064,18 +2097,18 @@
       <c r="E53" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F53" s="35"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="35" t="s">
-        <v>174</v>
+      <c r="F54" s="30" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2092,7 +2125,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="12"/>
-      <c r="F55" s="35"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
@@ -2110,57 +2143,57 @@
       <c r="E56" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F56" s="35"/>
+      <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B57" s="23">
         <v>1</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F57" s="35"/>
+        <v>144</v>
+      </c>
+      <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B58" s="23">
         <v>1</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F58" s="35"/>
+        <v>184</v>
+      </c>
+      <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B59" s="23">
         <v>2</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F59" s="35"/>
+        <v>146</v>
+      </c>
+      <c r="F59" s="30"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
@@ -2176,9 +2209,9 @@
         <v>67</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="35"/>
+        <v>128</v>
+      </c>
+      <c r="F60" s="30"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
@@ -2196,7 +2229,7 @@
       <c r="E61" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F61" s="35"/>
+      <c r="F61" s="30"/>
     </row>
     <row r="62" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -2212,7 +2245,7 @@
         <v>29</v>
       </c>
       <c r="E62" s="6"/>
-      <c r="F62" s="35"/>
+      <c r="F62" s="30"/>
     </row>
     <row r="63" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -2228,17 +2261,17 @@
         <v>9</v>
       </c>
       <c r="E63" s="6"/>
-      <c r="F63" s="35"/>
+      <c r="F63" s="30"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="32"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="35"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="35"/>
+      <c r="F64" s="30"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
@@ -2254,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="12"/>
-      <c r="F65" s="35"/>
+      <c r="F65" s="30"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
@@ -2270,41 +2303,41 @@
         <v>70</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F66" s="35"/>
+        <v>129</v>
+      </c>
+      <c r="F66" s="30"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B67" s="23">
         <v>2</v>
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F67" s="35"/>
+        <v>141</v>
+      </c>
+      <c r="F67" s="30"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" s="23">
         <v>1</v>
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F68" s="35"/>
+      <c r="F68" s="30"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
@@ -2322,7 +2355,7 @@
       <c r="E69" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F69" s="35"/>
+      <c r="F69" s="30"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
@@ -2340,7 +2373,7 @@
       <c r="E70" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F70" s="35"/>
+      <c r="F70" s="30"/>
     </row>
     <row r="71" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -2356,7 +2389,7 @@
         <v>27</v>
       </c>
       <c r="E71" s="4"/>
-      <c r="F71" s="35"/>
+      <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -2372,7 +2405,7 @@
         <v>29</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="35"/>
+      <c r="F72" s="30"/>
     </row>
     <row r="73" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -2388,17 +2421,17 @@
         <v>9</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="35"/>
+      <c r="F73" s="30"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="32"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="35"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="35"/>
+      <c r="F74" s="30"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
@@ -2414,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="12"/>
-      <c r="F75" s="35"/>
+      <c r="F75" s="30"/>
     </row>
     <row r="76" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -2432,7 +2465,7 @@
       <c r="E76" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F76" s="35"/>
+      <c r="F76" s="30"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
@@ -2448,9 +2481,9 @@
         <v>44</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F77" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="F77" s="30"/>
     </row>
     <row r="78" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -2466,7 +2499,7 @@
         <v>29</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="35"/>
+      <c r="F78" s="30"/>
     </row>
     <row r="79" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -2482,17 +2515,17 @@
         <v>9</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="35"/>
+      <c r="F79" s="30"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="32"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="35"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="35"/>
+      <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
@@ -2508,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="12"/>
-      <c r="F81" s="35"/>
+      <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
@@ -2524,36 +2557,36 @@
         <v>27</v>
       </c>
       <c r="E82" s="10"/>
-      <c r="F82" s="35"/>
+      <c r="F82" s="30"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B83" s="23">
         <v>4</v>
       </c>
       <c r="C83" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D83" s="24" t="s">
-        <v>164</v>
-      </c>
       <c r="E83" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F83" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="F83" s="30"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="32"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="35"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="35" t="s">
-        <v>176</v>
+      <c r="F84" s="30" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2570,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="E85" s="12"/>
-      <c r="F85" s="35"/>
+      <c r="F85" s="30"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
@@ -2586,19 +2619,19 @@
         <v>5</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F86" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="32"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="35"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="35"/>
+      <c r="F87" s="30"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
@@ -2614,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="E88" s="12"/>
-      <c r="F88" s="35"/>
+      <c r="F88" s="30"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
@@ -2630,9 +2663,9 @@
         <v>5</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F89" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="F89" s="30"/>
     </row>
     <row r="90" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -2648,17 +2681,17 @@
         <v>29</v>
       </c>
       <c r="E90" s="7"/>
-      <c r="F90" s="35"/>
+      <c r="F90" s="30"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="32"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="35"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="35"/>
+      <c r="F91" s="30"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
@@ -2674,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="E92" s="12"/>
-      <c r="F92" s="35"/>
+      <c r="F92" s="30"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
@@ -2692,7 +2725,7 @@
       <c r="E93" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F93" s="35"/>
+      <c r="F93" s="30"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
@@ -2710,7 +2743,7 @@
       <c r="E94" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F94" s="35"/>
+      <c r="F94" s="30"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
@@ -2728,7 +2761,7 @@
       <c r="E95" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F95" s="35"/>
+      <c r="F95" s="30"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
@@ -2746,7 +2779,7 @@
       <c r="E96" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F96" s="35"/>
+      <c r="F96" s="30"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
@@ -2764,7 +2797,7 @@
       <c r="E97" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F97" s="35"/>
+      <c r="F97" s="30"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
@@ -2780,9 +2813,9 @@
         <v>83</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="F98" s="35"/>
+        <v>185</v>
+      </c>
+      <c r="F98" s="30"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
@@ -2800,7 +2833,7 @@
       <c r="E99" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F99" s="35"/>
+      <c r="F99" s="30"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
@@ -2816,20 +2849,20 @@
         <v>70</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F100" s="35"/>
+        <v>129</v>
+      </c>
+      <c r="F100" s="30"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="32"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="35"/>
       <c r="E101" s="11"/>
-      <c r="F101" s="35" t="s">
-        <v>177</v>
+      <c r="F101" s="30" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2846,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="E102" s="12"/>
-      <c r="F102" s="35"/>
+      <c r="F102" s="30"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
@@ -2864,7 +2897,7 @@
       <c r="E103" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F103" s="35"/>
+      <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -2880,7 +2913,7 @@
         <v>29</v>
       </c>
       <c r="E104" s="8"/>
-      <c r="F104" s="35"/>
+      <c r="F104" s="30"/>
     </row>
     <row r="105" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -2896,57 +2929,57 @@
         <v>9</v>
       </c>
       <c r="E105" s="8"/>
-      <c r="F105" s="35"/>
+      <c r="F105" s="30"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B106" s="23">
         <v>1</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F106" s="35"/>
+        <v>144</v>
+      </c>
+      <c r="F106" s="30"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B107" s="23">
         <v>1</v>
       </c>
       <c r="C107" s="24"/>
       <c r="D107" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F107" s="35"/>
+        <v>186</v>
+      </c>
+      <c r="F107" s="30"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B108" s="23">
         <v>1</v>
       </c>
       <c r="C108" s="24"/>
       <c r="D108" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F108" s="35"/>
+      <c r="F108" s="30"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
@@ -2964,18 +2997,18 @@
       <c r="E109" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F109" s="35"/>
+      <c r="F109" s="30"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="32"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="35"/>
       <c r="E110" s="11"/>
-      <c r="F110" s="35" t="s">
-        <v>178</v>
+      <c r="F110" s="30" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2992,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="E111" s="12"/>
-      <c r="F111" s="35"/>
+      <c r="F111" s="30"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
@@ -3008,9 +3041,9 @@
         <v>5</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F112" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="F112" s="30"/>
     </row>
     <row r="113" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -3026,7 +3059,7 @@
         <v>29</v>
       </c>
       <c r="E113" s="4"/>
-      <c r="F113" s="35"/>
+      <c r="F113" s="30"/>
     </row>
     <row r="114" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -3042,17 +3075,17 @@
         <v>9</v>
       </c>
       <c r="E114" s="4"/>
-      <c r="F114" s="35"/>
+      <c r="F114" s="30"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="30" t="s">
+      <c r="A115" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="32"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="35"/>
       <c r="E115" s="11"/>
-      <c r="F115" s="35"/>
+      <c r="F115" s="30"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
@@ -3068,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="E116" s="12"/>
-      <c r="F116" s="35"/>
+      <c r="F116" s="30"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
@@ -3084,19 +3117,19 @@
         <v>5</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F117" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="F117" s="30"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="30" t="s">
+      <c r="A118" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="32"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="35"/>
       <c r="E118" s="11"/>
-      <c r="F118" s="35"/>
+      <c r="F118" s="30"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
@@ -3112,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="E119" s="12"/>
-      <c r="F119" s="35"/>
+      <c r="F119" s="30"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
@@ -3128,9 +3161,9 @@
         <v>5</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F120" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="F120" s="30"/>
     </row>
     <row r="121" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -3146,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="E121" s="6"/>
-      <c r="F121" s="35"/>
+      <c r="F121" s="30"/>
     </row>
     <row r="122" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -3162,17 +3195,17 @@
         <v>9</v>
       </c>
       <c r="E122" s="6"/>
-      <c r="F122" s="35"/>
+      <c r="F122" s="30"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="30" t="s">
+      <c r="A123" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B123" s="31"/>
-      <c r="C123" s="31"/>
-      <c r="D123" s="32"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="35"/>
       <c r="E123" s="11"/>
-      <c r="F123" s="35"/>
+      <c r="F123" s="30"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
@@ -3188,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="E124" s="12"/>
-      <c r="F124" s="35"/>
+      <c r="F124" s="30"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
@@ -3204,9 +3237,9 @@
         <v>5</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F125" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="F125" s="30"/>
     </row>
     <row r="126" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -3239,15 +3272,15 @@
       <c r="E127" s="6"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="30" t="s">
+      <c r="A128" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="32"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="35"/>
       <c r="E128" s="11"/>
-      <c r="F128" s="35" t="s">
-        <v>177</v>
+      <c r="F128" s="30" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3264,7 +3297,7 @@
         <v>3</v>
       </c>
       <c r="E129" s="12"/>
-      <c r="F129" s="35"/>
+      <c r="F129" s="30"/>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
@@ -3282,7 +3315,7 @@
       <c r="E130" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F130" s="35"/>
+      <c r="F130" s="30"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
@@ -3300,7 +3333,7 @@
       <c r="E131" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F131" s="35"/>
+      <c r="F131" s="30"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
@@ -3316,9 +3349,9 @@
         <v>83</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="F132" s="35"/>
+        <v>187</v>
+      </c>
+      <c r="F132" s="30"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
@@ -3336,7 +3369,7 @@
       <c r="E133" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F133" s="35"/>
+      <c r="F133" s="30"/>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
@@ -3354,7 +3387,7 @@
       <c r="E134" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F134" s="35"/>
+      <c r="F134" s="30"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
@@ -3370,9 +3403,9 @@
         <v>67</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F135" s="35"/>
+        <v>128</v>
+      </c>
+      <c r="F135" s="30"/>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
@@ -3390,7 +3423,7 @@
       <c r="E136" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F136" s="35"/>
+      <c r="F136" s="30"/>
     </row>
     <row r="137" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -3423,15 +3456,15 @@
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="30" t="s">
+      <c r="A139" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="32"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="35"/>
       <c r="E139" s="11"/>
-      <c r="F139" s="35" t="s">
-        <v>178</v>
+      <c r="F139" s="30" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3448,7 +3481,7 @@
         <v>3</v>
       </c>
       <c r="E140" s="12"/>
-      <c r="F140" s="35"/>
+      <c r="F140" s="30"/>
     </row>
     <row r="141" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -3464,7 +3497,7 @@
         <v>5</v>
       </c>
       <c r="E141" s="6"/>
-      <c r="F141" s="35"/>
+      <c r="F141" s="30"/>
     </row>
     <row r="142" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
@@ -3480,7 +3513,7 @@
         <v>7</v>
       </c>
       <c r="E142" s="6"/>
-      <c r="F142" s="35"/>
+      <c r="F142" s="30"/>
     </row>
     <row r="143" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -3496,7 +3529,7 @@
         <v>14</v>
       </c>
       <c r="E143" s="6"/>
-      <c r="F143" s="35"/>
+      <c r="F143" s="30"/>
     </row>
     <row r="144" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -3512,7 +3545,7 @@
         <v>29</v>
       </c>
       <c r="E144" s="6"/>
-      <c r="F144" s="35"/>
+      <c r="F144" s="30"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
@@ -3530,7 +3563,7 @@
       <c r="E145" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F145" s="35"/>
+      <c r="F145" s="30"/>
     </row>
     <row r="146" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
@@ -3546,11 +3579,11 @@
         <v>9</v>
       </c>
       <c r="E146" s="6"/>
-      <c r="F146" s="35"/>
+      <c r="F146" s="30"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B147" s="23">
         <v>1</v>
@@ -3559,38 +3592,38 @@
         <v>116</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F147" s="35"/>
+        <v>144</v>
+      </c>
+      <c r="F147" s="30"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B148" s="23">
         <v>1</v>
       </c>
       <c r="C148" s="24"/>
       <c r="D148" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E148" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F148" s="35"/>
+      <c r="F148" s="30"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="30" t="s">
+      <c r="A149" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="32"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="34"/>
+      <c r="D149" s="35"/>
       <c r="E149" s="11"/>
-      <c r="F149" s="35"/>
+      <c r="F149" s="30"/>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="22" t="s">
@@ -3606,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="E150" s="12"/>
-      <c r="F150" s="35"/>
+      <c r="F150" s="30"/>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
@@ -3624,7 +3657,7 @@
       <c r="E151" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F151" s="35"/>
+      <c r="F151" s="30"/>
     </row>
     <row r="152" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -3640,7 +3673,7 @@
         <v>29</v>
       </c>
       <c r="E152" s="4"/>
-      <c r="F152" s="35"/>
+      <c r="F152" s="30"/>
     </row>
     <row r="153" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -3656,11 +3689,11 @@
         <v>9</v>
       </c>
       <c r="E153" s="4"/>
-      <c r="F153" s="35"/>
+      <c r="F153" s="30"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B154" s="23">
         <v>1</v>
@@ -3669,55 +3702,55 @@
         <v>116</v>
       </c>
       <c r="D154" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E154" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F154" s="35"/>
+      <c r="F154" s="30"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B155" s="23">
         <v>1</v>
       </c>
       <c r="C155" s="24"/>
       <c r="D155" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F155" s="35"/>
+        <v>188</v>
+      </c>
+      <c r="F155" s="30"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B156" s="23">
         <v>1</v>
       </c>
       <c r="C156" s="24"/>
       <c r="D156" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E156" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F156" s="35"/>
+      <c r="F156" s="30"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="30" t="s">
+      <c r="A157" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B157" s="31"/>
-      <c r="C157" s="31"/>
-      <c r="D157" s="32"/>
+      <c r="B157" s="34"/>
+      <c r="C157" s="34"/>
+      <c r="D157" s="35"/>
       <c r="E157" s="11"/>
-      <c r="F157" s="35" t="s">
-        <v>177</v>
+      <c r="F157" s="30" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3734,7 +3767,7 @@
         <v>3</v>
       </c>
       <c r="E158" s="12"/>
-      <c r="F158" s="35"/>
+      <c r="F158" s="30"/>
     </row>
     <row r="159" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -3752,7 +3785,7 @@
       <c r="E159" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F159" s="35"/>
+      <c r="F159" s="30"/>
     </row>
     <row r="160" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -3768,7 +3801,7 @@
         <v>29</v>
       </c>
       <c r="E160" s="4"/>
-      <c r="F160" s="35"/>
+      <c r="F160" s="30"/>
     </row>
     <row r="161" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
@@ -3784,7 +3817,7 @@
         <v>9</v>
       </c>
       <c r="E161" s="4"/>
-      <c r="F161" s="35"/>
+      <c r="F161" s="30"/>
     </row>
     <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
@@ -3800,9 +3833,9 @@
         <v>67</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F162" s="35"/>
+        <v>128</v>
+      </c>
+      <c r="F162" s="30"/>
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
@@ -3818,9 +3851,9 @@
         <v>13</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F163" s="35"/>
+        <v>144</v>
+      </c>
+      <c r="F163" s="30"/>
     </row>
     <row r="164" spans="1:7" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="28">
@@ -3830,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="C164" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D164" s="28" t="s">
         <v>97</v>
@@ -3838,35 +3871,35 @@
       <c r="E164" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F164" s="35"/>
+      <c r="F164" s="30"/>
       <c r="G164" s="19"/>
     </row>
     <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B165" s="23">
         <v>2</v>
       </c>
       <c r="C165" s="24"/>
       <c r="D165" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F165" s="35"/>
+        <v>146</v>
+      </c>
+      <c r="F165" s="30"/>
     </row>
     <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="30" t="s">
+      <c r="A166" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B166" s="31"/>
-      <c r="C166" s="31"/>
-      <c r="D166" s="32"/>
+      <c r="B166" s="34"/>
+      <c r="C166" s="34"/>
+      <c r="D166" s="35"/>
       <c r="E166" s="11"/>
-      <c r="F166" s="35" t="s">
-        <v>178</v>
+      <c r="F166" s="30" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3883,7 +3916,7 @@
         <v>3</v>
       </c>
       <c r="E167" s="12"/>
-      <c r="F167" s="35"/>
+      <c r="F167" s="30"/>
     </row>
     <row r="168" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
@@ -3901,7 +3934,7 @@
       <c r="E168" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F168" s="35"/>
+      <c r="F168" s="30"/>
     </row>
     <row r="169" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
@@ -3917,7 +3950,7 @@
         <v>9</v>
       </c>
       <c r="E169" s="8"/>
-      <c r="F169" s="35"/>
+      <c r="F169" s="30"/>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
@@ -3933,19 +3966,19 @@
         <v>5</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F170" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="F170" s="30"/>
     </row>
     <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="30" t="s">
+      <c r="A171" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B171" s="31"/>
-      <c r="C171" s="31"/>
-      <c r="D171" s="32"/>
+      <c r="B171" s="34"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="35"/>
       <c r="E171" s="11"/>
-      <c r="F171" s="35"/>
+      <c r="F171" s="30"/>
     </row>
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="22" t="s">
@@ -3961,7 +3994,7 @@
         <v>3</v>
       </c>
       <c r="E172" s="12"/>
-      <c r="F172" s="35"/>
+      <c r="F172" s="30"/>
     </row>
     <row r="173" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
@@ -3979,7 +4012,7 @@
       <c r="E173" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F173" s="35"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
@@ -3995,7 +4028,7 @@
         <v>9</v>
       </c>
       <c r="E174" s="6"/>
-      <c r="F174" s="35"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
@@ -4011,19 +4044,19 @@
         <v>5</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F175" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="F175" s="30"/>
     </row>
     <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="30" t="s">
+      <c r="A176" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B176" s="31"/>
-      <c r="C176" s="31"/>
-      <c r="D176" s="32"/>
+      <c r="B176" s="34"/>
+      <c r="C176" s="34"/>
+      <c r="D176" s="35"/>
       <c r="E176" s="11"/>
-      <c r="F176" s="35"/>
+      <c r="F176" s="30"/>
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="22" t="s">
@@ -4039,7 +4072,7 @@
         <v>3</v>
       </c>
       <c r="E177" s="12"/>
-      <c r="F177" s="35"/>
+      <c r="F177" s="30"/>
     </row>
     <row r="178" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
@@ -4057,7 +4090,7 @@
       <c r="E178" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F178" s="35"/>
+      <c r="F178" s="30"/>
     </row>
     <row r="179" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
@@ -4073,7 +4106,7 @@
         <v>9</v>
       </c>
       <c r="E179" s="6"/>
-      <c r="F179" s="35"/>
+      <c r="F179" s="30"/>
     </row>
     <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
@@ -4089,9 +4122,9 @@
         <v>5</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F180" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="F180" s="30"/>
     </row>
     <row r="181" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
@@ -4235,15 +4268,15 @@
       <c r="E189" s="6"/>
     </row>
     <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="30" t="s">
+      <c r="A190" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B190" s="31"/>
-      <c r="C190" s="31"/>
-      <c r="D190" s="32"/>
+      <c r="B190" s="34"/>
+      <c r="C190" s="34"/>
+      <c r="D190" s="35"/>
       <c r="E190" s="11"/>
-      <c r="F190" s="35" t="s">
-        <v>179</v>
+      <c r="F190" s="30" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4260,7 +4293,7 @@
         <v>3</v>
       </c>
       <c r="E191" s="12"/>
-      <c r="F191" s="35"/>
+      <c r="F191" s="30"/>
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
@@ -4270,15 +4303,15 @@
         <v>1</v>
       </c>
       <c r="C192" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E192" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F192" s="35"/>
+      <c r="F192" s="30"/>
     </row>
     <row r="193" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
@@ -4294,7 +4327,7 @@
         <v>106</v>
       </c>
       <c r="E193" s="8"/>
-      <c r="F193" s="35"/>
+      <c r="F193" s="30"/>
     </row>
     <row r="194" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
@@ -4310,7 +4343,7 @@
         <v>108</v>
       </c>
       <c r="E194" s="8"/>
-      <c r="F194" s="35"/>
+      <c r="F194" s="30"/>
     </row>
     <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
@@ -4328,7 +4361,7 @@
       <c r="E195" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F195" s="35"/>
+      <c r="F195" s="30"/>
     </row>
     <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
@@ -4344,15 +4377,15 @@
         <v>36</v>
       </c>
       <c r="E196" s="10"/>
-      <c r="F196" s="35"/>
+      <c r="F196" s="30"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="30" t="s">
+      <c r="A197" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B197" s="31"/>
-      <c r="C197" s="31"/>
-      <c r="D197" s="32"/>
+      <c r="B197" s="34"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="35"/>
       <c r="E197" s="11"/>
     </row>
     <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4402,22 +4435,22 @@
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B201" s="23">
         <v>1</v>
       </c>
       <c r="C201" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D201" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D201" s="24" t="s">
+      <c r="E201" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E201" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="F201" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4434,7 +4467,7 @@
         <v>57</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4448,13 +4481,13 @@
         <v>58</v>
       </c>
       <c r="D203" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F203" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4471,10 +4504,10 @@
         <v>60</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F204" s="35" t="s">
-        <v>181</v>
+        <v>126</v>
+      </c>
+      <c r="F204" s="30" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4491,7 +4524,7 @@
         <v>62</v>
       </c>
       <c r="E205" s="10"/>
-      <c r="F205" s="35"/>
+      <c r="F205" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:E200">
@@ -4512,14 +4545,25 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="38">
-    <mergeCell ref="F166:F180"/>
-    <mergeCell ref="F190:F196"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="F101:F109"/>
-    <mergeCell ref="F110:F125"/>
-    <mergeCell ref="F128:F136"/>
-    <mergeCell ref="F139:F156"/>
-    <mergeCell ref="F157:F165"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A84:D84"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="F6:F53"/>
     <mergeCell ref="F54:F83"/>
@@ -4531,25 +4575,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="F166:F180"/>
+    <mergeCell ref="F190:F196"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="F101:F109"/>
+    <mergeCell ref="F110:F125"/>
+    <mergeCell ref="F128:F136"/>
+    <mergeCell ref="F139:F156"/>
+    <mergeCell ref="F157:F165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
+++ b/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="205">
   <si>
     <t>LP.</t>
   </si>
@@ -310,9 +310,6 @@
     <t>W Sali będzie zamontowane dwa mediaporty CONI wyposażone w gniazda 2x230V oraz kabel HDMI i LAN. Za pomocą klawiatury naściennej będzie możliwe przełączanie obrazu pomiędzy mediaportami. Dodatkowo będzie możliwe wyświetlanie bezprzewodowej prezentacji Teos Connect.</t>
   </si>
   <si>
-    <t>Przyciski + moduł Crestron</t>
-  </si>
-  <si>
     <t>02.23 - Gabinet Tramera</t>
   </si>
   <si>
@@ -526,9 +523,6 @@
     <t>Ekran stały bez sterowania (stary)</t>
   </si>
   <si>
-    <t>C2NI-CB ???</t>
-  </si>
-  <si>
     <t>Program</t>
   </si>
   <si>
@@ -629,6 +623,15 @@
   </si>
   <si>
     <t>V-OUT (RX-05)</t>
+  </si>
+  <si>
+    <t>C2N-UNI8IO</t>
+  </si>
+  <si>
+    <t>Moduł Crestron - 2 przyciski</t>
+  </si>
+  <si>
+    <t>Klawiatura 2P (KP-09)</t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,12 +756,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF2F5496"/>
         <bgColor rgb="FF2F5496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -808,7 +805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -861,9 +858,6 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -886,13 +880,13 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1223,253 +1217,253 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="71.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="71.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.28515625" style="13" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" style="14" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" style="15" customWidth="1"/>
-    <col min="8" max="10" width="8.7109375" style="21" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="21"/>
+    <col min="8" max="10" width="8.7109375" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="30" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>1</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="22" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>1</v>
-      </c>
-      <c r="B5" s="23">
-        <v>1</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>9</v>
+      </c>
+      <c r="B9" s="22">
         <v>4</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="C9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>10</v>
+      </c>
+      <c r="B10" s="22">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>11</v>
+      </c>
+      <c r="B11" s="22">
+        <v>1</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>12</v>
+      </c>
+      <c r="B12" s="22">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>6</v>
-      </c>
-      <c r="B8" s="23">
-        <v>1</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>9</v>
-      </c>
-      <c r="B9" s="23">
-        <v>4</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
         <v>15</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="B13" s="22">
+        <v>1</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>16</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
-        <v>10</v>
-      </c>
-      <c r="B10" s="23">
-        <v>1</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>11</v>
-      </c>
-      <c r="B11" s="23">
-        <v>1</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="23" t="s">
+      <c r="B14" s="22">
+        <v>1</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <v>12</v>
-      </c>
-      <c r="B12" s="23">
-        <v>1</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>15</v>
-      </c>
-      <c r="B13" s="23">
-        <v>1</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <v>16</v>
-      </c>
-      <c r="B14" s="23">
-        <v>1</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
-        <v>19</v>
-      </c>
-      <c r="B15" s="23">
-        <v>1</v>
-      </c>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="22">
+        <v>1</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="30"/>
+        <v>121</v>
+      </c>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1483,7 +1477,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="30"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1499,7 +1493,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="30"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1515,87 +1509,87 @@
         <v>34</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>27</v>
       </c>
-      <c r="B19" s="23">
-        <v>1</v>
-      </c>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="22">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="30"/>
+        <v>194</v>
+      </c>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>28</v>
       </c>
-      <c r="B20" s="23">
-        <v>1</v>
-      </c>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="22">
+        <v>1</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="F20" s="30"/>
+        <v>187</v>
+      </c>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>30</v>
       </c>
-      <c r="B21" s="23">
-        <v>1</v>
-      </c>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="22">
+        <v>1</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="30"/>
+        <v>123</v>
+      </c>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="30"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="A23" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="30"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1613,7 +1607,7 @@
       <c r="E24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="30"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1629,43 +1623,43 @@
         <v>9</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="30"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
+      <c r="A26" s="22">
         <v>33</v>
       </c>
-      <c r="B26" s="23">
-        <v>1</v>
-      </c>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="22">
+        <v>1</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F26" s="30"/>
+        <v>201</v>
+      </c>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>34</v>
       </c>
-      <c r="B27" s="23">
-        <v>1</v>
-      </c>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F27" s="30"/>
+        <v>200</v>
+      </c>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1681,555 +1675,555 @@
         <v>46</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="30"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>37</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <v>4</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="30"/>
+        <v>117</v>
+      </c>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>38</v>
       </c>
-      <c r="B30" s="23">
-        <v>1</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="22">
+        <v>1</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>39</v>
+      </c>
+      <c r="B31" s="22">
+        <v>1</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="29"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>42</v>
+      </c>
+      <c r="B32" s="22">
+        <v>1</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="30"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
-        <v>39</v>
-      </c>
-      <c r="B31" s="23">
-        <v>1</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>43</v>
+      </c>
+      <c r="B33" s="22">
+        <v>1</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F31" s="30"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
-        <v>42</v>
-      </c>
-      <c r="B32" s="23">
-        <v>1</v>
-      </c>
-      <c r="C32" s="24" t="s">
+      <c r="F33" s="29"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>44</v>
+      </c>
+      <c r="B34" s="22">
+        <v>1</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>45</v>
+      </c>
+      <c r="B35" s="22">
+        <v>1</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="29"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>46</v>
+      </c>
+      <c r="B36" s="22">
+        <v>1</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="29"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="29"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
+        <v>50</v>
+      </c>
+      <c r="B39" s="22">
+        <v>1</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="29"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22">
+        <v>1</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22">
+        <v>4</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="22">
+        <v>1</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>51</v>
+      </c>
+      <c r="B43" s="22">
+        <v>1</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
+        <v>54</v>
+      </c>
+      <c r="B44" s="22">
+        <v>1</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>56</v>
+      </c>
+      <c r="B45" s="22">
+        <v>1</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <v>57</v>
+      </c>
+      <c r="B46" s="22">
+        <v>2</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
+        <v>58</v>
+      </c>
+      <c r="B47" s="22">
+        <v>4</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
+        <v>63</v>
+      </c>
+      <c r="B48" s="22">
+        <v>1</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="29"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
+        <v>64</v>
+      </c>
+      <c r="B49" s="22">
+        <v>2</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="29"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="29"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="29"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22">
+        <v>1</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="29"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22">
+        <v>2</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D53" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F32" s="30"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
-        <v>43</v>
-      </c>
-      <c r="B33" s="23">
-        <v>1</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F33" s="30"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
-        <v>44</v>
-      </c>
-      <c r="B34" s="23">
-        <v>1</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="E53" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="29"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="29"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <v>72</v>
+      </c>
+      <c r="B56" s="22">
+        <v>1</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="29"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="22">
+        <v>1</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="29"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="22">
+        <v>1</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F34" s="30"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
-        <v>45</v>
-      </c>
-      <c r="B35" s="23">
-        <v>1</v>
-      </c>
-      <c r="C35" s="23" t="s">
+      <c r="F58" s="29"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="22">
+        <v>2</v>
+      </c>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="29"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
+        <v>73</v>
+      </c>
+      <c r="B60" s="22">
+        <v>1</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="29"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22">
+        <v>74</v>
+      </c>
+      <c r="B61" s="22">
+        <v>1</v>
+      </c>
+      <c r="C61" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D61" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="30"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
-        <v>46</v>
-      </c>
-      <c r="B36" s="23">
-        <v>1</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="30"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="30"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
-        <v>50</v>
-      </c>
-      <c r="B39" s="23">
-        <v>1</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F39" s="30"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23">
-        <v>1</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23">
-        <v>4</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" s="30"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="23">
-        <v>1</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F42" s="30"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
-        <v>51</v>
-      </c>
-      <c r="B43" s="23">
-        <v>1</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F43" s="30"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
-        <v>54</v>
-      </c>
-      <c r="B44" s="23">
-        <v>1</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F44" s="30"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
-        <v>56</v>
-      </c>
-      <c r="B45" s="23">
-        <v>1</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F45" s="30"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23">
-        <v>57</v>
-      </c>
-      <c r="B46" s="23">
-        <v>2</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F46" s="30"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23">
-        <v>58</v>
-      </c>
-      <c r="B47" s="23">
-        <v>4</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F47" s="30"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23">
-        <v>63</v>
-      </c>
-      <c r="B48" s="23">
-        <v>1</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" s="30"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23">
-        <v>64</v>
-      </c>
-      <c r="B49" s="23">
-        <v>2</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="30"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="30"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="30"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23">
-        <v>1</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="30"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23">
-        <v>2</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" s="30"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="30"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23">
-        <v>72</v>
-      </c>
-      <c r="B56" s="23">
-        <v>1</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="30"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" s="23">
-        <v>1</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F57" s="30"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" s="23">
-        <v>1</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F58" s="30"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="23">
-        <v>2</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="30"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23">
-        <v>73</v>
-      </c>
-      <c r="B60" s="23">
-        <v>1</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F60" s="30"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23">
-        <v>74</v>
-      </c>
-      <c r="B61" s="23">
-        <v>1</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>27</v>
-      </c>
       <c r="E61" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F61" s="30"/>
+        <v>121</v>
+      </c>
+      <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -2245,7 +2239,7 @@
         <v>29</v>
       </c>
       <c r="E62" s="6"/>
-      <c r="F62" s="30"/>
+      <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -2261,119 +2255,119 @@
         <v>9</v>
       </c>
       <c r="E63" s="6"/>
-      <c r="F63" s="30"/>
+      <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="35"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="30"/>
+      <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="22" t="s">
+      <c r="A65" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="12"/>
-      <c r="F65" s="30"/>
+      <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
+      <c r="A66" s="22">
         <v>79</v>
       </c>
-      <c r="B66" s="23">
-        <v>1</v>
-      </c>
-      <c r="C66" s="23" t="s">
+      <c r="B66" s="22">
+        <v>1</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D66" s="22" t="s">
         <v>70</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" s="30"/>
+        <v>128</v>
+      </c>
+      <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="23">
+      <c r="A67" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="22">
         <v>2</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24" t="s">
-        <v>138</v>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="E67" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F67" s="29"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="22">
+        <v>1</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="F67" s="30"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="23">
-        <v>1</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24" t="s">
-        <v>142</v>
-      </c>
       <c r="E68" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F68" s="30"/>
+        <v>120</v>
+      </c>
+      <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23">
+      <c r="A69" s="22">
         <v>80</v>
       </c>
-      <c r="B69" s="23">
-        <v>1</v>
-      </c>
-      <c r="C69" s="23" t="s">
+      <c r="B69" s="22">
+        <v>1</v>
+      </c>
+      <c r="C69" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D69" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F69" s="30"/>
+        <v>120</v>
+      </c>
+      <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="23">
+      <c r="A70" s="22">
         <v>83</v>
       </c>
-      <c r="B70" s="23">
-        <v>1</v>
-      </c>
-      <c r="C70" s="23" t="s">
+      <c r="B70" s="22">
+        <v>1</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F70" s="30"/>
+        <v>122</v>
+      </c>
+      <c r="F70" s="29"/>
     </row>
     <row r="71" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -2389,7 +2383,7 @@
         <v>27</v>
       </c>
       <c r="E71" s="4"/>
-      <c r="F71" s="30"/>
+      <c r="F71" s="29"/>
     </row>
     <row r="72" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -2405,7 +2399,7 @@
         <v>29</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="30"/>
+      <c r="F72" s="29"/>
     </row>
     <row r="73" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -2421,33 +2415,33 @@
         <v>9</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="30"/>
+      <c r="F73" s="29"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="35"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="30"/>
+      <c r="F74" s="29"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="22" t="s">
+      <c r="A75" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="12"/>
-      <c r="F75" s="30"/>
+      <c r="F75" s="29"/>
     </row>
     <row r="76" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -2465,25 +2459,25 @@
       <c r="E76" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F76" s="30"/>
+      <c r="F76" s="29"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
+      <c r="A77" s="22">
         <v>91</v>
       </c>
-      <c r="B77" s="23">
-        <v>1</v>
-      </c>
-      <c r="C77" s="23" t="s">
+      <c r="B77" s="22">
+        <v>1</v>
+      </c>
+      <c r="C77" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D77" s="22" t="s">
         <v>44</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F77" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="F77" s="29"/>
     </row>
     <row r="78" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -2499,7 +2493,7 @@
         <v>29</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="30"/>
+      <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -2515,157 +2509,157 @@
         <v>9</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="30"/>
+      <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="35"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="30"/>
+      <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="22" t="s">
+      <c r="A81" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E81" s="12"/>
-      <c r="F81" s="30"/>
+      <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23">
+      <c r="A82" s="22">
         <v>98</v>
       </c>
-      <c r="B82" s="23">
+      <c r="B82" s="22">
         <v>4</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E82" s="10"/>
-      <c r="F82" s="30"/>
+      <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B83" s="23">
+      <c r="A83" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="22">
         <v>4</v>
       </c>
-      <c r="C83" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>162</v>
+      <c r="C83" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F83" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="35"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="34"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="30" t="s">
-        <v>174</v>
+      <c r="F84" s="29" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="22" t="s">
+      <c r="A85" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="22" t="s">
+      <c r="D85" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="12"/>
-      <c r="F85" s="30"/>
+      <c r="F85" s="29"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="23">
+      <c r="A86" s="22">
         <v>102</v>
       </c>
-      <c r="B86" s="23">
-        <v>1</v>
-      </c>
-      <c r="C86" s="23" t="s">
+      <c r="B86" s="22">
+        <v>1</v>
+      </c>
+      <c r="C86" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="23" t="s">
+      <c r="D86" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F86" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="F86" s="29"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="35"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="34"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="30"/>
+      <c r="F87" s="29"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="22" t="s">
+      <c r="A88" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="12"/>
-      <c r="F88" s="30"/>
+      <c r="F88" s="29"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="23">
+      <c r="A89" s="22">
         <v>108</v>
       </c>
-      <c r="B89" s="23">
-        <v>1</v>
-      </c>
-      <c r="C89" s="23" t="s">
+      <c r="B89" s="22">
+        <v>1</v>
+      </c>
+      <c r="C89" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="D89" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F89" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="F89" s="29"/>
     </row>
     <row r="90" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -2681,223 +2675,223 @@
         <v>29</v>
       </c>
       <c r="E90" s="7"/>
-      <c r="F90" s="30"/>
+      <c r="F90" s="29"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="34"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="30"/>
+      <c r="F91" s="29"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="22" t="s">
+      <c r="A92" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D92" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E92" s="12"/>
-      <c r="F92" s="30"/>
+      <c r="F92" s="29"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="23">
+      <c r="A93" s="22">
         <v>113</v>
       </c>
-      <c r="B93" s="23">
-        <v>1</v>
-      </c>
-      <c r="C93" s="23" t="s">
+      <c r="B93" s="22">
+        <v>1</v>
+      </c>
+      <c r="C93" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D93" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E93" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F93" s="29"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="22">
+        <v>114</v>
+      </c>
+      <c r="B94" s="22">
+        <v>1</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F94" s="29"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="22">
+        <v>116</v>
+      </c>
+      <c r="B95" s="22">
+        <v>1</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F93" s="30"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="23">
-        <v>114</v>
-      </c>
-      <c r="B94" s="23">
-        <v>1</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E94" s="10" t="s">
+      <c r="F95" s="29"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="22">
         <v>117</v>
       </c>
-      <c r="F94" s="30"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="23">
-        <v>116</v>
-      </c>
-      <c r="B95" s="23">
-        <v>1</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F95" s="30"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23">
-        <v>117</v>
-      </c>
-      <c r="B96" s="23">
-        <v>1</v>
-      </c>
-      <c r="C96" s="23" t="s">
+      <c r="B96" s="22">
+        <v>1</v>
+      </c>
+      <c r="C96" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="23" t="s">
+      <c r="D96" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E96" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F96" s="29"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="22">
+        <v>118</v>
+      </c>
+      <c r="B97" s="22">
+        <v>1</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F97" s="29"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="22">
         <v>121</v>
       </c>
-      <c r="F96" s="30"/>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="23">
-        <v>118</v>
-      </c>
-      <c r="B97" s="23">
-        <v>1</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F97" s="30"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="23">
+      <c r="B98" s="22">
+        <v>1</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F98" s="29"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="22">
+        <v>122</v>
+      </c>
+      <c r="B99" s="22">
+        <v>1</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B98" s="23">
-        <v>1</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F98" s="30"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="23">
-        <v>122</v>
-      </c>
-      <c r="B99" s="23">
-        <v>1</v>
-      </c>
-      <c r="C99" s="23" t="s">
+      <c r="F99" s="29"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="22">
+        <v>125</v>
+      </c>
+      <c r="B100" s="22">
+        <v>1</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F100" s="29"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="29"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="22">
+        <v>128</v>
+      </c>
+      <c r="B103" s="22">
+        <v>1</v>
+      </c>
+      <c r="C103" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D99" s="23" t="s">
+      <c r="D103" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E99" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F99" s="30"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="23">
-        <v>125</v>
-      </c>
-      <c r="B100" s="23">
-        <v>1</v>
-      </c>
-      <c r="C100" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F100" s="30"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="12"/>
-      <c r="F102" s="30"/>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="23">
-        <v>128</v>
-      </c>
-      <c r="B103" s="23">
-        <v>1</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D103" s="23" t="s">
-        <v>27</v>
-      </c>
       <c r="E103" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F103" s="30"/>
+        <v>121</v>
+      </c>
+      <c r="F103" s="29"/>
     </row>
     <row r="104" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -2913,7 +2907,7 @@
         <v>29</v>
       </c>
       <c r="E104" s="8"/>
-      <c r="F104" s="30"/>
+      <c r="F104" s="29"/>
     </row>
     <row r="105" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -2929,121 +2923,121 @@
         <v>9</v>
       </c>
       <c r="E105" s="8"/>
-      <c r="F105" s="30"/>
+      <c r="F105" s="29"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B106" s="23">
-        <v>1</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D106" s="24" t="s">
+      <c r="A106" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="22">
+        <v>1</v>
+      </c>
+      <c r="C106" s="25" t="s">
         <v>163</v>
       </c>
+      <c r="D106" s="23" t="s">
+        <v>162</v>
+      </c>
       <c r="E106" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F106" s="29"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107" s="22">
+        <v>1</v>
+      </c>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F107" s="29"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" s="22">
+        <v>1</v>
+      </c>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F106" s="30"/>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B107" s="23">
-        <v>1</v>
-      </c>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F107" s="30"/>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B108" s="23">
-        <v>1</v>
-      </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24" t="s">
-        <v>145</v>
-      </c>
       <c r="E108" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F108" s="30"/>
+        <v>120</v>
+      </c>
+      <c r="F108" s="29"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="23">
+      <c r="A109" s="22">
         <v>132</v>
       </c>
-      <c r="B109" s="23">
-        <v>1</v>
-      </c>
-      <c r="C109" s="23" t="s">
+      <c r="B109" s="22">
+        <v>1</v>
+      </c>
+      <c r="C109" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D109" s="23" t="s">
+      <c r="D109" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F109" s="30"/>
+        <v>122</v>
+      </c>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="33" t="s">
+      <c r="A110" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B110" s="34"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="35"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="34"/>
       <c r="E110" s="11"/>
-      <c r="F110" s="30" t="s">
-        <v>176</v>
+      <c r="F110" s="29" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="22" t="s">
+      <c r="A111" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D111" s="22" t="s">
+      <c r="D111" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E111" s="12"/>
-      <c r="F111" s="30"/>
+      <c r="F111" s="29"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="23">
+      <c r="A112" s="22">
         <v>135</v>
       </c>
-      <c r="B112" s="23">
-        <v>1</v>
-      </c>
-      <c r="C112" s="23" t="s">
+      <c r="B112" s="22">
+        <v>1</v>
+      </c>
+      <c r="C112" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="23" t="s">
+      <c r="D112" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F112" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="F112" s="29"/>
     </row>
     <row r="113" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -3059,7 +3053,7 @@
         <v>29</v>
       </c>
       <c r="E113" s="4"/>
-      <c r="F113" s="30"/>
+      <c r="F113" s="29"/>
     </row>
     <row r="114" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -3075,95 +3069,95 @@
         <v>9</v>
       </c>
       <c r="E114" s="4"/>
-      <c r="F114" s="30"/>
+      <c r="F114" s="29"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="33" t="s">
+      <c r="A115" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B115" s="34"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="35"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="34"/>
       <c r="E115" s="11"/>
-      <c r="F115" s="30"/>
+      <c r="F115" s="29"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="22" t="s">
+      <c r="A116" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="22" t="s">
+      <c r="D116" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E116" s="12"/>
-      <c r="F116" s="30"/>
+      <c r="F116" s="29"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="23">
+      <c r="A117" s="22">
         <v>143</v>
       </c>
-      <c r="B117" s="23">
-        <v>1</v>
-      </c>
-      <c r="C117" s="23" t="s">
+      <c r="B117" s="22">
+        <v>1</v>
+      </c>
+      <c r="C117" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D117" s="23" t="s">
+      <c r="D117" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F117" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="F117" s="29"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="35"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="34"/>
       <c r="E118" s="11"/>
-      <c r="F118" s="30"/>
+      <c r="F118" s="29"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" s="22" t="s">
+      <c r="A119" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D119" s="22" t="s">
+      <c r="D119" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E119" s="12"/>
-      <c r="F119" s="30"/>
+      <c r="F119" s="29"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="23">
+      <c r="A120" s="22">
         <v>151</v>
       </c>
-      <c r="B120" s="23">
-        <v>1</v>
-      </c>
-      <c r="C120" s="23" t="s">
+      <c r="B120" s="22">
+        <v>1</v>
+      </c>
+      <c r="C120" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D120" s="23" t="s">
+      <c r="D120" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F120" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="F120" s="29"/>
     </row>
     <row r="121" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -3179,7 +3173,7 @@
         <v>29</v>
       </c>
       <c r="E121" s="6"/>
-      <c r="F121" s="30"/>
+      <c r="F121" s="29"/>
     </row>
     <row r="122" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -3195,51 +3189,51 @@
         <v>9</v>
       </c>
       <c r="E122" s="6"/>
-      <c r="F122" s="30"/>
+      <c r="F122" s="29"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="33" t="s">
+      <c r="A123" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B123" s="34"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="35"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="34"/>
       <c r="E123" s="11"/>
-      <c r="F123" s="30"/>
+      <c r="F123" s="29"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" s="22" t="s">
+      <c r="A124" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="22" t="s">
+      <c r="D124" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E124" s="12"/>
-      <c r="F124" s="30"/>
+      <c r="F124" s="29"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="23">
+      <c r="A125" s="22">
         <v>159</v>
       </c>
-      <c r="B125" s="23">
-        <v>1</v>
-      </c>
-      <c r="C125" s="23" t="s">
+      <c r="B125" s="22">
+        <v>1</v>
+      </c>
+      <c r="C125" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="D125" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F125" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="F125" s="29"/>
     </row>
     <row r="126" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -3272,158 +3266,158 @@
       <c r="E127" s="6"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="33" t="s">
+      <c r="A128" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B128" s="34"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="35"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="34"/>
       <c r="E128" s="11"/>
-      <c r="F128" s="30" t="s">
-        <v>175</v>
+      <c r="F128" s="29" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C129" s="22" t="s">
+      <c r="A129" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="D129" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E129" s="12"/>
-      <c r="F129" s="30"/>
+      <c r="F129" s="29"/>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="23">
+      <c r="A130" s="22">
         <v>165</v>
       </c>
-      <c r="B130" s="23">
-        <v>1</v>
-      </c>
-      <c r="C130" s="23" t="s">
+      <c r="B130" s="22">
+        <v>1</v>
+      </c>
+      <c r="C130" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D130" s="23" t="s">
+      <c r="D130" s="22" t="s">
         <v>91</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F130" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="F130" s="29"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="23">
+      <c r="A131" s="22">
         <v>168</v>
       </c>
-      <c r="B131" s="23">
-        <v>1</v>
-      </c>
-      <c r="C131" s="23" t="s">
+      <c r="B131" s="22">
+        <v>1</v>
+      </c>
+      <c r="C131" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D131" s="23" t="s">
+      <c r="D131" s="22" t="s">
         <v>92</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F131" s="30"/>
+        <v>123</v>
+      </c>
+      <c r="F131" s="29"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="23">
+      <c r="A132" s="22">
         <v>169</v>
       </c>
-      <c r="B132" s="23">
-        <v>1</v>
-      </c>
-      <c r="C132" s="23" t="s">
+      <c r="B132" s="22">
+        <v>1</v>
+      </c>
+      <c r="C132" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D132" s="23" t="s">
+      <c r="D132" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="F132" s="30"/>
+        <v>185</v>
+      </c>
+      <c r="F132" s="29"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="23">
+      <c r="A133" s="22">
         <v>170</v>
       </c>
-      <c r="B133" s="23">
-        <v>1</v>
-      </c>
-      <c r="C133" s="23" t="s">
+      <c r="B133" s="22">
+        <v>1</v>
+      </c>
+      <c r="C133" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D133" s="23" t="s">
+      <c r="D133" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E133" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F133" s="29"/>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="22">
+        <v>171</v>
+      </c>
+      <c r="B134" s="22">
+        <v>1</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F134" s="29"/>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="22">
+        <v>174</v>
+      </c>
+      <c r="B135" s="22">
+        <v>1</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F135" s="29"/>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="22">
+        <v>177</v>
+      </c>
+      <c r="B136" s="22">
+        <v>1</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F133" s="30"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="23">
-        <v>171</v>
-      </c>
-      <c r="B134" s="23">
-        <v>1</v>
-      </c>
-      <c r="C134" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D134" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F134" s="30"/>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="23">
-        <v>174</v>
-      </c>
-      <c r="B135" s="23">
-        <v>1</v>
-      </c>
-      <c r="C135" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D135" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F135" s="30"/>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="23">
-        <v>177</v>
-      </c>
-      <c r="B136" s="23">
-        <v>1</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F136" s="30"/>
+      <c r="F136" s="29"/>
     </row>
     <row r="137" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -3456,32 +3450,32 @@
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="33" t="s">
+      <c r="A139" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B139" s="34"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="35"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="34"/>
       <c r="E139" s="11"/>
-      <c r="F139" s="30" t="s">
-        <v>176</v>
+      <c r="F139" s="29" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140" s="22" t="s">
+      <c r="A140" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D140" s="22" t="s">
+      <c r="D140" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E140" s="12"/>
-      <c r="F140" s="30"/>
+      <c r="F140" s="29"/>
     </row>
     <row r="141" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -3497,7 +3491,7 @@
         <v>5</v>
       </c>
       <c r="E141" s="6"/>
-      <c r="F141" s="30"/>
+      <c r="F141" s="29"/>
     </row>
     <row r="142" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
@@ -3513,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="E142" s="6"/>
-      <c r="F142" s="30"/>
+      <c r="F142" s="29"/>
     </row>
     <row r="143" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -3529,7 +3523,7 @@
         <v>14</v>
       </c>
       <c r="E143" s="6"/>
-      <c r="F143" s="30"/>
+      <c r="F143" s="29"/>
     </row>
     <row r="144" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -3545,25 +3539,25 @@
         <v>29</v>
       </c>
       <c r="E144" s="6"/>
-      <c r="F144" s="30"/>
+      <c r="F144" s="29"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="23">
+      <c r="A145" s="22">
         <v>186</v>
       </c>
-      <c r="B145" s="23">
-        <v>1</v>
-      </c>
-      <c r="C145" s="23" t="s">
+      <c r="B145" s="22">
+        <v>1</v>
+      </c>
+      <c r="C145" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D145" s="23" t="s">
+      <c r="D145" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F145" s="30"/>
+        <v>121</v>
+      </c>
+      <c r="F145" s="29"/>
     </row>
     <row r="146" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
@@ -3579,85 +3573,85 @@
         <v>9</v>
       </c>
       <c r="E146" s="6"/>
-      <c r="F146" s="30"/>
+      <c r="F146" s="29"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B147" s="23">
-        <v>1</v>
-      </c>
-      <c r="C147" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D147" s="24" t="s">
-        <v>135</v>
+      <c r="A147" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B147" s="22">
+        <v>1</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="E147" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F147" s="29"/>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B148" s="22">
+        <v>1</v>
+      </c>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F147" s="30"/>
-    </row>
-    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B148" s="23">
-        <v>1</v>
-      </c>
-      <c r="C148" s="24"/>
-      <c r="D148" s="24" t="s">
-        <v>145</v>
-      </c>
       <c r="E148" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F148" s="29"/>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="29"/>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" s="12"/>
+      <c r="F150" s="29"/>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="22">
+        <v>192</v>
+      </c>
+      <c r="B151" s="22">
+        <v>1</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E151" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F148" s="30"/>
-    </row>
-    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B149" s="34"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="11"/>
-      <c r="F149" s="30"/>
-    </row>
-    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C150" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E150" s="12"/>
-      <c r="F150" s="30"/>
-    </row>
-    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="23">
-        <v>192</v>
-      </c>
-      <c r="B151" s="23">
-        <v>1</v>
-      </c>
-      <c r="C151" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D151" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F151" s="30"/>
+      <c r="F151" s="29"/>
     </row>
     <row r="152" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -3673,7 +3667,7 @@
         <v>29</v>
       </c>
       <c r="E152" s="4"/>
-      <c r="F152" s="30"/>
+      <c r="F152" s="29"/>
     </row>
     <row r="153" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -3689,85 +3683,85 @@
         <v>9</v>
       </c>
       <c r="E153" s="4"/>
-      <c r="F153" s="30"/>
+      <c r="F153" s="29"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B154" s="23">
-        <v>1</v>
-      </c>
-      <c r="C154" s="27" t="s">
+      <c r="A154" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B154" s="22">
+        <v>1</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E154" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D154" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F154" s="30"/>
+      <c r="F154" s="29"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B155" s="23">
-        <v>1</v>
-      </c>
-      <c r="C155" s="24"/>
-      <c r="D155" s="24" t="s">
-        <v>168</v>
+      <c r="A155" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B155" s="22">
+        <v>1</v>
+      </c>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F155" s="30"/>
+        <v>186</v>
+      </c>
+      <c r="F155" s="29"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B156" s="23">
-        <v>1</v>
-      </c>
-      <c r="C156" s="24"/>
-      <c r="D156" s="24" t="s">
-        <v>145</v>
+      <c r="A156" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B156" s="22">
+        <v>1</v>
+      </c>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F156" s="30"/>
+        <v>120</v>
+      </c>
+      <c r="F156" s="29"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="33" t="s">
+      <c r="A157" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B157" s="34"/>
-      <c r="C157" s="34"/>
-      <c r="D157" s="35"/>
+      <c r="B157" s="33"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="34"/>
       <c r="E157" s="11"/>
-      <c r="F157" s="30" t="s">
-        <v>175</v>
+      <c r="F157" s="29" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C158" s="22" t="s">
+      <c r="A158" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D158" s="22" t="s">
+      <c r="D158" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E158" s="12"/>
-      <c r="F158" s="30"/>
+      <c r="F158" s="29"/>
     </row>
     <row r="159" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -3785,7 +3779,7 @@
       <c r="E159" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F159" s="30"/>
+      <c r="F159" s="29"/>
     </row>
     <row r="160" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -3801,7 +3795,7 @@
         <v>29</v>
       </c>
       <c r="E160" s="4"/>
-      <c r="F160" s="30"/>
+      <c r="F160" s="29"/>
     </row>
     <row r="161" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
@@ -3817,106 +3811,106 @@
         <v>9</v>
       </c>
       <c r="E161" s="4"/>
-      <c r="F161" s="30"/>
+      <c r="F161" s="29"/>
     </row>
     <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="23">
+      <c r="A162" s="22">
         <v>200</v>
       </c>
-      <c r="B162" s="23">
-        <v>1</v>
-      </c>
-      <c r="C162" s="23" t="s">
+      <c r="B162" s="22">
+        <v>1</v>
+      </c>
+      <c r="C162" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D162" s="23" t="s">
+      <c r="D162" s="22" t="s">
         <v>67</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F162" s="30"/>
+        <v>127</v>
+      </c>
+      <c r="F162" s="29"/>
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="23">
+      <c r="A163" s="22">
         <v>202</v>
       </c>
-      <c r="B163" s="23">
-        <v>1</v>
-      </c>
-      <c r="C163" s="23" t="s">
+      <c r="B163" s="22">
+        <v>1</v>
+      </c>
+      <c r="C163" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D163" s="23" t="s">
+      <c r="D163" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E163" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F163" s="29"/>
+    </row>
+    <row r="164" spans="1:7" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="24">
+        <v>206</v>
+      </c>
+      <c r="B164" s="24">
+        <v>1</v>
+      </c>
+      <c r="C164" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E164" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F164" s="29"/>
+      <c r="G164" s="18"/>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B165" s="22">
+        <v>2</v>
+      </c>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F163" s="30"/>
-    </row>
-    <row r="164" spans="1:7" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="28">
-        <v>206</v>
-      </c>
-      <c r="B164" s="28">
-        <v>1</v>
-      </c>
-      <c r="C164" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D164" s="28" t="s">
+      <c r="E165" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F165" s="29"/>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="E164" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F164" s="30"/>
-      <c r="G164" s="19"/>
-    </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B165" s="23">
+      <c r="B166" s="33"/>
+      <c r="C166" s="33"/>
+      <c r="D166" s="34"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C165" s="24"/>
-      <c r="D165" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E165" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F165" s="30"/>
-    </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B166" s="34"/>
-      <c r="C166" s="34"/>
-      <c r="D166" s="35"/>
-      <c r="E166" s="11"/>
-      <c r="F166" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C167" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D167" s="22" t="s">
+      <c r="D167" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E167" s="12"/>
-      <c r="F167" s="30"/>
+      <c r="F167" s="29"/>
     </row>
     <row r="168" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
@@ -3932,9 +3926,9 @@
         <v>29</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F168" s="30"/>
+        <v>98</v>
+      </c>
+      <c r="F168" s="29"/>
     </row>
     <row r="169" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
@@ -3950,51 +3944,51 @@
         <v>9</v>
       </c>
       <c r="E169" s="8"/>
-      <c r="F169" s="30"/>
+      <c r="F169" s="29"/>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="23">
+      <c r="A170" s="22">
         <v>210</v>
       </c>
-      <c r="B170" s="23">
-        <v>1</v>
-      </c>
-      <c r="C170" s="23" t="s">
+      <c r="B170" s="22">
+        <v>1</v>
+      </c>
+      <c r="C170" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D170" s="23" t="s">
+      <c r="D170" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F170" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="F170" s="29"/>
     </row>
     <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B171" s="34"/>
-      <c r="C171" s="34"/>
-      <c r="D171" s="35"/>
+      <c r="A171" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B171" s="33"/>
+      <c r="C171" s="33"/>
+      <c r="D171" s="34"/>
       <c r="E171" s="11"/>
-      <c r="F171" s="30"/>
+      <c r="F171" s="29"/>
     </row>
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B172" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C172" s="22" t="s">
+      <c r="A172" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D172" s="22" t="s">
+      <c r="D172" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E172" s="12"/>
-      <c r="F172" s="30"/>
+      <c r="F172" s="29"/>
     </row>
     <row r="173" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
@@ -4010,9 +4004,9 @@
         <v>29</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F173" s="30"/>
+        <v>98</v>
+      </c>
+      <c r="F173" s="29"/>
     </row>
     <row r="174" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
@@ -4028,51 +4022,51 @@
         <v>9</v>
       </c>
       <c r="E174" s="6"/>
-      <c r="F174" s="30"/>
+      <c r="F174" s="29"/>
     </row>
     <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="23">
+      <c r="A175" s="22">
         <v>218</v>
       </c>
-      <c r="B175" s="23">
-        <v>1</v>
-      </c>
-      <c r="C175" s="23" t="s">
+      <c r="B175" s="22">
+        <v>1</v>
+      </c>
+      <c r="C175" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="23" t="s">
+      <c r="D175" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F175" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="F175" s="29"/>
     </row>
     <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B176" s="34"/>
-      <c r="C176" s="34"/>
-      <c r="D176" s="35"/>
+      <c r="A176" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B176" s="33"/>
+      <c r="C176" s="33"/>
+      <c r="D176" s="34"/>
       <c r="E176" s="11"/>
-      <c r="F176" s="30"/>
+      <c r="F176" s="29"/>
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C177" s="22" t="s">
+      <c r="A177" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D177" s="22" t="s">
+      <c r="D177" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E177" s="12"/>
-      <c r="F177" s="30"/>
+      <c r="F177" s="29"/>
     </row>
     <row r="178" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
@@ -4088,9 +4082,9 @@
         <v>29</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F178" s="30"/>
+        <v>98</v>
+      </c>
+      <c r="F178" s="29"/>
     </row>
     <row r="179" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
@@ -4106,25 +4100,25 @@
         <v>9</v>
       </c>
       <c r="E179" s="6"/>
-      <c r="F179" s="30"/>
+      <c r="F179" s="29"/>
     </row>
     <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="23">
+      <c r="A180" s="22">
         <v>225</v>
       </c>
-      <c r="B180" s="23">
-        <v>1</v>
-      </c>
-      <c r="C180" s="23" t="s">
+      <c r="B180" s="22">
+        <v>1</v>
+      </c>
+      <c r="C180" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="23" t="s">
+      <c r="D180" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F180" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="F180" s="29"/>
     </row>
     <row r="181" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
@@ -4140,7 +4134,7 @@
         <v>29</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="182" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4187,7 +4181,7 @@
         <v>29</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="185" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4234,7 +4228,7 @@
         <v>29</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="188" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4268,50 +4262,50 @@
       <c r="E189" s="6"/>
     </row>
     <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B190" s="34"/>
-      <c r="C190" s="34"/>
-      <c r="D190" s="35"/>
+      <c r="A190" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B190" s="33"/>
+      <c r="C190" s="33"/>
+      <c r="D190" s="34"/>
       <c r="E190" s="11"/>
-      <c r="F190" s="30" t="s">
-        <v>177</v>
+      <c r="F190" s="29" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C191" s="22" t="s">
+      <c r="A191" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D191" s="22" t="s">
+      <c r="D191" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E191" s="12"/>
-      <c r="F191" s="30"/>
+      <c r="F191" s="29"/>
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="23">
+      <c r="A192" s="22">
         <v>250</v>
       </c>
-      <c r="B192" s="23">
-        <v>1</v>
-      </c>
-      <c r="C192" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D192" s="23" t="s">
+      <c r="B192" s="22">
+        <v>1</v>
+      </c>
+      <c r="C192" s="22" t="s">
         <v>165</v>
       </c>
+      <c r="D192" s="22" t="s">
+        <v>164</v>
+      </c>
       <c r="E192" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F192" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="F192" s="29"/>
     </row>
     <row r="193" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
@@ -4321,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="C193" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D193" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="E193" s="8"/>
-      <c r="F193" s="30"/>
+      <c r="F193" s="29"/>
     </row>
     <row r="194" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
@@ -4337,194 +4331,194 @@
         <v>0</v>
       </c>
       <c r="C194" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="E194" s="8"/>
+      <c r="F194" s="29"/>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="22">
+        <v>253</v>
+      </c>
+      <c r="B195" s="22">
+        <v>1</v>
+      </c>
+      <c r="C195" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E194" s="8"/>
-      <c r="F194" s="30"/>
-    </row>
-    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="23">
-        <v>253</v>
-      </c>
-      <c r="B195" s="23">
-        <v>1</v>
-      </c>
-      <c r="C195" s="23" t="s">
+      <c r="D195" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D195" s="23" t="s">
+      <c r="E195" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F195" s="29"/>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="22">
+        <v>254</v>
+      </c>
+      <c r="B196" s="22">
+        <v>1</v>
+      </c>
+      <c r="C196" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D196" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E196" s="10"/>
+      <c r="F196" s="29"/>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E195" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F195" s="30"/>
-    </row>
-    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="23">
-        <v>254</v>
-      </c>
-      <c r="B196" s="23">
-        <v>1</v>
-      </c>
-      <c r="C196" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D196" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E196" s="10"/>
-      <c r="F196" s="30"/>
-    </row>
-    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="33" t="s">
+      <c r="B197" s="33"/>
+      <c r="C197" s="33"/>
+      <c r="D197" s="34"/>
+      <c r="E197" s="11"/>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E198" s="12"/>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="22">
+        <v>255</v>
+      </c>
+      <c r="B199" s="22">
+        <v>1</v>
+      </c>
+      <c r="C199" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B197" s="34"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="35"/>
-      <c r="E197" s="11"/>
-    </row>
-    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B198" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C198" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D198" s="22" t="s">
+      <c r="D199" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E199" s="10"/>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="22">
+        <v>256</v>
+      </c>
+      <c r="B200" s="22">
         <v>3</v>
       </c>
-      <c r="E198" s="12"/>
-    </row>
-    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="23">
-        <v>255</v>
-      </c>
-      <c r="B199" s="23">
-        <v>1</v>
-      </c>
-      <c r="C199" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D199" s="23" t="s">
+      <c r="C200" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E199" s="10"/>
-    </row>
-    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="23">
-        <v>256</v>
-      </c>
-      <c r="B200" s="23">
+      <c r="D200" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E200" s="10"/>
+    </row>
+    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B201" s="22">
+        <v>1</v>
+      </c>
+      <c r="C201" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D201" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E201" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="22">
+        <v>59</v>
+      </c>
+      <c r="B202" s="22">
+        <v>1</v>
+      </c>
+      <c r="C202" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E202" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="22">
+        <v>60</v>
+      </c>
+      <c r="B203" s="22">
         <v>3</v>
       </c>
-      <c r="C200" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D200" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E200" s="10"/>
-    </row>
-    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B201" s="23">
-        <v>1</v>
-      </c>
-      <c r="C201" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D201" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E201" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F201" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="23">
+      <c r="C203" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D203" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F203" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="22">
+        <v>61</v>
+      </c>
+      <c r="B204" s="22">
+        <v>1</v>
+      </c>
+      <c r="C204" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B202" s="23">
-        <v>1</v>
-      </c>
-      <c r="C202" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D202" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E202" s="10" t="s">
+      <c r="D204" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E204" s="10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="23">
-        <v>60</v>
-      </c>
-      <c r="B203" s="23">
-        <v>3</v>
-      </c>
-      <c r="C203" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D203" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E203" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F203" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="23">
+      <c r="F204" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="22">
+        <v>62</v>
+      </c>
+      <c r="B205" s="22">
+        <v>1</v>
+      </c>
+      <c r="C205" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B204" s="23">
-        <v>1</v>
-      </c>
-      <c r="C204" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D204" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E204" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F204" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="23">
+      <c r="D205" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B205" s="23">
-        <v>1</v>
-      </c>
-      <c r="C205" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D205" s="23" t="s">
-        <v>62</v>
-      </c>
       <c r="E205" s="10"/>
-      <c r="F205" s="30"/>
+      <c r="F205" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:E200">

--- a/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
+++ b/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
@@ -175,9 +175,6 @@
     <t>Wzmacniacz Crestron 2x210W, 100V</t>
   </si>
   <si>
-    <t>00.14-00.15 - Kantyna</t>
-  </si>
-  <si>
     <t>Ekran elektryczny naścienny. Szerokość 374x210cm + top 50cm</t>
   </si>
   <si>
@@ -632,6 +629,9 @@
   </si>
   <si>
     <t>Klawiatura 2P (KP-09)</t>
+  </si>
+  <si>
+    <t>00.14-00.15 - Agora i Kantyna</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,13 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -896,13 +902,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1217,8 +1217,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J163" sqref="J163"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1236,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1247,15 +1247,15 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="32" t="s">
         <v>169</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="30" t="s">
-        <v>170</v>
       </c>
       <c r="G3" s="17"/>
     </row>
@@ -1273,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="31"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
@@ -1289,20 +1289,20 @@
         <v>5</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="31"/>
+        <v>190</v>
+      </c>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="29" t="s">
-        <v>171</v>
+      <c r="F6" s="34" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="29"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
@@ -1335,9 +1335,9 @@
         <v>13</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="29"/>
+        <v>189</v>
+      </c>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
@@ -1353,9 +1353,9 @@
         <v>16</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="29"/>
+        <v>116</v>
+      </c>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
@@ -1371,9 +1371,9 @@
         <v>17</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F10" s="29"/>
+        <v>178</v>
+      </c>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -1389,9 +1389,9 @@
         <v>19</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11" s="29"/>
+        <v>191</v>
+      </c>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
@@ -1407,9 +1407,9 @@
         <v>21</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="29"/>
+        <v>192</v>
+      </c>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
@@ -1425,9 +1425,9 @@
         <v>23</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="F13" s="29"/>
+        <v>188</v>
+      </c>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
@@ -1443,9 +1443,9 @@
         <v>25</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F14" s="29"/>
+        <v>194</v>
+      </c>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
@@ -1461,9 +1461,9 @@
         <v>27</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="29"/>
+        <v>120</v>
+      </c>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1477,7 +1477,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1493,7 +1493,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="29"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1509,7 +1509,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="29"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
@@ -1525,9 +1525,9 @@
         <v>36</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
@@ -1543,9 +1543,9 @@
         <v>38</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="29"/>
+        <v>186</v>
+      </c>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
@@ -1561,19 +1561,19 @@
         <v>40</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="29"/>
+        <v>122</v>
+      </c>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="29"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
@@ -1589,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="29"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1607,7 +1607,7 @@
       <c r="E24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1623,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="29"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
@@ -1639,9 +1639,9 @@
         <v>44</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F26" s="29"/>
+        <v>200</v>
+      </c>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
@@ -1657,9 +1657,9 @@
         <v>25</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="29"/>
+        <v>199</v>
+      </c>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1675,7 +1675,7 @@
         <v>46</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
@@ -1691,9 +1691,9 @@
         <v>16</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="29"/>
+        <v>116</v>
+      </c>
+      <c r="F29" s="34"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -1709,9 +1709,9 @@
         <v>19</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F30" s="29"/>
+        <v>195</v>
+      </c>
+      <c r="F30" s="34"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
@@ -1727,9 +1727,9 @@
         <v>21</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F31" s="29"/>
+        <v>196</v>
+      </c>
+      <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
@@ -1745,9 +1745,9 @@
         <v>23</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F32" s="29"/>
+        <v>197</v>
+      </c>
+      <c r="F32" s="34"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
@@ -1763,9 +1763,9 @@
         <v>48</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F33" s="29"/>
+        <v>198</v>
+      </c>
+      <c r="F33" s="34"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
@@ -1779,9 +1779,9 @@
         <v>49</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="F34" s="29"/>
+        <v>179</v>
+      </c>
+      <c r="F34" s="34"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
@@ -1797,9 +1797,9 @@
         <v>27</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="29"/>
+        <v>120</v>
+      </c>
+      <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
@@ -1815,19 +1815,19 @@
         <v>51</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" s="29"/>
+        <v>122</v>
+      </c>
+      <c r="F36" s="34"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
+      <c r="A37" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="29"/>
+      <c r="F37" s="34"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
@@ -1843,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="29"/>
+      <c r="F38" s="34"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
@@ -1856,12 +1856,12 @@
         <v>24</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="29"/>
+        <v>134</v>
+      </c>
+      <c r="F39" s="34"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
@@ -1869,15 +1869,15 @@
         <v>1</v>
       </c>
       <c r="C40" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>157</v>
-      </c>
       <c r="E40" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" s="29"/>
+        <v>134</v>
+      </c>
+      <c r="F40" s="34"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
@@ -1885,31 +1885,31 @@
         <v>4</v>
       </c>
       <c r="C41" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D41" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F41" s="29"/>
+      <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="22">
         <v>1</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" s="29"/>
+        <v>135</v>
+      </c>
+      <c r="F42" s="34"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
@@ -1922,12 +1922,12 @@
         <v>10</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F43" s="29"/>
+        <v>180</v>
+      </c>
+      <c r="F43" s="34"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
@@ -1937,15 +1937,15 @@
         <v>1</v>
       </c>
       <c r="C44" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="E44" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" s="29"/>
+      <c r="F44" s="34"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
@@ -1955,15 +1955,15 @@
         <v>1</v>
       </c>
       <c r="C45" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="22" t="s">
-        <v>55</v>
-      </c>
       <c r="E45" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="29"/>
+        <v>122</v>
+      </c>
+      <c r="F45" s="34"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
@@ -1979,9 +1979,9 @@
         <v>38</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F46" s="29"/>
+        <v>187</v>
+      </c>
+      <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
@@ -1997,9 +1997,9 @@
         <v>16</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F47" s="29"/>
+        <v>153</v>
+      </c>
+      <c r="F47" s="34"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
@@ -2009,15 +2009,15 @@
         <v>1</v>
       </c>
       <c r="C48" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="E48" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F48" s="29"/>
+        <v>154</v>
+      </c>
+      <c r="F48" s="34"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
@@ -2033,19 +2033,19 @@
         <v>27</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" s="29"/>
+        <v>120</v>
+      </c>
+      <c r="F49" s="34"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="34"/>
+      <c r="A50" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="29"/>
+      <c r="F50" s="34"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
@@ -2061,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="12"/>
-      <c r="F51" s="29"/>
+      <c r="F51" s="34"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -2075,7 +2075,7 @@
         <v>51</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="29"/>
+      <c r="F52" s="34"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
@@ -2089,20 +2089,20 @@
         <v>23</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="29"/>
+        <v>121</v>
+      </c>
+      <c r="F53" s="34"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="34"/>
+      <c r="A54" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="29" t="s">
-        <v>170</v>
+      <c r="F54" s="34" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2119,7 +2119,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="12"/>
-      <c r="F55" s="29"/>
+      <c r="F55" s="34"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
@@ -2135,59 +2135,59 @@
         <v>23</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F56" s="29"/>
+        <v>121</v>
+      </c>
+      <c r="F56" s="34"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B57" s="22">
         <v>1</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="29"/>
+        <v>142</v>
+      </c>
+      <c r="F57" s="34"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" s="22">
         <v>1</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F58" s="29"/>
+        <v>181</v>
+      </c>
+      <c r="F58" s="34"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" s="22">
         <v>2</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F59" s="29"/>
+        <v>144</v>
+      </c>
+      <c r="F59" s="34"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
@@ -2197,15 +2197,15 @@
         <v>1</v>
       </c>
       <c r="C60" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="22" t="s">
-        <v>67</v>
-      </c>
       <c r="E60" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F60" s="29"/>
+        <v>126</v>
+      </c>
+      <c r="F60" s="34"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
@@ -2221,9 +2221,9 @@
         <v>27</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F61" s="29"/>
+        <v>120</v>
+      </c>
+      <c r="F61" s="34"/>
     </row>
     <row r="62" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -2239,7 +2239,7 @@
         <v>29</v>
       </c>
       <c r="E62" s="6"/>
-      <c r="F62" s="29"/>
+      <c r="F62" s="34"/>
     </row>
     <row r="63" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -2255,17 +2255,17 @@
         <v>9</v>
       </c>
       <c r="E63" s="6"/>
-      <c r="F63" s="29"/>
+      <c r="F63" s="34"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="34"/>
+      <c r="A64" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="31"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="29"/>
+      <c r="F64" s="34"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
@@ -2281,7 +2281,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="12"/>
-      <c r="F65" s="29"/>
+      <c r="F65" s="34"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
@@ -2291,47 +2291,47 @@
         <v>1</v>
       </c>
       <c r="C66" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="22" t="s">
-        <v>70</v>
-      </c>
       <c r="E66" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F66" s="29"/>
+        <v>127</v>
+      </c>
+      <c r="F66" s="34"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" s="22">
         <v>2</v>
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F67" s="29"/>
+        <v>139</v>
+      </c>
+      <c r="F67" s="34"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B68" s="22">
         <v>1</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F68" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="F68" s="34"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
@@ -2347,9 +2347,9 @@
         <v>21</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F69" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="F69" s="34"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
@@ -2365,9 +2365,9 @@
         <v>23</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F70" s="29"/>
+        <v>121</v>
+      </c>
+      <c r="F70" s="34"/>
     </row>
     <row r="71" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -2383,7 +2383,7 @@
         <v>27</v>
       </c>
       <c r="E71" s="4"/>
-      <c r="F71" s="29"/>
+      <c r="F71" s="34"/>
     </row>
     <row r="72" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -2399,7 +2399,7 @@
         <v>29</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="29"/>
+      <c r="F72" s="34"/>
     </row>
     <row r="73" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -2415,17 +2415,17 @@
         <v>9</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="29"/>
+      <c r="F73" s="34"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="34"/>
+      <c r="A74" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="31"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="29"/>
+      <c r="F74" s="34"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
@@ -2441,7 +2441,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="12"/>
-      <c r="F75" s="29"/>
+      <c r="F75" s="34"/>
     </row>
     <row r="76" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -2451,15 +2451,15 @@
         <v>0</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E76" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F76" s="29"/>
+      <c r="F76" s="34"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
@@ -2475,9 +2475,9 @@
         <v>44</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F77" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="F77" s="34"/>
     </row>
     <row r="78" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -2493,7 +2493,7 @@
         <v>29</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="29"/>
+      <c r="F78" s="34"/>
     </row>
     <row r="79" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -2509,17 +2509,17 @@
         <v>9</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="29"/>
+      <c r="F79" s="34"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="34"/>
+      <c r="A80" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="31"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="29"/>
+      <c r="F80" s="34"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
@@ -2535,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="12"/>
-      <c r="F81" s="29"/>
+      <c r="F81" s="34"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
@@ -2551,36 +2551,36 @@
         <v>27</v>
       </c>
       <c r="E82" s="10"/>
-      <c r="F82" s="29"/>
+      <c r="F82" s="34"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B83" s="22">
         <v>4</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F83" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="F83" s="34"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="34"/>
+      <c r="A84" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="31"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="29" t="s">
-        <v>172</v>
+      <c r="F84" s="34" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2597,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="E85" s="12"/>
-      <c r="F85" s="29"/>
+      <c r="F85" s="34"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
@@ -2613,19 +2613,19 @@
         <v>5</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F86" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="F86" s="34"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="34"/>
+      <c r="A87" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="31"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="29"/>
+      <c r="F87" s="34"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
@@ -2641,7 +2641,7 @@
         <v>3</v>
       </c>
       <c r="E88" s="12"/>
-      <c r="F88" s="29"/>
+      <c r="F88" s="34"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
@@ -2657,9 +2657,9 @@
         <v>5</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F89" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="F89" s="34"/>
     </row>
     <row r="90" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -2675,17 +2675,17 @@
         <v>29</v>
       </c>
       <c r="E90" s="7"/>
-      <c r="F90" s="29"/>
+      <c r="F90" s="34"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="34"/>
+      <c r="A91" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="31"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="29"/>
+      <c r="F91" s="34"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
@@ -2701,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="E92" s="12"/>
-      <c r="F92" s="29"/>
+      <c r="F92" s="34"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
@@ -2717,9 +2717,9 @@
         <v>23</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F93" s="29"/>
+        <v>121</v>
+      </c>
+      <c r="F93" s="34"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22">
@@ -2729,15 +2729,15 @@
         <v>1</v>
       </c>
       <c r="C94" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D94" s="22" t="s">
-        <v>80</v>
-      </c>
       <c r="E94" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F94" s="29"/>
+        <v>115</v>
+      </c>
+      <c r="F94" s="34"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
@@ -2747,15 +2747,15 @@
         <v>1</v>
       </c>
       <c r="C95" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D95" s="22" t="s">
-        <v>82</v>
-      </c>
       <c r="E95" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F95" s="29"/>
+        <v>122</v>
+      </c>
+      <c r="F95" s="34"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
@@ -2771,9 +2771,9 @@
         <v>21</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F96" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="F96" s="34"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
@@ -2789,9 +2789,9 @@
         <v>19</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F97" s="29"/>
+        <v>118</v>
+      </c>
+      <c r="F97" s="34"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
@@ -2804,12 +2804,12 @@
         <v>10</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F98" s="29"/>
+        <v>182</v>
+      </c>
+      <c r="F98" s="34"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
@@ -2825,9 +2825,9 @@
         <v>27</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F99" s="29"/>
+        <v>120</v>
+      </c>
+      <c r="F99" s="34"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
@@ -2837,26 +2837,26 @@
         <v>1</v>
       </c>
       <c r="C100" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D100" s="22" t="s">
-        <v>70</v>
-      </c>
       <c r="E100" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F100" s="29"/>
+        <v>127</v>
+      </c>
+      <c r="F100" s="34"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B101" s="33"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="34"/>
+      <c r="A101" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="31"/>
       <c r="E101" s="11"/>
-      <c r="F101" s="29" t="s">
-        <v>173</v>
+      <c r="F101" s="34" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2873,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="E102" s="12"/>
-      <c r="F102" s="29"/>
+      <c r="F102" s="34"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
@@ -2889,9 +2889,9 @@
         <v>27</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F103" s="29"/>
+        <v>120</v>
+      </c>
+      <c r="F103" s="34"/>
     </row>
     <row r="104" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -2907,7 +2907,7 @@
         <v>29</v>
       </c>
       <c r="E104" s="8"/>
-      <c r="F104" s="29"/>
+      <c r="F104" s="34"/>
     </row>
     <row r="105" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -2923,57 +2923,57 @@
         <v>9</v>
       </c>
       <c r="E105" s="8"/>
-      <c r="F105" s="29"/>
+      <c r="F105" s="34"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B106" s="22">
         <v>1</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F106" s="29"/>
+        <v>142</v>
+      </c>
+      <c r="F106" s="34"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" s="22">
         <v>1</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F107" s="29"/>
+        <v>183</v>
+      </c>
+      <c r="F107" s="34"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B108" s="22">
         <v>1</v>
       </c>
       <c r="C108" s="23"/>
       <c r="D108" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F108" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="F108" s="34"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22">
@@ -2989,20 +2989,20 @@
         <v>23</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F109" s="29"/>
+        <v>121</v>
+      </c>
+      <c r="F109" s="34"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B110" s="33"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="34"/>
+      <c r="A110" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="31"/>
       <c r="E110" s="11"/>
-      <c r="F110" s="29" t="s">
-        <v>174</v>
+      <c r="F110" s="34" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="E111" s="12"/>
-      <c r="F111" s="29"/>
+      <c r="F111" s="34"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
@@ -3035,9 +3035,9 @@
         <v>5</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F112" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="F112" s="34"/>
     </row>
     <row r="113" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -3053,7 +3053,7 @@
         <v>29</v>
       </c>
       <c r="E113" s="4"/>
-      <c r="F113" s="29"/>
+      <c r="F113" s="34"/>
     </row>
     <row r="114" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -3069,17 +3069,17 @@
         <v>9</v>
       </c>
       <c r="E114" s="4"/>
-      <c r="F114" s="29"/>
+      <c r="F114" s="34"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="34"/>
+      <c r="A115" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="31"/>
       <c r="E115" s="11"/>
-      <c r="F115" s="29"/>
+      <c r="F115" s="34"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
@@ -3095,7 +3095,7 @@
         <v>3</v>
       </c>
       <c r="E116" s="12"/>
-      <c r="F116" s="29"/>
+      <c r="F116" s="34"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22">
@@ -3111,19 +3111,19 @@
         <v>5</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F117" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="F117" s="34"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="34"/>
+      <c r="A118" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="31"/>
       <c r="E118" s="11"/>
-      <c r="F118" s="29"/>
+      <c r="F118" s="34"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
@@ -3139,7 +3139,7 @@
         <v>3</v>
       </c>
       <c r="E119" s="12"/>
-      <c r="F119" s="29"/>
+      <c r="F119" s="34"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
@@ -3155,9 +3155,9 @@
         <v>5</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F120" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="F120" s="34"/>
     </row>
     <row r="121" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -3173,7 +3173,7 @@
         <v>29</v>
       </c>
       <c r="E121" s="6"/>
-      <c r="F121" s="29"/>
+      <c r="F121" s="34"/>
     </row>
     <row r="122" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -3189,17 +3189,17 @@
         <v>9</v>
       </c>
       <c r="E122" s="6"/>
-      <c r="F122" s="29"/>
+      <c r="F122" s="34"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B123" s="33"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="34"/>
+      <c r="A123" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="31"/>
       <c r="E123" s="11"/>
-      <c r="F123" s="29"/>
+      <c r="F123" s="34"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="E124" s="12"/>
-      <c r="F124" s="29"/>
+      <c r="F124" s="34"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
@@ -3231,9 +3231,9 @@
         <v>5</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F125" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="F125" s="34"/>
     </row>
     <row r="126" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -3266,15 +3266,15 @@
       <c r="E127" s="6"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B128" s="33"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="34"/>
+      <c r="A128" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="31"/>
       <c r="E128" s="11"/>
-      <c r="F128" s="29" t="s">
-        <v>173</v>
+      <c r="F128" s="34" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3291,7 +3291,7 @@
         <v>3</v>
       </c>
       <c r="E129" s="12"/>
-      <c r="F129" s="29"/>
+      <c r="F129" s="34"/>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22">
@@ -3301,15 +3301,15 @@
         <v>1</v>
       </c>
       <c r="C130" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D130" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D130" s="22" t="s">
-        <v>91</v>
-      </c>
       <c r="E130" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F130" s="29"/>
+        <v>115</v>
+      </c>
+      <c r="F130" s="34"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22">
@@ -3319,15 +3319,15 @@
         <v>1</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F131" s="29"/>
+        <v>122</v>
+      </c>
+      <c r="F131" s="34"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22">
@@ -3340,12 +3340,12 @@
         <v>10</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F132" s="29"/>
+        <v>184</v>
+      </c>
+      <c r="F132" s="34"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="22">
@@ -3361,9 +3361,9 @@
         <v>21</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F133" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="F133" s="34"/>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="22">
@@ -3379,9 +3379,9 @@
         <v>19</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F134" s="29"/>
+        <v>118</v>
+      </c>
+      <c r="F134" s="34"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="22">
@@ -3391,15 +3391,15 @@
         <v>1</v>
       </c>
       <c r="C135" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D135" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D135" s="22" t="s">
-        <v>67</v>
-      </c>
       <c r="E135" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F135" s="29"/>
+        <v>126</v>
+      </c>
+      <c r="F135" s="34"/>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="22">
@@ -3415,9 +3415,9 @@
         <v>27</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F136" s="29"/>
+        <v>120</v>
+      </c>
+      <c r="F136" s="34"/>
     </row>
     <row r="137" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -3450,15 +3450,15 @@
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B139" s="33"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="34"/>
+      <c r="A139" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B139" s="30"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="31"/>
       <c r="E139" s="11"/>
-      <c r="F139" s="29" t="s">
-        <v>174</v>
+      <c r="F139" s="34" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3475,7 +3475,7 @@
         <v>3</v>
       </c>
       <c r="E140" s="12"/>
-      <c r="F140" s="29"/>
+      <c r="F140" s="34"/>
     </row>
     <row r="141" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -3491,7 +3491,7 @@
         <v>5</v>
       </c>
       <c r="E141" s="6"/>
-      <c r="F141" s="29"/>
+      <c r="F141" s="34"/>
     </row>
     <row r="142" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
@@ -3507,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="E142" s="6"/>
-      <c r="F142" s="29"/>
+      <c r="F142" s="34"/>
     </row>
     <row r="143" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -3523,7 +3523,7 @@
         <v>14</v>
       </c>
       <c r="E143" s="6"/>
-      <c r="F143" s="29"/>
+      <c r="F143" s="34"/>
     </row>
     <row r="144" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -3539,7 +3539,7 @@
         <v>29</v>
       </c>
       <c r="E144" s="6"/>
-      <c r="F144" s="29"/>
+      <c r="F144" s="34"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="22">
@@ -3555,9 +3555,9 @@
         <v>27</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F145" s="29"/>
+        <v>120</v>
+      </c>
+      <c r="F145" s="34"/>
     </row>
     <row r="146" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
@@ -3573,51 +3573,51 @@
         <v>9</v>
       </c>
       <c r="E146" s="6"/>
-      <c r="F146" s="29"/>
+      <c r="F146" s="34"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B147" s="22">
         <v>1</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F147" s="29"/>
+        <v>142</v>
+      </c>
+      <c r="F147" s="34"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B148" s="22">
         <v>1</v>
       </c>
       <c r="C148" s="23"/>
       <c r="D148" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F148" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="F148" s="34"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="34"/>
+      <c r="A149" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B149" s="30"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="31"/>
       <c r="E149" s="11"/>
-      <c r="F149" s="29"/>
+      <c r="F149" s="34"/>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
@@ -3633,7 +3633,7 @@
         <v>3</v>
       </c>
       <c r="E150" s="12"/>
-      <c r="F150" s="29"/>
+      <c r="F150" s="34"/>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="22">
@@ -3649,9 +3649,9 @@
         <v>27</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F151" s="29"/>
+        <v>120</v>
+      </c>
+      <c r="F151" s="34"/>
     </row>
     <row r="152" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -3667,7 +3667,7 @@
         <v>29</v>
       </c>
       <c r="E152" s="4"/>
-      <c r="F152" s="29"/>
+      <c r="F152" s="34"/>
     </row>
     <row r="153" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -3683,68 +3683,68 @@
         <v>9</v>
       </c>
       <c r="E153" s="4"/>
-      <c r="F153" s="29"/>
+      <c r="F153" s="34"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B154" s="22">
         <v>1</v>
       </c>
       <c r="C154" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E154" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D154" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F154" s="29"/>
+      <c r="F154" s="34"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B155" s="22">
         <v>1</v>
       </c>
       <c r="C155" s="23"/>
       <c r="D155" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F155" s="29"/>
+        <v>185</v>
+      </c>
+      <c r="F155" s="34"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B156" s="22">
         <v>1</v>
       </c>
       <c r="C156" s="23"/>
       <c r="D156" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F156" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="F156" s="34"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B157" s="33"/>
-      <c r="C157" s="33"/>
-      <c r="D157" s="34"/>
+      <c r="A157" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B157" s="30"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="31"/>
       <c r="E157" s="11"/>
-      <c r="F157" s="29" t="s">
-        <v>173</v>
+      <c r="F157" s="34" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3761,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="E158" s="12"/>
-      <c r="F158" s="29"/>
+      <c r="F158" s="34"/>
     </row>
     <row r="159" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -3771,15 +3771,15 @@
         <v>0</v>
       </c>
       <c r="C159" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D159" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="E159" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F159" s="29"/>
+        <v>95</v>
+      </c>
+      <c r="F159" s="34"/>
     </row>
     <row r="160" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -3795,7 +3795,7 @@
         <v>29</v>
       </c>
       <c r="E160" s="4"/>
-      <c r="F160" s="29"/>
+      <c r="F160" s="34"/>
     </row>
     <row r="161" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
@@ -3811,7 +3811,7 @@
         <v>9</v>
       </c>
       <c r="E161" s="4"/>
-      <c r="F161" s="29"/>
+      <c r="F161" s="34"/>
     </row>
     <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="22">
@@ -3821,15 +3821,15 @@
         <v>1</v>
       </c>
       <c r="C162" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D162" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D162" s="22" t="s">
-        <v>67</v>
-      </c>
       <c r="E162" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F162" s="29"/>
+        <v>126</v>
+      </c>
+      <c r="F162" s="34"/>
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="22">
@@ -3845,9 +3845,9 @@
         <v>13</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F163" s="29"/>
+        <v>142</v>
+      </c>
+      <c r="F163" s="34"/>
     </row>
     <row r="164" spans="1:7" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="24">
@@ -3857,43 +3857,43 @@
         <v>1</v>
       </c>
       <c r="C164" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D164" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="D164" s="25" t="s">
+      <c r="E164" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="E164" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="F164" s="29"/>
+      <c r="F164" s="34"/>
       <c r="G164" s="18"/>
     </row>
     <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B165" s="22">
         <v>2</v>
       </c>
       <c r="C165" s="23"/>
       <c r="D165" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E165" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E165" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F165" s="29"/>
+      <c r="F165" s="34"/>
     </row>
     <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B166" s="33"/>
-      <c r="C166" s="33"/>
-      <c r="D166" s="34"/>
+      <c r="A166" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B166" s="30"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="31"/>
       <c r="E166" s="11"/>
-      <c r="F166" s="29" t="s">
-        <v>174</v>
+      <c r="F166" s="34" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3910,7 +3910,7 @@
         <v>3</v>
       </c>
       <c r="E167" s="12"/>
-      <c r="F167" s="29"/>
+      <c r="F167" s="34"/>
     </row>
     <row r="168" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
@@ -3926,9 +3926,9 @@
         <v>29</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F168" s="29"/>
+        <v>97</v>
+      </c>
+      <c r="F168" s="34"/>
     </row>
     <row r="169" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
@@ -3944,7 +3944,7 @@
         <v>9</v>
       </c>
       <c r="E169" s="8"/>
-      <c r="F169" s="29"/>
+      <c r="F169" s="34"/>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="22">
@@ -3960,19 +3960,19 @@
         <v>5</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F170" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="F170" s="34"/>
     </row>
     <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B171" s="33"/>
-      <c r="C171" s="33"/>
-      <c r="D171" s="34"/>
+      <c r="A171" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B171" s="30"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="31"/>
       <c r="E171" s="11"/>
-      <c r="F171" s="29"/>
+      <c r="F171" s="34"/>
     </row>
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="s">
@@ -3988,7 +3988,7 @@
         <v>3</v>
       </c>
       <c r="E172" s="12"/>
-      <c r="F172" s="29"/>
+      <c r="F172" s="34"/>
     </row>
     <row r="173" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
@@ -4004,9 +4004,9 @@
         <v>29</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F173" s="29"/>
+        <v>97</v>
+      </c>
+      <c r="F173" s="34"/>
     </row>
     <row r="174" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
@@ -4022,7 +4022,7 @@
         <v>9</v>
       </c>
       <c r="E174" s="6"/>
-      <c r="F174" s="29"/>
+      <c r="F174" s="34"/>
     </row>
     <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="22">
@@ -4038,19 +4038,19 @@
         <v>5</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F175" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="F175" s="34"/>
     </row>
     <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B176" s="33"/>
-      <c r="C176" s="33"/>
-      <c r="D176" s="34"/>
+      <c r="A176" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B176" s="30"/>
+      <c r="C176" s="30"/>
+      <c r="D176" s="31"/>
       <c r="E176" s="11"/>
-      <c r="F176" s="29"/>
+      <c r="F176" s="34"/>
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
@@ -4066,7 +4066,7 @@
         <v>3</v>
       </c>
       <c r="E177" s="12"/>
-      <c r="F177" s="29"/>
+      <c r="F177" s="34"/>
     </row>
     <row r="178" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
@@ -4082,9 +4082,9 @@
         <v>29</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F178" s="29"/>
+        <v>97</v>
+      </c>
+      <c r="F178" s="34"/>
     </row>
     <row r="179" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
@@ -4100,7 +4100,7 @@
         <v>9</v>
       </c>
       <c r="E179" s="6"/>
-      <c r="F179" s="29"/>
+      <c r="F179" s="34"/>
     </row>
     <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="22">
@@ -4116,9 +4116,9 @@
         <v>5</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F180" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="F180" s="34"/>
     </row>
     <row r="181" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
@@ -4134,7 +4134,7 @@
         <v>29</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4181,7 +4181,7 @@
         <v>29</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="185" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4228,7 +4228,7 @@
         <v>29</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="188" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4262,15 +4262,15 @@
       <c r="E189" s="6"/>
     </row>
     <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B190" s="33"/>
-      <c r="C190" s="33"/>
-      <c r="D190" s="34"/>
+      <c r="A190" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B190" s="30"/>
+      <c r="C190" s="30"/>
+      <c r="D190" s="31"/>
       <c r="E190" s="11"/>
-      <c r="F190" s="29" t="s">
-        <v>175</v>
+      <c r="F190" s="34" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4287,7 +4287,7 @@
         <v>3</v>
       </c>
       <c r="E191" s="12"/>
-      <c r="F191" s="29"/>
+      <c r="F191" s="34"/>
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="22">
@@ -4297,15 +4297,15 @@
         <v>1</v>
       </c>
       <c r="C192" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F192" s="29"/>
+        <v>115</v>
+      </c>
+      <c r="F192" s="34"/>
     </row>
     <row r="193" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
@@ -4315,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="C193" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D193" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="E193" s="8"/>
-      <c r="F193" s="29"/>
+      <c r="F193" s="34"/>
     </row>
     <row r="194" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
@@ -4331,13 +4331,13 @@
         <v>0</v>
       </c>
       <c r="C194" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D194" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="E194" s="8"/>
-      <c r="F194" s="29"/>
+      <c r="F194" s="34"/>
     </row>
     <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="22">
@@ -4347,15 +4347,15 @@
         <v>1</v>
       </c>
       <c r="C195" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D195" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D195" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="E195" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F195" s="29"/>
+        <v>117</v>
+      </c>
+      <c r="F195" s="34"/>
     </row>
     <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="22">
@@ -4371,15 +4371,15 @@
         <v>36</v>
       </c>
       <c r="E196" s="10"/>
-      <c r="F196" s="29"/>
+      <c r="F196" s="34"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B197" s="33"/>
-      <c r="C197" s="33"/>
-      <c r="D197" s="34"/>
+      <c r="A197" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B197" s="30"/>
+      <c r="C197" s="30"/>
+      <c r="D197" s="31"/>
       <c r="E197" s="11"/>
     </row>
     <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4405,10 +4405,10 @@
         <v>1</v>
       </c>
       <c r="C199" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D199" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>112</v>
       </c>
       <c r="E199" s="10"/>
     </row>
@@ -4420,31 +4420,31 @@
         <v>3</v>
       </c>
       <c r="C200" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D200" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="D200" s="22" t="s">
-        <v>114</v>
       </c>
       <c r="E200" s="10"/>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B201" s="22">
         <v>1</v>
       </c>
       <c r="C201" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D201" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D201" s="23" t="s">
+      <c r="E201" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E201" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="F201" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4455,13 +4455,13 @@
         <v>1</v>
       </c>
       <c r="C202" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D202" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D202" s="22" t="s">
-        <v>57</v>
-      </c>
       <c r="E202" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4472,16 +4472,16 @@
         <v>3</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D203" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E203" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E203" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="F203" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4492,16 +4492,16 @@
         <v>1</v>
       </c>
       <c r="C204" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D204" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D204" s="22" t="s">
-        <v>60</v>
-      </c>
       <c r="E204" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F204" s="29" t="s">
-        <v>177</v>
+        <v>124</v>
+      </c>
+      <c r="F204" s="34" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4512,13 +4512,13 @@
         <v>1</v>
       </c>
       <c r="C205" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D205" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D205" s="22" t="s">
-        <v>62</v>
-      </c>
       <c r="E205" s="10"/>
-      <c r="F205" s="29"/>
+      <c r="F205" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:E200">
@@ -4539,25 +4539,14 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="38">
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="F166:F180"/>
+    <mergeCell ref="F190:F196"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="F101:F109"/>
+    <mergeCell ref="F110:F125"/>
+    <mergeCell ref="F128:F136"/>
+    <mergeCell ref="F139:F156"/>
+    <mergeCell ref="F157:F165"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="F6:F53"/>
     <mergeCell ref="F54:F83"/>
@@ -4569,14 +4558,25 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F166:F180"/>
-    <mergeCell ref="F190:F196"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="F101:F109"/>
-    <mergeCell ref="F110:F125"/>
-    <mergeCell ref="F128:F136"/>
-    <mergeCell ref="F139:F156"/>
-    <mergeCell ref="F157:F165"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A166:D166"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
+++ b/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12840"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="14520" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -616,12 +616,6 @@
     <t>Kontaktron Cresnet (PS-01)</t>
   </si>
   <si>
-    <t>V-OUT (RX-04)</t>
-  </si>
-  <si>
-    <t>V-OUT (RX-05)</t>
-  </si>
-  <si>
     <t>C2N-UNI8IO</t>
   </si>
   <si>
@@ -632,6 +626,12 @@
   </si>
   <si>
     <t>00.14-00.15 - Agora i Kantyna</t>
+  </si>
+  <si>
+    <t>V-OUT (M-03)(RX-05)</t>
+  </si>
+  <si>
+    <t>V-OUT (P-02)(RX-04)</t>
   </si>
 </sst>
 </file>
@@ -887,13 +887,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -902,7 +896,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1247,14 +1247,14 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="30" t="s">
         <v>169</v>
       </c>
       <c r="G3" s="17"/>
@@ -1273,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="33"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
@@ -1291,17 +1291,17 @@
       <c r="E5" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="29" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="34"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
@@ -1337,7 +1337,7 @@
       <c r="E8" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
@@ -1355,7 +1355,7 @@
       <c r="E9" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
@@ -1373,7 +1373,7 @@
       <c r="E10" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -1391,7 +1391,7 @@
       <c r="E11" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
@@ -1409,7 +1409,7 @@
       <c r="E12" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
@@ -1427,7 +1427,7 @@
       <c r="E13" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="34"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
@@ -1445,7 +1445,7 @@
       <c r="E14" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
@@ -1463,7 +1463,7 @@
       <c r="E15" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="34"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1477,7 +1477,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="34"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1493,7 +1493,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="34"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1509,7 +1509,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="34"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
@@ -1527,7 +1527,7 @@
       <c r="E19" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
@@ -1545,7 +1545,7 @@
       <c r="E20" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F20" s="34"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
@@ -1563,17 +1563,17 @@
       <c r="E21" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="34"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="34"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
@@ -1589,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="34"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1607,7 +1607,7 @@
       <c r="E24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="34"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1623,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="34"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
@@ -1639,9 +1639,9 @@
         <v>44</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F26" s="34"/>
+        <v>203</v>
+      </c>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
@@ -1657,9 +1657,9 @@
         <v>25</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F27" s="34"/>
+        <v>204</v>
+      </c>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1675,7 +1675,7 @@
         <v>46</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="34"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
@@ -1693,7 +1693,7 @@
       <c r="E29" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="34"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -1711,7 +1711,7 @@
       <c r="E30" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="34"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
@@ -1729,7 +1729,7 @@
       <c r="E31" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F31" s="34"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
@@ -1747,7 +1747,7 @@
       <c r="E32" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="F32" s="34"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
@@ -1765,7 +1765,7 @@
       <c r="E33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F33" s="34"/>
+      <c r="F33" s="29"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
@@ -1781,7 +1781,7 @@
       <c r="E34" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F34" s="34"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
@@ -1799,7 +1799,7 @@
       <c r="E35" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="34"/>
+      <c r="F35" s="29"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
@@ -1817,17 +1817,17 @@
       <c r="E36" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F36" s="34"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
+      <c r="A37" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="34"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
@@ -1843,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="34"/>
+      <c r="F38" s="29"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
@@ -1861,7 +1861,7 @@
       <c r="E39" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="34"/>
+      <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
@@ -1877,7 +1877,7 @@
       <c r="E40" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F40" s="34"/>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
@@ -1893,7 +1893,7 @@
       <c r="E41" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="34"/>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
@@ -1909,7 +1909,7 @@
       <c r="E42" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="34"/>
+      <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
@@ -1927,7 +1927,7 @@
       <c r="E43" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F43" s="34"/>
+      <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
@@ -1945,7 +1945,7 @@
       <c r="E44" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F44" s="34"/>
+      <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
@@ -1963,7 +1963,7 @@
       <c r="E45" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F45" s="34"/>
+      <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
@@ -1981,7 +1981,7 @@
       <c r="E46" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F46" s="34"/>
+      <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
@@ -1999,7 +1999,7 @@
       <c r="E47" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F47" s="34"/>
+      <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
@@ -2017,7 +2017,7 @@
       <c r="E48" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F48" s="34"/>
+      <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
@@ -2035,17 +2035,17 @@
       <c r="E49" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F49" s="34"/>
+      <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="31"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="34"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
@@ -2061,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="12"/>
-      <c r="F51" s="34"/>
+      <c r="F51" s="29"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -2075,7 +2075,7 @@
         <v>51</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="34"/>
+      <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
@@ -2091,17 +2091,17 @@
       <c r="E53" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="34"/>
+      <c r="F53" s="29"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="34" t="s">
+      <c r="F54" s="29" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="12"/>
-      <c r="F55" s="34"/>
+      <c r="F55" s="29"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
@@ -2137,7 +2137,7 @@
       <c r="E56" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F56" s="34"/>
+      <c r="F56" s="29"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
@@ -2155,7 +2155,7 @@
       <c r="E57" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F57" s="34"/>
+      <c r="F57" s="29"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
@@ -2171,7 +2171,7 @@
       <c r="E58" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F58" s="34"/>
+      <c r="F58" s="29"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
@@ -2187,7 +2187,7 @@
       <c r="E59" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F59" s="34"/>
+      <c r="F59" s="29"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
@@ -2205,7 +2205,7 @@
       <c r="E60" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F60" s="34"/>
+      <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
@@ -2223,7 +2223,7 @@
       <c r="E61" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F61" s="34"/>
+      <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -2239,7 +2239,7 @@
         <v>29</v>
       </c>
       <c r="E62" s="6"/>
-      <c r="F62" s="34"/>
+      <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -2255,17 +2255,17 @@
         <v>9</v>
       </c>
       <c r="E63" s="6"/>
-      <c r="F63" s="34"/>
+      <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="31"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="34"/>
+      <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
@@ -2281,7 +2281,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="12"/>
-      <c r="F65" s="34"/>
+      <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
@@ -2299,7 +2299,7 @@
       <c r="E66" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F66" s="34"/>
+      <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
@@ -2315,7 +2315,7 @@
       <c r="E67" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F67" s="34"/>
+      <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
@@ -2331,7 +2331,7 @@
       <c r="E68" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F68" s="34"/>
+      <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
@@ -2349,7 +2349,7 @@
       <c r="E69" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F69" s="34"/>
+      <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
@@ -2367,7 +2367,7 @@
       <c r="E70" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F70" s="34"/>
+      <c r="F70" s="29"/>
     </row>
     <row r="71" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -2383,7 +2383,7 @@
         <v>27</v>
       </c>
       <c r="E71" s="4"/>
-      <c r="F71" s="34"/>
+      <c r="F71" s="29"/>
     </row>
     <row r="72" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -2399,7 +2399,7 @@
         <v>29</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="34"/>
+      <c r="F72" s="29"/>
     </row>
     <row r="73" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -2415,17 +2415,17 @@
         <v>9</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="34"/>
+      <c r="F73" s="29"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="31"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="34"/>
+      <c r="F74" s="29"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
@@ -2441,7 +2441,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="12"/>
-      <c r="F75" s="34"/>
+      <c r="F75" s="29"/>
     </row>
     <row r="76" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -2459,7 +2459,7 @@
       <c r="E76" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F76" s="34"/>
+      <c r="F76" s="29"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
@@ -2477,7 +2477,7 @@
       <c r="E77" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F77" s="34"/>
+      <c r="F77" s="29"/>
     </row>
     <row r="78" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -2493,7 +2493,7 @@
         <v>29</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="34"/>
+      <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -2509,17 +2509,17 @@
         <v>9</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="34"/>
+      <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="31"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="34"/>
+      <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
@@ -2535,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="12"/>
-      <c r="F81" s="34"/>
+      <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
@@ -2551,7 +2551,7 @@
         <v>27</v>
       </c>
       <c r="E82" s="10"/>
-      <c r="F82" s="34"/>
+      <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
@@ -2569,17 +2569,17 @@
       <c r="E83" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F83" s="34"/>
+      <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="31"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="34"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="34" t="s">
+      <c r="F84" s="29" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="E85" s="12"/>
-      <c r="F85" s="34"/>
+      <c r="F85" s="29"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
@@ -2615,17 +2615,17 @@
       <c r="E86" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F86" s="34"/>
+      <c r="F86" s="29"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="31"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="34"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="34"/>
+      <c r="F87" s="29"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
@@ -2641,7 +2641,7 @@
         <v>3</v>
       </c>
       <c r="E88" s="12"/>
-      <c r="F88" s="34"/>
+      <c r="F88" s="29"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
@@ -2659,7 +2659,7 @@
       <c r="E89" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F89" s="34"/>
+      <c r="F89" s="29"/>
     </row>
     <row r="90" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -2675,17 +2675,17 @@
         <v>29</v>
       </c>
       <c r="E90" s="7"/>
-      <c r="F90" s="34"/>
+      <c r="F90" s="29"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="31"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="34"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="34"/>
+      <c r="F91" s="29"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
@@ -2701,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="E92" s="12"/>
-      <c r="F92" s="34"/>
+      <c r="F92" s="29"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
@@ -2719,7 +2719,7 @@
       <c r="E93" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F93" s="34"/>
+      <c r="F93" s="29"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22">
@@ -2737,7 +2737,7 @@
       <c r="E94" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F94" s="34"/>
+      <c r="F94" s="29"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
@@ -2755,7 +2755,7 @@
       <c r="E95" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F95" s="34"/>
+      <c r="F95" s="29"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
@@ -2773,7 +2773,7 @@
       <c r="E96" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F96" s="34"/>
+      <c r="F96" s="29"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
@@ -2791,7 +2791,7 @@
       <c r="E97" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F97" s="34"/>
+      <c r="F97" s="29"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
@@ -2809,7 +2809,7 @@
       <c r="E98" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F98" s="34"/>
+      <c r="F98" s="29"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
@@ -2827,7 +2827,7 @@
       <c r="E99" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F99" s="34"/>
+      <c r="F99" s="29"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
@@ -2845,17 +2845,17 @@
       <c r="E100" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F100" s="34"/>
+      <c r="F100" s="29"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="29" t="s">
+      <c r="A101" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="31"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="34"/>
       <c r="E101" s="11"/>
-      <c r="F101" s="34" t="s">
+      <c r="F101" s="29" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="E102" s="12"/>
-      <c r="F102" s="34"/>
+      <c r="F102" s="29"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
@@ -2891,7 +2891,7 @@
       <c r="E103" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F103" s="34"/>
+      <c r="F103" s="29"/>
     </row>
     <row r="104" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -2907,7 +2907,7 @@
         <v>29</v>
       </c>
       <c r="E104" s="8"/>
-      <c r="F104" s="34"/>
+      <c r="F104" s="29"/>
     </row>
     <row r="105" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -2923,7 +2923,7 @@
         <v>9</v>
       </c>
       <c r="E105" s="8"/>
-      <c r="F105" s="34"/>
+      <c r="F105" s="29"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
@@ -2941,7 +2941,7 @@
       <c r="E106" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F106" s="34"/>
+      <c r="F106" s="29"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
@@ -2957,7 +2957,7 @@
       <c r="E107" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F107" s="34"/>
+      <c r="F107" s="29"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
@@ -2973,7 +2973,7 @@
       <c r="E108" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F108" s="34"/>
+      <c r="F108" s="29"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22">
@@ -2991,17 +2991,17 @@
       <c r="E109" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F109" s="34"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="29" t="s">
+      <c r="A110" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="31"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="34"/>
       <c r="E110" s="11"/>
-      <c r="F110" s="34" t="s">
+      <c r="F110" s="29" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="E111" s="12"/>
-      <c r="F111" s="34"/>
+      <c r="F111" s="29"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
@@ -3037,7 +3037,7 @@
       <c r="E112" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F112" s="34"/>
+      <c r="F112" s="29"/>
     </row>
     <row r="113" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -3053,7 +3053,7 @@
         <v>29</v>
       </c>
       <c r="E113" s="4"/>
-      <c r="F113" s="34"/>
+      <c r="F113" s="29"/>
     </row>
     <row r="114" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -3069,17 +3069,17 @@
         <v>9</v>
       </c>
       <c r="E114" s="4"/>
-      <c r="F114" s="34"/>
+      <c r="F114" s="29"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="29" t="s">
+      <c r="A115" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="31"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="34"/>
       <c r="E115" s="11"/>
-      <c r="F115" s="34"/>
+      <c r="F115" s="29"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
@@ -3095,7 +3095,7 @@
         <v>3</v>
       </c>
       <c r="E116" s="12"/>
-      <c r="F116" s="34"/>
+      <c r="F116" s="29"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22">
@@ -3113,17 +3113,17 @@
       <c r="E117" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F117" s="34"/>
+      <c r="F117" s="29"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="29" t="s">
+      <c r="A118" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="31"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="34"/>
       <c r="E118" s="11"/>
-      <c r="F118" s="34"/>
+      <c r="F118" s="29"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
@@ -3139,7 +3139,7 @@
         <v>3</v>
       </c>
       <c r="E119" s="12"/>
-      <c r="F119" s="34"/>
+      <c r="F119" s="29"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
@@ -3157,7 +3157,7 @@
       <c r="E120" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F120" s="34"/>
+      <c r="F120" s="29"/>
     </row>
     <row r="121" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -3173,7 +3173,7 @@
         <v>29</v>
       </c>
       <c r="E121" s="6"/>
-      <c r="F121" s="34"/>
+      <c r="F121" s="29"/>
     </row>
     <row r="122" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -3189,17 +3189,17 @@
         <v>9</v>
       </c>
       <c r="E122" s="6"/>
-      <c r="F122" s="34"/>
+      <c r="F122" s="29"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="29" t="s">
+      <c r="A123" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="31"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="34"/>
       <c r="E123" s="11"/>
-      <c r="F123" s="34"/>
+      <c r="F123" s="29"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="E124" s="12"/>
-      <c r="F124" s="34"/>
+      <c r="F124" s="29"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
@@ -3233,7 +3233,7 @@
       <c r="E125" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F125" s="34"/>
+      <c r="F125" s="29"/>
     </row>
     <row r="126" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -3266,14 +3266,14 @@
       <c r="E127" s="6"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="29" t="s">
+      <c r="A128" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="31"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="34"/>
       <c r="E128" s="11"/>
-      <c r="F128" s="34" t="s">
+      <c r="F128" s="29" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
         <v>3</v>
       </c>
       <c r="E129" s="12"/>
-      <c r="F129" s="34"/>
+      <c r="F129" s="29"/>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22">
@@ -3309,7 +3309,7 @@
       <c r="E130" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F130" s="34"/>
+      <c r="F130" s="29"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22">
@@ -3327,7 +3327,7 @@
       <c r="E131" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F131" s="34"/>
+      <c r="F131" s="29"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22">
@@ -3345,7 +3345,7 @@
       <c r="E132" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F132" s="34"/>
+      <c r="F132" s="29"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="22">
@@ -3363,7 +3363,7 @@
       <c r="E133" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F133" s="34"/>
+      <c r="F133" s="29"/>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="22">
@@ -3381,7 +3381,7 @@
       <c r="E134" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F134" s="34"/>
+      <c r="F134" s="29"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="22">
@@ -3399,7 +3399,7 @@
       <c r="E135" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F135" s="34"/>
+      <c r="F135" s="29"/>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="22">
@@ -3417,7 +3417,7 @@
       <c r="E136" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F136" s="34"/>
+      <c r="F136" s="29"/>
     </row>
     <row r="137" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -3450,14 +3450,14 @@
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="29" t="s">
+      <c r="A139" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B139" s="30"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="31"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="34"/>
       <c r="E139" s="11"/>
-      <c r="F139" s="34" t="s">
+      <c r="F139" s="29" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
         <v>3</v>
       </c>
       <c r="E140" s="12"/>
-      <c r="F140" s="34"/>
+      <c r="F140" s="29"/>
     </row>
     <row r="141" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -3491,7 +3491,7 @@
         <v>5</v>
       </c>
       <c r="E141" s="6"/>
-      <c r="F141" s="34"/>
+      <c r="F141" s="29"/>
     </row>
     <row r="142" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
@@ -3507,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="E142" s="6"/>
-      <c r="F142" s="34"/>
+      <c r="F142" s="29"/>
     </row>
     <row r="143" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -3523,7 +3523,7 @@
         <v>14</v>
       </c>
       <c r="E143" s="6"/>
-      <c r="F143" s="34"/>
+      <c r="F143" s="29"/>
     </row>
     <row r="144" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -3539,7 +3539,7 @@
         <v>29</v>
       </c>
       <c r="E144" s="6"/>
-      <c r="F144" s="34"/>
+      <c r="F144" s="29"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="22">
@@ -3557,7 +3557,7 @@
       <c r="E145" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F145" s="34"/>
+      <c r="F145" s="29"/>
     </row>
     <row r="146" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
@@ -3573,7 +3573,7 @@
         <v>9</v>
       </c>
       <c r="E146" s="6"/>
-      <c r="F146" s="34"/>
+      <c r="F146" s="29"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="23" t="s">
@@ -3591,7 +3591,7 @@
       <c r="E147" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F147" s="34"/>
+      <c r="F147" s="29"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="s">
@@ -3607,17 +3607,17 @@
       <c r="E148" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F148" s="34"/>
+      <c r="F148" s="29"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="29" t="s">
+      <c r="A149" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B149" s="30"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="31"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="34"/>
       <c r="E149" s="11"/>
-      <c r="F149" s="34"/>
+      <c r="F149" s="29"/>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
@@ -3633,7 +3633,7 @@
         <v>3</v>
       </c>
       <c r="E150" s="12"/>
-      <c r="F150" s="34"/>
+      <c r="F150" s="29"/>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="22">
@@ -3651,7 +3651,7 @@
       <c r="E151" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F151" s="34"/>
+      <c r="F151" s="29"/>
     </row>
     <row r="152" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -3667,7 +3667,7 @@
         <v>29</v>
       </c>
       <c r="E152" s="4"/>
-      <c r="F152" s="34"/>
+      <c r="F152" s="29"/>
     </row>
     <row r="153" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -3683,7 +3683,7 @@
         <v>9</v>
       </c>
       <c r="E153" s="4"/>
-      <c r="F153" s="34"/>
+      <c r="F153" s="29"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="23" t="s">
@@ -3701,7 +3701,7 @@
       <c r="E154" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F154" s="34"/>
+      <c r="F154" s="29"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="s">
@@ -3717,7 +3717,7 @@
       <c r="E155" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F155" s="34"/>
+      <c r="F155" s="29"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="23" t="s">
@@ -3733,17 +3733,17 @@
       <c r="E156" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F156" s="34"/>
+      <c r="F156" s="29"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="29" t="s">
+      <c r="A157" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B157" s="30"/>
-      <c r="C157" s="30"/>
-      <c r="D157" s="31"/>
+      <c r="B157" s="33"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="34"/>
       <c r="E157" s="11"/>
-      <c r="F157" s="34" t="s">
+      <c r="F157" s="29" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="E158" s="12"/>
-      <c r="F158" s="34"/>
+      <c r="F158" s="29"/>
     </row>
     <row r="159" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -3779,7 +3779,7 @@
       <c r="E159" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F159" s="34"/>
+      <c r="F159" s="29"/>
     </row>
     <row r="160" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -3795,7 +3795,7 @@
         <v>29</v>
       </c>
       <c r="E160" s="4"/>
-      <c r="F160" s="34"/>
+      <c r="F160" s="29"/>
     </row>
     <row r="161" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
@@ -3811,7 +3811,7 @@
         <v>9</v>
       </c>
       <c r="E161" s="4"/>
-      <c r="F161" s="34"/>
+      <c r="F161" s="29"/>
     </row>
     <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="22">
@@ -3829,7 +3829,7 @@
       <c r="E162" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F162" s="34"/>
+      <c r="F162" s="29"/>
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="22">
@@ -3847,7 +3847,7 @@
       <c r="E163" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F163" s="34"/>
+      <c r="F163" s="29"/>
     </row>
     <row r="164" spans="1:7" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="24">
@@ -3857,15 +3857,15 @@
         <v>1</v>
       </c>
       <c r="C164" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="E164" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="D164" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E164" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="F164" s="34"/>
+      <c r="F164" s="29"/>
       <c r="G164" s="18"/>
     </row>
     <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3882,17 +3882,17 @@
       <c r="E165" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F165" s="34"/>
+      <c r="F165" s="29"/>
     </row>
     <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="29" t="s">
+      <c r="A166" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B166" s="30"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="31"/>
+      <c r="B166" s="33"/>
+      <c r="C166" s="33"/>
+      <c r="D166" s="34"/>
       <c r="E166" s="11"/>
-      <c r="F166" s="34" t="s">
+      <c r="F166" s="29" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3910,7 +3910,7 @@
         <v>3</v>
       </c>
       <c r="E167" s="12"/>
-      <c r="F167" s="34"/>
+      <c r="F167" s="29"/>
     </row>
     <row r="168" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
@@ -3928,7 +3928,7 @@
       <c r="E168" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F168" s="34"/>
+      <c r="F168" s="29"/>
     </row>
     <row r="169" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
@@ -3944,7 +3944,7 @@
         <v>9</v>
       </c>
       <c r="E169" s="8"/>
-      <c r="F169" s="34"/>
+      <c r="F169" s="29"/>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="22">
@@ -3962,17 +3962,17 @@
       <c r="E170" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F170" s="34"/>
+      <c r="F170" s="29"/>
     </row>
     <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="29" t="s">
+      <c r="A171" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B171" s="30"/>
-      <c r="C171" s="30"/>
-      <c r="D171" s="31"/>
+      <c r="B171" s="33"/>
+      <c r="C171" s="33"/>
+      <c r="D171" s="34"/>
       <c r="E171" s="11"/>
-      <c r="F171" s="34"/>
+      <c r="F171" s="29"/>
     </row>
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="s">
@@ -3988,7 +3988,7 @@
         <v>3</v>
       </c>
       <c r="E172" s="12"/>
-      <c r="F172" s="34"/>
+      <c r="F172" s="29"/>
     </row>
     <row r="173" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
@@ -4006,7 +4006,7 @@
       <c r="E173" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F173" s="34"/>
+      <c r="F173" s="29"/>
     </row>
     <row r="174" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
@@ -4022,7 +4022,7 @@
         <v>9</v>
       </c>
       <c r="E174" s="6"/>
-      <c r="F174" s="34"/>
+      <c r="F174" s="29"/>
     </row>
     <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="22">
@@ -4040,17 +4040,17 @@
       <c r="E175" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F175" s="34"/>
+      <c r="F175" s="29"/>
     </row>
     <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="29" t="s">
+      <c r="A176" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B176" s="30"/>
-      <c r="C176" s="30"/>
-      <c r="D176" s="31"/>
+      <c r="B176" s="33"/>
+      <c r="C176" s="33"/>
+      <c r="D176" s="34"/>
       <c r="E176" s="11"/>
-      <c r="F176" s="34"/>
+      <c r="F176" s="29"/>
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
@@ -4066,7 +4066,7 @@
         <v>3</v>
       </c>
       <c r="E177" s="12"/>
-      <c r="F177" s="34"/>
+      <c r="F177" s="29"/>
     </row>
     <row r="178" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
@@ -4084,7 +4084,7 @@
       <c r="E178" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F178" s="34"/>
+      <c r="F178" s="29"/>
     </row>
     <row r="179" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
@@ -4100,7 +4100,7 @@
         <v>9</v>
       </c>
       <c r="E179" s="6"/>
-      <c r="F179" s="34"/>
+      <c r="F179" s="29"/>
     </row>
     <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="22">
@@ -4118,7 +4118,7 @@
       <c r="E180" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F180" s="34"/>
+      <c r="F180" s="29"/>
     </row>
     <row r="181" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
@@ -4262,14 +4262,14 @@
       <c r="E189" s="6"/>
     </row>
     <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="29" t="s">
+      <c r="A190" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B190" s="30"/>
-      <c r="C190" s="30"/>
-      <c r="D190" s="31"/>
+      <c r="B190" s="33"/>
+      <c r="C190" s="33"/>
+      <c r="D190" s="34"/>
       <c r="E190" s="11"/>
-      <c r="F190" s="34" t="s">
+      <c r="F190" s="29" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
         <v>3</v>
       </c>
       <c r="E191" s="12"/>
-      <c r="F191" s="34"/>
+      <c r="F191" s="29"/>
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="22">
@@ -4305,7 +4305,7 @@
       <c r="E192" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F192" s="34"/>
+      <c r="F192" s="29"/>
     </row>
     <row r="193" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
@@ -4321,7 +4321,7 @@
         <v>104</v>
       </c>
       <c r="E193" s="8"/>
-      <c r="F193" s="34"/>
+      <c r="F193" s="29"/>
     </row>
     <row r="194" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
@@ -4337,7 +4337,7 @@
         <v>106</v>
       </c>
       <c r="E194" s="8"/>
-      <c r="F194" s="34"/>
+      <c r="F194" s="29"/>
     </row>
     <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="22">
@@ -4355,7 +4355,7 @@
       <c r="E195" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F195" s="34"/>
+      <c r="F195" s="29"/>
     </row>
     <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="22">
@@ -4371,15 +4371,15 @@
         <v>36</v>
       </c>
       <c r="E196" s="10"/>
-      <c r="F196" s="34"/>
+      <c r="F196" s="29"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="29" t="s">
+      <c r="A197" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B197" s="30"/>
-      <c r="C197" s="30"/>
-      <c r="D197" s="31"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="33"/>
+      <c r="D197" s="34"/>
       <c r="E197" s="11"/>
     </row>
     <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4500,7 +4500,7 @@
       <c r="E204" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F204" s="34" t="s">
+      <c r="F204" s="29" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4518,7 +4518,7 @@
         <v>61</v>
       </c>
       <c r="E205" s="10"/>
-      <c r="F205" s="34"/>
+      <c r="F205" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:E200">
@@ -4539,14 +4539,25 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="38">
-    <mergeCell ref="F166:F180"/>
-    <mergeCell ref="F190:F196"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="F101:F109"/>
-    <mergeCell ref="F110:F125"/>
-    <mergeCell ref="F128:F136"/>
-    <mergeCell ref="F139:F156"/>
-    <mergeCell ref="F157:F165"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A84:D84"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="F6:F53"/>
     <mergeCell ref="F54:F83"/>
@@ -4558,25 +4569,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="F166:F180"/>
+    <mergeCell ref="F190:F196"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="F101:F109"/>
+    <mergeCell ref="F110:F125"/>
+    <mergeCell ref="F128:F136"/>
+    <mergeCell ref="F139:F156"/>
+    <mergeCell ref="F157:F165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
+++ b/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="14520" windowHeight="12780"/>
+    <workbookView xWindow="9030" yWindow="-15" windowWidth="19785" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="232">
   <si>
     <t>LP.</t>
   </si>
@@ -364,9 +364,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>V-OUT</t>
-  </si>
-  <si>
     <t>2x IN + 2x OUT</t>
   </si>
   <si>
@@ -382,9 +379,6 @@
     <t>AV-SRC</t>
   </si>
   <si>
-    <t>Klawiatura 12P</t>
-  </si>
-  <si>
     <t>A-OUT</t>
   </si>
   <si>
@@ -397,15 +391,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>AV-MAT 4x1</t>
-  </si>
-  <si>
-    <t>AV-MAT 4x2</t>
-  </si>
-  <si>
-    <t>Tylko On/Off via LAN</t>
-  </si>
-  <si>
     <t>xPanel</t>
   </si>
   <si>
@@ -421,12 +406,6 @@
     <t>Monitor (stary)</t>
   </si>
   <si>
-    <t>V-OUT (NVX)</t>
-  </si>
-  <si>
-    <t>AV-IN (NVX)</t>
-  </si>
-  <si>
     <t>Floorbox HDMI</t>
   </si>
   <si>
@@ -496,9 +475,6 @@
     <t>FWD47W800P</t>
   </si>
   <si>
-    <t>V-OUT (NVX -&gt; Splitter)</t>
-  </si>
-  <si>
     <t>Monitory Sony (stare)</t>
   </si>
   <si>
@@ -632,6 +608,111 @@
   </si>
   <si>
     <t>V-OUT (P-02)(RX-04)</t>
+  </si>
+  <si>
+    <t>V-OUT (P-03)(RX-06)</t>
+  </si>
+  <si>
+    <t>V-OUT (P-04)(RX-07)</t>
+  </si>
+  <si>
+    <t>V-OUT (M-04-05-06-07)(RX-08)</t>
+  </si>
+  <si>
+    <t>AV-IN (TX-04)</t>
+  </si>
+  <si>
+    <t>A-OUT (AMP-05-06-07)</t>
+  </si>
+  <si>
+    <t>A-OUT (AMP-01-02)</t>
+  </si>
+  <si>
+    <t>A-OUT (AMP-04-03)</t>
+  </si>
+  <si>
+    <t>AV-OUT (P-05)</t>
+  </si>
+  <si>
+    <t>V-OUT (P-06)</t>
+  </si>
+  <si>
+    <t>AV-OUT (P-07)</t>
+  </si>
+  <si>
+    <t>V-OUT (P-08)</t>
+  </si>
+  <si>
+    <t>V-OUT (P-09)</t>
+  </si>
+  <si>
+    <t>Klawiatura 12P (KP-03-04)</t>
+  </si>
+  <si>
+    <t>Klawiatura 12P (KP-05)</t>
+  </si>
+  <si>
+    <t>Klawiatura 12P (KP-06)</t>
+  </si>
+  <si>
+    <t>Klawiatura 12P (KP-07)</t>
+  </si>
+  <si>
+    <t>Klawiatura 12P (KP-08)</t>
+  </si>
+  <si>
+    <t>(M-08)</t>
+  </si>
+  <si>
+    <t>(M-09-10-11-12)</t>
+  </si>
+  <si>
+    <t>(M-13)</t>
+  </si>
+  <si>
+    <t>(M-14)</t>
+  </si>
+  <si>
+    <t>(M-15)</t>
+  </si>
+  <si>
+    <t>(M-16)</t>
+  </si>
+  <si>
+    <t>(M-17)</t>
+  </si>
+  <si>
+    <t>(M-18)</t>
+  </si>
+  <si>
+    <t>AV-OUT (M-20)</t>
+  </si>
+  <si>
+    <t>(M-21)</t>
+  </si>
+  <si>
+    <t>(M-22)</t>
+  </si>
+  <si>
+    <t>(M-23)</t>
+  </si>
+  <si>
+    <t>V-OUT (M-24)</t>
+  </si>
+  <si>
+    <t>(MX-01)</t>
+  </si>
+  <si>
+    <t>(MX-02)</t>
+  </si>
+  <si>
+    <t>(MX-03)</t>
+  </si>
+  <si>
+    <t>(MX-04)</t>
+  </si>
+  <si>
+    <t>(MX-05)</t>
   </si>
 </sst>
 </file>
@@ -1217,8 +1298,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1317,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1248,14 +1329,14 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
       <c r="E3" s="11"/>
       <c r="F3" s="30" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G3" s="17"/>
     </row>
@@ -1289,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F5" s="31"/>
     </row>
@@ -1302,7 +1383,7 @@
       <c r="D6" s="34"/>
       <c r="E6" s="11"/>
       <c r="F6" s="29" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1335,7 +1416,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F8" s="29"/>
     </row>
@@ -1353,7 +1434,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F9" s="29"/>
     </row>
@@ -1371,7 +1452,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F10" s="29"/>
     </row>
@@ -1389,7 +1470,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F11" s="29"/>
     </row>
@@ -1407,7 +1488,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F12" s="29"/>
     </row>
@@ -1425,7 +1506,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F13" s="29"/>
     </row>
@@ -1443,7 +1524,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F14" s="29"/>
     </row>
@@ -1461,7 +1542,7 @@
         <v>27</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" s="29"/>
     </row>
@@ -1525,7 +1606,7 @@
         <v>36</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F19" s="29"/>
     </row>
@@ -1543,7 +1624,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F20" s="29"/>
     </row>
@@ -1561,7 +1642,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F21" s="29"/>
     </row>
@@ -1639,7 +1720,7 @@
         <v>44</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F26" s="29"/>
     </row>
@@ -1657,7 +1738,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F27" s="29"/>
     </row>
@@ -1691,7 +1772,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" s="29"/>
     </row>
@@ -1709,7 +1790,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F30" s="29"/>
     </row>
@@ -1727,7 +1808,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F31" s="29"/>
     </row>
@@ -1745,7 +1826,7 @@
         <v>23</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F32" s="29"/>
     </row>
@@ -1763,7 +1844,7 @@
         <v>48</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F33" s="29"/>
     </row>
@@ -1779,7 +1860,7 @@
         <v>49</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F34" s="29"/>
     </row>
@@ -1797,7 +1878,7 @@
         <v>27</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F35" s="29"/>
     </row>
@@ -1815,13 +1896,13 @@
         <v>51</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -1856,10 +1937,10 @@
         <v>24</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="F39" s="29"/>
     </row>
@@ -1869,13 +1950,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="F40" s="29"/>
     </row>
@@ -1885,29 +1966,29 @@
         <v>4</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B42" s="22">
         <v>1</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="22" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="F42" s="29"/>
     </row>
@@ -1925,7 +2006,7 @@
         <v>52</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F43" s="29"/>
     </row>
@@ -1937,13 +2018,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F44" s="29"/>
     </row>
@@ -1961,7 +2042,7 @@
         <v>54</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="F45" s="29"/>
     </row>
@@ -1979,7 +2060,7 @@
         <v>38</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F46" s="29"/>
     </row>
@@ -1997,7 +2078,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F47" s="29"/>
     </row>
@@ -2015,7 +2096,7 @@
         <v>63</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F48" s="29"/>
     </row>
@@ -2033,13 +2114,13 @@
         <v>27</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -2074,7 +2155,9 @@
       <c r="D52" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="10"/>
+      <c r="E52" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2089,7 +2172,7 @@
         <v>23</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="F53" s="29"/>
     </row>
@@ -2102,7 +2185,7 @@
       <c r="D54" s="34"/>
       <c r="E54" s="11"/>
       <c r="F54" s="29" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2135,57 +2218,57 @@
         <v>23</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="F56" s="29"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B57" s="22">
         <v>1</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="F57" s="29"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B58" s="22">
         <v>1</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="23" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F58" s="29"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B59" s="22">
         <v>2</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F59" s="29"/>
     </row>
@@ -2203,7 +2286,7 @@
         <v>66</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="F60" s="29"/>
     </row>
@@ -2221,7 +2304,7 @@
         <v>27</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F61" s="29"/>
     </row>
@@ -2297,39 +2380,39 @@
         <v>69</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B67" s="22">
         <v>2</v>
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B68" s="22">
         <v>1</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F68" s="29"/>
     </row>
@@ -2347,7 +2430,7 @@
         <v>21</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F69" s="29"/>
     </row>
@@ -2365,7 +2448,7 @@
         <v>23</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="F70" s="29"/>
     </row>
@@ -2475,7 +2558,7 @@
         <v>44</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="F77" s="29"/>
     </row>
@@ -2555,19 +2638,19 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B83" s="22">
         <v>4</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="F83" s="29"/>
     </row>
@@ -2580,7 +2663,7 @@
       <c r="D84" s="34"/>
       <c r="E84" s="11"/>
       <c r="F84" s="29" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2613,7 +2696,7 @@
         <v>5</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="F86" s="29"/>
     </row>
@@ -2657,7 +2740,7 @@
         <v>5</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="F89" s="29"/>
     </row>
@@ -2717,7 +2800,7 @@
         <v>23</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="F93" s="29"/>
     </row>
@@ -2735,7 +2818,7 @@
         <v>79</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="F94" s="29"/>
     </row>
@@ -2753,7 +2836,7 @@
         <v>81</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F95" s="29"/>
     </row>
@@ -2771,7 +2854,7 @@
         <v>21</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F96" s="29"/>
     </row>
@@ -2789,7 +2872,7 @@
         <v>19</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F97" s="29"/>
     </row>
@@ -2807,7 +2890,7 @@
         <v>82</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F98" s="29"/>
     </row>
@@ -2825,7 +2908,7 @@
         <v>27</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F99" s="29"/>
     </row>
@@ -2843,7 +2926,7 @@
         <v>69</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="F100" s="29"/>
     </row>
@@ -2856,7 +2939,7 @@
       <c r="D101" s="34"/>
       <c r="E101" s="11"/>
       <c r="F101" s="29" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2889,7 +2972,7 @@
         <v>27</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F103" s="29"/>
     </row>
@@ -2927,51 +3010,51 @@
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B106" s="22">
         <v>1</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="F106" s="29"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B107" s="22">
         <v>1</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="23" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F107" s="29"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B108" s="22">
         <v>1</v>
       </c>
       <c r="C108" s="23"/>
       <c r="D108" s="23" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F108" s="29"/>
     </row>
@@ -2989,7 +3072,7 @@
         <v>23</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="F109" s="29"/>
     </row>
@@ -3002,7 +3085,7 @@
       <c r="D110" s="34"/>
       <c r="E110" s="11"/>
       <c r="F110" s="29" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3035,7 +3118,7 @@
         <v>5</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="F112" s="29"/>
     </row>
@@ -3111,7 +3194,7 @@
         <v>5</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="F117" s="29"/>
     </row>
@@ -3155,7 +3238,7 @@
         <v>5</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="F120" s="29"/>
     </row>
@@ -3231,7 +3314,7 @@
         <v>5</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="F125" s="29"/>
     </row>
@@ -3274,7 +3357,7 @@
       <c r="D128" s="34"/>
       <c r="E128" s="11"/>
       <c r="F128" s="29" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3307,7 +3390,7 @@
         <v>90</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="F130" s="29"/>
     </row>
@@ -3325,7 +3408,7 @@
         <v>91</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F131" s="29"/>
     </row>
@@ -3343,7 +3426,7 @@
         <v>82</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F132" s="29"/>
     </row>
@@ -3361,7 +3444,7 @@
         <v>21</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F133" s="29"/>
     </row>
@@ -3379,7 +3462,7 @@
         <v>19</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F134" s="29"/>
     </row>
@@ -3397,7 +3480,7 @@
         <v>66</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="F135" s="29"/>
     </row>
@@ -3415,7 +3498,7 @@
         <v>27</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F136" s="29"/>
     </row>
@@ -3458,7 +3541,7 @@
       <c r="D139" s="34"/>
       <c r="E139" s="11"/>
       <c r="F139" s="29" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3555,7 +3638,7 @@
         <v>27</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F145" s="29"/>
     </row>
@@ -3577,7 +3660,7 @@
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B147" s="22">
         <v>1</v>
@@ -3586,26 +3669,26 @@
         <v>114</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F147" s="29"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B148" s="22">
         <v>1</v>
       </c>
       <c r="C148" s="23"/>
       <c r="D148" s="23" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F148" s="29"/>
     </row>
@@ -3649,7 +3732,7 @@
         <v>27</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F151" s="29"/>
     </row>
@@ -3687,7 +3770,7 @@
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B154" s="22">
         <v>1</v>
@@ -3696,42 +3779,42 @@
         <v>114</v>
       </c>
       <c r="D154" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="F154" s="29"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B155" s="22">
         <v>1</v>
       </c>
       <c r="C155" s="23"/>
       <c r="D155" s="23" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F155" s="29"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B156" s="22">
         <v>1</v>
       </c>
       <c r="C156" s="23"/>
       <c r="D156" s="23" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F156" s="29"/>
     </row>
@@ -3744,7 +3827,7 @@
       <c r="D157" s="34"/>
       <c r="E157" s="11"/>
       <c r="F157" s="29" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3827,7 +3910,7 @@
         <v>66</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="F162" s="29"/>
     </row>
@@ -3845,7 +3928,7 @@
         <v>13</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="F163" s="29"/>
     </row>
@@ -3857,30 +3940,30 @@
         <v>1</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E164" s="28" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F164" s="29"/>
       <c r="G164" s="18"/>
     </row>
     <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B165" s="22">
         <v>2</v>
       </c>
       <c r="C165" s="23"/>
       <c r="D165" s="23" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F165" s="29"/>
     </row>
@@ -3893,7 +3976,7 @@
       <c r="D166" s="34"/>
       <c r="E166" s="11"/>
       <c r="F166" s="29" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3960,7 +4043,7 @@
         <v>5</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="F170" s="29"/>
     </row>
@@ -4038,7 +4121,7 @@
         <v>5</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="F175" s="29"/>
     </row>
@@ -4116,7 +4199,7 @@
         <v>5</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="F180" s="29"/>
     </row>
@@ -4270,7 +4353,7 @@
       <c r="D190" s="34"/>
       <c r="E190" s="11"/>
       <c r="F190" s="29" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4297,13 +4380,13 @@
         <v>1</v>
       </c>
       <c r="C192" s="22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="F192" s="29"/>
     </row>
@@ -4353,7 +4436,7 @@
         <v>108</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F195" s="29"/>
     </row>
@@ -4429,22 +4512,22 @@
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B201" s="22">
+        <v>1</v>
+      </c>
+      <c r="C201" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D201" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B201" s="22">
-        <v>1</v>
-      </c>
-      <c r="C201" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D201" s="23" t="s">
-        <v>130</v>
-      </c>
       <c r="E201" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F201" s="14" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4461,7 +4544,7 @@
         <v>56</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4475,13 +4558,13 @@
         <v>57</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F203" s="14" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4498,10 +4581,10 @@
         <v>59</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F204" s="29" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
+++ b/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
@@ -1298,7 +1298,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>

--- a/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
+++ b/QLoc/doc/Zestawienie Sprzętu - Crestron Only.xlsx
@@ -968,7 +968,13 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -977,13 +983,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1298,7 +1298,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
       <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
@@ -1328,14 +1328,14 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="32" t="s">
         <v>161</v>
       </c>
       <c r="G3" s="17"/>
@@ -1354,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="31"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
@@ -1372,17 +1372,17 @@
       <c r="E5" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="34" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="29"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
@@ -1418,7 +1418,7 @@
       <c r="E8" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
@@ -1436,7 +1436,7 @@
       <c r="E9" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
@@ -1454,7 +1454,7 @@
       <c r="E10" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -1472,7 +1472,7 @@
       <c r="E11" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
@@ -1490,7 +1490,7 @@
       <c r="E12" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
@@ -1508,7 +1508,7 @@
       <c r="E13" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
@@ -1526,7 +1526,7 @@
       <c r="E14" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
@@ -1544,7 +1544,7 @@
       <c r="E15" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1558,7 +1558,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1574,7 +1574,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="29"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1590,7 +1590,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="29"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
@@ -1608,7 +1608,7 @@
       <c r="E19" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
@@ -1626,7 +1626,7 @@
       <c r="E20" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
@@ -1644,17 +1644,17 @@
       <c r="E21" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="29"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
@@ -1670,7 +1670,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="29"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1688,7 +1688,7 @@
       <c r="E24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1704,7 +1704,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="29"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
@@ -1722,7 +1722,7 @@
       <c r="E26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
@@ -1740,7 +1740,7 @@
       <c r="E27" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1756,7 +1756,7 @@
         <v>46</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
@@ -1774,7 +1774,7 @@
       <c r="E29" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="34"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -1792,7 +1792,7 @@
       <c r="E30" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="34"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
@@ -1810,7 +1810,7 @@
       <c r="E31" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
@@ -1828,7 +1828,7 @@
       <c r="E32" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="34"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
@@ -1846,7 +1846,7 @@
       <c r="E33" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="29"/>
+      <c r="F33" s="34"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
@@ -1862,7 +1862,7 @@
       <c r="E34" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="29"/>
+      <c r="F34" s="34"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
@@ -1880,7 +1880,7 @@
       <c r="E35" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="29"/>
+      <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
@@ -1898,17 +1898,17 @@
       <c r="E36" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="F36" s="29"/>
+      <c r="F36" s="34"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="29"/>
+      <c r="F37" s="34"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
@@ -1924,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="29"/>
+      <c r="F38" s="34"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
@@ -1942,7 +1942,7 @@
       <c r="E39" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="F39" s="29"/>
+      <c r="F39" s="34"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
@@ -1958,7 +1958,7 @@
       <c r="E40" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F40" s="29"/>
+      <c r="F40" s="34"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
@@ -1974,7 +1974,7 @@
       <c r="E41" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F41" s="29"/>
+      <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
@@ -1990,7 +1990,7 @@
       <c r="E42" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F42" s="29"/>
+      <c r="F42" s="34"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
@@ -2008,7 +2008,7 @@
       <c r="E43" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F43" s="29"/>
+      <c r="F43" s="34"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
@@ -2026,7 +2026,7 @@
       <c r="E44" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F44" s="29"/>
+      <c r="F44" s="34"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
@@ -2044,7 +2044,7 @@
       <c r="E45" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F45" s="29"/>
+      <c r="F45" s="34"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
@@ -2062,7 +2062,7 @@
       <c r="E46" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="29"/>
+      <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
@@ -2080,7 +2080,7 @@
       <c r="E47" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="29"/>
+      <c r="F47" s="34"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
@@ -2098,7 +2098,7 @@
       <c r="E48" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F48" s="29"/>
+      <c r="F48" s="34"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
@@ -2116,17 +2116,17 @@
       <c r="E49" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F49" s="29"/>
+      <c r="F49" s="34"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="34"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="29"/>
+      <c r="F50" s="34"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
@@ -2142,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="12"/>
-      <c r="F51" s="29"/>
+      <c r="F51" s="34"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -2158,7 +2158,7 @@
       <c r="E52" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F52" s="29"/>
+      <c r="F52" s="34"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
@@ -2174,17 +2174,17 @@
       <c r="E53" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F53" s="29"/>
+      <c r="F53" s="34"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="34"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="34" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="12"/>
-      <c r="F55" s="29"/>
+      <c r="F55" s="34"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
@@ -2220,7 +2220,7 @@
       <c r="E56" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F56" s="29"/>
+      <c r="F56" s="34"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
@@ -2238,7 +2238,7 @@
       <c r="E57" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F57" s="29"/>
+      <c r="F57" s="34"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
@@ -2254,7 +2254,7 @@
       <c r="E58" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F58" s="29"/>
+      <c r="F58" s="34"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
@@ -2270,7 +2270,7 @@
       <c r="E59" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="29"/>
+      <c r="F59" s="34"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
@@ -2288,7 +2288,7 @@
       <c r="E60" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F60" s="29"/>
+      <c r="F60" s="34"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
@@ -2306,7 +2306,7 @@
       <c r="E61" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F61" s="29"/>
+      <c r="F61" s="34"/>
     </row>
     <row r="62" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -2322,7 +2322,7 @@
         <v>29</v>
       </c>
       <c r="E62" s="6"/>
-      <c r="F62" s="29"/>
+      <c r="F62" s="34"/>
     </row>
     <row r="63" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -2338,17 +2338,17 @@
         <v>9</v>
       </c>
       <c r="E63" s="6"/>
-      <c r="F63" s="29"/>
+      <c r="F63" s="34"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="34"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="31"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="29"/>
+      <c r="F64" s="34"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
@@ -2364,7 +2364,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="12"/>
-      <c r="F65" s="29"/>
+      <c r="F65" s="34"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
@@ -2382,7 +2382,7 @@
       <c r="E66" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F66" s="29"/>
+      <c r="F66" s="34"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
@@ -2398,7 +2398,7 @@
       <c r="E67" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F67" s="29"/>
+      <c r="F67" s="34"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
@@ -2414,7 +2414,7 @@
       <c r="E68" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F68" s="29"/>
+      <c r="F68" s="34"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
@@ -2432,7 +2432,7 @@
       <c r="E69" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F69" s="29"/>
+      <c r="F69" s="34"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
@@ -2450,7 +2450,7 @@
       <c r="E70" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F70" s="29"/>
+      <c r="F70" s="34"/>
     </row>
     <row r="71" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -2466,7 +2466,7 @@
         <v>27</v>
       </c>
       <c r="E71" s="4"/>
-      <c r="F71" s="29"/>
+      <c r="F71" s="34"/>
     </row>
     <row r="72" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -2482,7 +2482,7 @@
         <v>29</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="29"/>
+      <c r="F72" s="34"/>
     </row>
     <row r="73" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -2498,17 +2498,17 @@
         <v>9</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="29"/>
+      <c r="F73" s="34"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="34"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="31"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="29"/>
+      <c r="F74" s="34"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="12"/>
-      <c r="F75" s="29"/>
+      <c r="F75" s="34"/>
     </row>
     <row r="76" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -2542,7 +2542,7 @@
       <c r="E76" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F76" s="29"/>
+      <c r="F76" s="34"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
@@ -2560,7 +2560,7 @@
       <c r="E77" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F77" s="29"/>
+      <c r="F77" s="34"/>
     </row>
     <row r="78" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -2576,7 +2576,7 @@
         <v>29</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="29"/>
+      <c r="F78" s="34"/>
     </row>
     <row r="79" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -2592,17 +2592,17 @@
         <v>9</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="29"/>
+      <c r="F79" s="34"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="34"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="31"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="29"/>
+      <c r="F80" s="34"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
@@ -2618,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="12"/>
-      <c r="F81" s="29"/>
+      <c r="F81" s="34"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
@@ -2634,7 +2634,7 @@
         <v>27</v>
       </c>
       <c r="E82" s="10"/>
-      <c r="F82" s="29"/>
+      <c r="F82" s="34"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
@@ -2652,17 +2652,17 @@
       <c r="E83" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F83" s="29"/>
+      <c r="F83" s="34"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="34"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="31"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="29" t="s">
+      <c r="F84" s="34" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
         <v>3</v>
       </c>
       <c r="E85" s="12"/>
-      <c r="F85" s="29"/>
+      <c r="F85" s="34"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
@@ -2698,17 +2698,17 @@
       <c r="E86" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="F86" s="29"/>
+      <c r="F86" s="34"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="34"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="31"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="29"/>
+      <c r="F87" s="34"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
@@ -2724,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="E88" s="12"/>
-      <c r="F88" s="29"/>
+      <c r="F88" s="34"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
@@ -2742,7 +2742,7 @@
       <c r="E89" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F89" s="29"/>
+      <c r="F89" s="34"/>
     </row>
     <row r="90" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -2758,17 +2758,17 @@
         <v>29</v>
       </c>
       <c r="E90" s="7"/>
-      <c r="F90" s="29"/>
+      <c r="F90" s="34"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="34"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="31"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="29"/>
+      <c r="F91" s="34"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="E92" s="12"/>
-      <c r="F92" s="29"/>
+      <c r="F92" s="34"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
@@ -2802,7 +2802,7 @@
       <c r="E93" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F93" s="29"/>
+      <c r="F93" s="34"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22">
@@ -2820,7 +2820,7 @@
       <c r="E94" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F94" s="29"/>
+      <c r="F94" s="34"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
@@ -2838,7 +2838,7 @@
       <c r="E95" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F95" s="29"/>
+      <c r="F95" s="34"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
@@ -2856,7 +2856,7 @@
       <c r="E96" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F96" s="29"/>
+      <c r="F96" s="34"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
@@ -2874,7 +2874,7 @@
       <c r="E97" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F97" s="29"/>
+      <c r="F97" s="34"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
@@ -2892,7 +2892,7 @@
       <c r="E98" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F98" s="29"/>
+      <c r="F98" s="34"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
@@ -2910,7 +2910,7 @@
       <c r="E99" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F99" s="29"/>
+      <c r="F99" s="34"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
@@ -2928,17 +2928,17 @@
       <c r="E100" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F100" s="29"/>
+      <c r="F100" s="34"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B101" s="33"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="34"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="31"/>
       <c r="E101" s="11"/>
-      <c r="F101" s="29" t="s">
+      <c r="F101" s="34" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="E102" s="12"/>
-      <c r="F102" s="29"/>
+      <c r="F102" s="34"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
@@ -2974,7 +2974,7 @@
       <c r="E103" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F103" s="29"/>
+      <c r="F103" s="34"/>
     </row>
     <row r="104" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -2990,7 +2990,7 @@
         <v>29</v>
       </c>
       <c r="E104" s="8"/>
-      <c r="F104" s="29"/>
+      <c r="F104" s="34"/>
     </row>
     <row r="105" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -3006,7 +3006,7 @@
         <v>9</v>
       </c>
       <c r="E105" s="8"/>
-      <c r="F105" s="29"/>
+      <c r="F105" s="34"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
@@ -3024,7 +3024,7 @@
       <c r="E106" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F106" s="29"/>
+      <c r="F106" s="34"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
@@ -3040,7 +3040,7 @@
       <c r="E107" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F107" s="29"/>
+      <c r="F107" s="34"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
@@ -3056,7 +3056,7 @@
       <c r="E108" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F108" s="29"/>
+      <c r="F108" s="34"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22">
@@ -3074,17 +3074,17 @@
       <c r="E109" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="F109" s="29"/>
+      <c r="F109" s="34"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="32" t="s">
+      <c r="A110" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B110" s="33"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="34"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="31"/>
       <c r="E110" s="11"/>
-      <c r="F110" s="29" t="s">
+      <c r="F110" s="34" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
         <v>3</v>
       </c>
       <c r="E111" s="12"/>
-      <c r="F111" s="29"/>
+      <c r="F111" s="34"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
@@ -3120,7 +3120,7 @@
       <c r="E112" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F112" s="29"/>
+      <c r="F112" s="34"/>
     </row>
     <row r="113" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -3136,7 +3136,7 @@
         <v>29</v>
       </c>
       <c r="E113" s="4"/>
-      <c r="F113" s="29"/>
+      <c r="F113" s="34"/>
     </row>
     <row r="114" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -3152,17 +3152,17 @@
         <v>9</v>
       </c>
       <c r="E114" s="4"/>
-      <c r="F114" s="29"/>
+      <c r="F114" s="34"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="32" t="s">
+      <c r="A115" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="34"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="31"/>
       <c r="E115" s="11"/>
-      <c r="F115" s="29"/>
+      <c r="F115" s="34"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
@@ -3178,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="E116" s="12"/>
-      <c r="F116" s="29"/>
+      <c r="F116" s="34"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22">
@@ -3196,17 +3196,17 @@
       <c r="E117" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F117" s="29"/>
+      <c r="F117" s="34"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="32" t="s">
+      <c r="A118" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="34"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="31"/>
       <c r="E118" s="11"/>
-      <c r="F118" s="29"/>
+      <c r="F118" s="34"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
@@ -3222,7 +3222,7 @@
         <v>3</v>
       </c>
       <c r="E119" s="12"/>
-      <c r="F119" s="29"/>
+      <c r="F119" s="34"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
@@ -3240,7 +3240,7 @@
       <c r="E120" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F120" s="29"/>
+      <c r="F120" s="34"/>
     </row>
     <row r="121" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -3256,7 +3256,7 @@
         <v>29</v>
       </c>
       <c r="E121" s="6"/>
-      <c r="F121" s="29"/>
+      <c r="F121" s="34"/>
     </row>
     <row r="122" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -3272,17 +3272,17 @@
         <v>9</v>
       </c>
       <c r="E122" s="6"/>
-      <c r="F122" s="29"/>
+      <c r="F122" s="34"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="32" t="s">
+      <c r="A123" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B123" s="33"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="34"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="31"/>
       <c r="E123" s="11"/>
-      <c r="F123" s="29"/>
+      <c r="F123" s="34"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
@@ -3298,7 +3298,7 @@
         <v>3</v>
       </c>
       <c r="E124" s="12"/>
-      <c r="F124" s="29"/>
+      <c r="F124" s="34"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
@@ -3316,7 +3316,7 @@
       <c r="E125" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F125" s="29"/>
+      <c r="F125" s="34"/>
     </row>
     <row r="126" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -3349,14 +3349,14 @@
       <c r="E127" s="6"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="32" t="s">
+      <c r="A128" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B128" s="33"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="34"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="31"/>
       <c r="E128" s="11"/>
-      <c r="F128" s="29" t="s">
+      <c r="F128" s="34" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="E129" s="12"/>
-      <c r="F129" s="29"/>
+      <c r="F129" s="34"/>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22">
@@ -3392,7 +3392,7 @@
       <c r="E130" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F130" s="29"/>
+      <c r="F130" s="34"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22">
@@ -3410,7 +3410,7 @@
       <c r="E131" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F131" s="29"/>
+      <c r="F131" s="34"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22">
@@ -3428,7 +3428,7 @@
       <c r="E132" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F132" s="29"/>
+      <c r="F132" s="34"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="22">
@@ -3446,7 +3446,7 @@
       <c r="E133" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F133" s="29"/>
+      <c r="F133" s="34"/>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="22">
@@ -3464,7 +3464,7 @@
       <c r="E134" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F134" s="29"/>
+      <c r="F134" s="34"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="22">
@@ -3482,7 +3482,7 @@
       <c r="E135" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F135" s="29"/>
+      <c r="F135" s="34"/>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="22">
@@ -3500,7 +3500,7 @@
       <c r="E136" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F136" s="29"/>
+      <c r="F136" s="34"/>
     </row>
     <row r="137" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -3533,14 +3533,14 @@
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="32" t="s">
+      <c r="A139" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B139" s="33"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="34"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="31"/>
       <c r="E139" s="11"/>
-      <c r="F139" s="29" t="s">
+      <c r="F139" s="34" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3558,7 +3558,7 @@
         <v>3</v>
       </c>
       <c r="E140" s="12"/>
-      <c r="F140" s="29"/>
+      <c r="F140" s="34"/>
     </row>
     <row r="141" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -3574,7 +3574,7 @@
         <v>5</v>
       </c>
       <c r="E141" s="6"/>
-      <c r="F141" s="29"/>
+      <c r="F141" s="34"/>
     </row>
     <row r="142" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
@@ -3590,7 +3590,7 @@
         <v>7</v>
       </c>
       <c r="E142" s="6"/>
-      <c r="F142" s="29"/>
+      <c r="F142" s="34"/>
     </row>
     <row r="143" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -3606,7 +3606,7 @@
         <v>14</v>
       </c>
       <c r="E143" s="6"/>
-      <c r="F143" s="29"/>
+      <c r="F143" s="34"/>
     </row>
     <row r="144" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -3622,7 +3622,7 @@
         <v>29</v>
       </c>
       <c r="E144" s="6"/>
-      <c r="F144" s="29"/>
+      <c r="F144" s="34"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="22">
@@ -3640,7 +3640,7 @@
       <c r="E145" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F145" s="29"/>
+      <c r="F145" s="34"/>
     </row>
     <row r="146" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
@@ -3656,7 +3656,7 @@
         <v>9</v>
       </c>
       <c r="E146" s="6"/>
-      <c r="F146" s="29"/>
+      <c r="F146" s="34"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="23" t="s">
@@ -3674,7 +3674,7 @@
       <c r="E147" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F147" s="29"/>
+      <c r="F147" s="34"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="s">
@@ -3690,17 +3690,17 @@
       <c r="E148" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F148" s="29"/>
+      <c r="F148" s="34"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="32" t="s">
+      <c r="A149" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="34"/>
+      <c r="B149" s="30"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="31"/>
       <c r="E149" s="11"/>
-      <c r="F149" s="29"/>
+      <c r="F149" s="34"/>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
@@ -3716,7 +3716,7 @@
         <v>3</v>
       </c>
       <c r="E150" s="12"/>
-      <c r="F150" s="29"/>
+      <c r="F150" s="34"/>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="22">
@@ -3734,7 +3734,7 @@
       <c r="E151" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F151" s="29"/>
+      <c r="F151" s="34"/>
     </row>
     <row r="152" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -3750,7 +3750,7 @@
         <v>29</v>
       </c>
       <c r="E152" s="4"/>
-      <c r="F152" s="29"/>
+      <c r="F152" s="34"/>
     </row>
     <row r="153" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -3766,7 +3766,7 @@
         <v>9</v>
       </c>
       <c r="E153" s="4"/>
-      <c r="F153" s="29"/>
+      <c r="F153" s="34"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="23" t="s">
@@ -3784,7 +3784,7 @@
       <c r="E154" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="F154" s="29"/>
+      <c r="F154" s="34"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="s">
@@ -3800,7 +3800,7 @@
       <c r="E155" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F155" s="29"/>
+      <c r="F155" s="34"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="23" t="s">
@@ -3816,17 +3816,17 @@
       <c r="E156" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F156" s="29"/>
+      <c r="F156" s="34"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="32" t="s">
+      <c r="A157" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B157" s="33"/>
-      <c r="C157" s="33"/>
-      <c r="D157" s="34"/>
+      <c r="B157" s="30"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="31"/>
       <c r="E157" s="11"/>
-      <c r="F157" s="29" t="s">
+      <c r="F157" s="34" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3844,7 +3844,7 @@
         <v>3</v>
       </c>
       <c r="E158" s="12"/>
-      <c r="F158" s="29"/>
+      <c r="F158" s="34"/>
     </row>
     <row r="159" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -3862,7 +3862,7 @@
       <c r="E159" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F159" s="29"/>
+      <c r="F159" s="34"/>
     </row>
     <row r="160" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -3878,7 +3878,7 @@
         <v>29</v>
       </c>
       <c r="E160" s="4"/>
-      <c r="F160" s="29"/>
+      <c r="F160" s="34"/>
     </row>
     <row r="161" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
@@ -3894,7 +3894,7 @@
         <v>9</v>
       </c>
       <c r="E161" s="4"/>
-      <c r="F161" s="29"/>
+      <c r="F161" s="34"/>
     </row>
     <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="22">
@@ -3912,7 +3912,7 @@
       <c r="E162" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="F162" s="29"/>
+      <c r="F162" s="34"/>
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="22">
@@ -3930,7 +3930,7 @@
       <c r="E163" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F163" s="29"/>
+      <c r="F163" s="34"/>
     </row>
     <row r="164" spans="1:7" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="24">
@@ -3948,7 +3948,7 @@
       <c r="E164" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F164" s="29"/>
+      <c r="F164" s="34"/>
       <c r="G164" s="18"/>
     </row>
     <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3965,17 +3965,17 @@
       <c r="E165" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F165" s="29"/>
+      <c r="F165" s="34"/>
     </row>
     <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="32" t="s">
+      <c r="A166" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B166" s="33"/>
-      <c r="C166" s="33"/>
-      <c r="D166" s="34"/>
+      <c r="B166" s="30"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="31"/>
       <c r="E166" s="11"/>
-      <c r="F166" s="29" t="s">
+      <c r="F166" s="34" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
         <v>3</v>
       </c>
       <c r="E167" s="12"/>
-      <c r="F167" s="29"/>
+      <c r="F167" s="34"/>
     </row>
     <row r="168" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
@@ -4011,7 +4011,7 @@
       <c r="E168" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F168" s="29"/>
+      <c r="F168" s="34"/>
     </row>
     <row r="169" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
@@ -4027,7 +4027,7 @@
         <v>9</v>
       </c>
       <c r="E169" s="8"/>
-      <c r="F169" s="29"/>
+      <c r="F169" s="34"/>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="22">
@@ -4045,17 +4045,17 @@
       <c r="E170" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F170" s="29"/>
+      <c r="F170" s="34"/>
     </row>
     <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="32" t="s">
+      <c r="A171" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B171" s="33"/>
-      <c r="C171" s="33"/>
-      <c r="D171" s="34"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="31"/>
       <c r="E171" s="11"/>
-      <c r="F171" s="29"/>
+      <c r="F171" s="34"/>
     </row>
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="s">
@@ -4071,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="E172" s="12"/>
-      <c r="F172" s="29"/>
+      <c r="F172" s="34"/>
     </row>
     <row r="173" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
@@ -4089,7 +4089,7 @@
       <c r="E173" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F173" s="29"/>
+      <c r="F173" s="34"/>
     </row>
     <row r="174" spans="1:7" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
@@ -4105,7 +4105,7 @@
         <v>9</v>
       </c>
       <c r="E174" s="6"/>
-      <c r="F174" s="29"/>
+      <c r="F174" s="34"/>
     </row>
     <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="22">
@@ -4123,17 +4123,17 @@
       <c r="E175" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="F175" s="29"/>
+      <c r="F175" s="34"/>
     </row>
     <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="32" t="s">
+      <c r="A176" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B176" s="33"/>
-      <c r="C176" s="33"/>
-      <c r="D176" s="34"/>
+      <c r="B176" s="30"/>
+      <c r="C176" s="30"/>
+      <c r="D176" s="31"/>
       <c r="E176" s="11"/>
-      <c r="F176" s="29"/>
+      <c r="F176" s="34"/>
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
@@ -4149,7 +4149,7 @@
         <v>3</v>
       </c>
       <c r="E177" s="12"/>
-      <c r="F177" s="29"/>
+      <c r="F177" s="34"/>
     </row>
     <row r="178" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
@@ -4167,7 +4167,7 @@
       <c r="E178" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F178" s="29"/>
+      <c r="F178" s="34"/>
     </row>
     <row r="179" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
@@ -4183,7 +4183,7 @@
         <v>9</v>
       </c>
       <c r="E179" s="6"/>
-      <c r="F179" s="29"/>
+      <c r="F179" s="34"/>
     </row>
     <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="22">
@@ -4201,7 +4201,7 @@
       <c r="E180" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="F180" s="29"/>
+      <c r="F180" s="34"/>
     </row>
     <row r="181" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
@@ -4345,14 +4345,14 @@
       <c r="E189" s="6"/>
     </row>
     <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="32" t="s">
+      <c r="A190" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B190" s="33"/>
-      <c r="C190" s="33"/>
-      <c r="D190" s="34"/>
+      <c r="B190" s="30"/>
+      <c r="C190" s="30"/>
+      <c r="D190" s="31"/>
       <c r="E190" s="11"/>
-      <c r="F190" s="29" t="s">
+      <c r="F190" s="34" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4370,7 +4370,7 @@
         <v>3</v>
       </c>
       <c r="E191" s="12"/>
-      <c r="F191" s="29"/>
+      <c r="F191" s="34"/>
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="22">
@@ -4388,7 +4388,7 @@
       <c r="E192" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F192" s="29"/>
+      <c r="F192" s="34"/>
     </row>
     <row r="193" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
@@ -4404,7 +4404,7 @@
         <v>104</v>
       </c>
       <c r="E193" s="8"/>
-      <c r="F193" s="29"/>
+      <c r="F193" s="34"/>
     </row>
     <row r="194" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
@@ -4420,7 +4420,7 @@
         <v>106</v>
       </c>
       <c r="E194" s="8"/>
-      <c r="F194" s="29"/>
+      <c r="F194" s="34"/>
     </row>
     <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="22">
@@ -4438,7 +4438,7 @@
       <c r="E195" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F195" s="29"/>
+      <c r="F195" s="34"/>
     </row>
     <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="22">
@@ -4454,15 +4454,15 @@
         <v>36</v>
       </c>
       <c r="E196" s="10"/>
-      <c r="F196" s="29"/>
+      <c r="F196" s="34"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="32" t="s">
+      <c r="A197" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B197" s="33"/>
-      <c r="C197" s="33"/>
-      <c r="D197" s="34"/>
+      <c r="B197" s="30"/>
+      <c r="C197" s="30"/>
+      <c r="D197" s="31"/>
       <c r="E197" s="11"/>
     </row>
     <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4583,7 +4583,7 @@
       <c r="E204" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F204" s="29" t="s">
+      <c r="F204" s="34" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
         <v>61</v>
       </c>
       <c r="E205" s="10"/>
-      <c r="F205" s="29"/>
+      <c r="F205" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:E200">
@@ -4622,25 +4622,14 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="38">
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="F166:F180"/>
+    <mergeCell ref="F190:F196"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="F101:F109"/>
+    <mergeCell ref="F110:F125"/>
+    <mergeCell ref="F128:F136"/>
+    <mergeCell ref="F139:F156"/>
+    <mergeCell ref="F157:F165"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="F6:F53"/>
     <mergeCell ref="F54:F83"/>
@@ -4652,14 +4641,25 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F166:F180"/>
-    <mergeCell ref="F190:F196"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="F101:F109"/>
-    <mergeCell ref="F110:F125"/>
-    <mergeCell ref="F128:F136"/>
-    <mergeCell ref="F139:F156"/>
-    <mergeCell ref="F157:F165"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A166:D166"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
